--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podrobin\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A5F53F-06DB-469E-9864-21CC8FA577B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D70D464-0E5B-41D0-9F5C-59FBDEA11867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="165">
   <si>
     <t>Team</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>Win %</t>
+  </si>
+  <si>
+    <t>% Playoffs</t>
+  </si>
+  <si>
+    <t>pts/season</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +636,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,14 +775,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -830,13 +845,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,17 +869,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,16 +890,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAC8300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF339966"/>
+      <color rgb="FFAC8300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1216,7 +1270,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1291,7 +1345,9 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1652,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1691,7 +1747,7 @@
       <c r="J3" s="1">
         <v>1744.88</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1727,11 +1783,13 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
@@ -1760,7 +1818,7 @@
       <c r="J5" s="1">
         <v>1613.18</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
@@ -1795,8 +1853,8 @@
       <c r="J6" s="2">
         <v>1612.58</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="54" t="s">
+      <c r="L6" s="55"/>
+      <c r="N6" s="56" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1830,7 +1888,7 @@
       <c r="J7" s="18">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16">
@@ -1961,7 +2019,9 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -1996,7 +2056,9 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -2057,7 +2119,7 @@
       <c r="J14" s="2">
         <v>1397.72</v>
       </c>
-      <c r="P14" s="54" t="s">
+      <c r="P14" s="56" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2091,10 +2153,10 @@
       <c r="J15" s="2">
         <v>1368.44</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="54"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2"/>
@@ -2126,7 +2188,7 @@
       <c r="J16" s="2">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="59"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
@@ -2146,7 +2208,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="52"/>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="56" t="s">
         <v>118</v>
       </c>
       <c r="P18" s="17"/>
@@ -2159,7 +2221,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="55"/>
+      <c r="N19" s="61"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
@@ -2178,7 +2240,7 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="53" t="s">
         <v>115</v>
       </c>
       <c r="N21" s="64"/>
@@ -2196,7 +2258,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="59"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -2293,11 +2355,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2309,6 +2366,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2319,7 +2381,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2365,7 +2427,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="15">
-      <c r="A2" s="30"/>
+      <c r="A2" s="30">
+        <v>4</v>
+      </c>
       <c r="B2" s="30">
         <v>1</v>
       </c>
@@ -2430,7 +2494,7 @@
       <c r="I3" s="30">
         <v>1830.48</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="53" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2463,7 +2527,7 @@
       <c r="I4" s="30">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1">
@@ -2495,13 +2559,15 @@
       <c r="I5" s="30">
         <v>2011.64</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -2527,13 +2593,15 @@
       <c r="I6" s="30">
         <v>1810.54</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="55"/>
       <c r="M6" s="64" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
       <c r="B7" s="30">
         <v>6</v>
       </c>
@@ -2589,7 +2657,7 @@
       <c r="I8" s="28">
         <v>1557.34</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="56" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="17"/>
@@ -2621,10 +2689,10 @@
       <c r="I9" s="28">
         <v>1632.8</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="56"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15">
@@ -2654,7 +2722,7 @@
       <c r="I10" s="28">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="59"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17"/>
       <c r="O10" s="17"/>
@@ -2719,7 +2787,7 @@
         <v>1491.86</v>
       </c>
       <c r="K12" s="52"/>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="56" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2750,7 +2818,7 @@
       <c r="I13" s="28">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="55"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="28"/>
@@ -2776,7 +2844,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="53" t="s">
         <v>145</v>
       </c>
       <c r="O15" s="64"/>
@@ -2791,7 +2859,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="26"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="12"/>
       <c r="O16" s="17"/>
     </row>
@@ -2810,7 +2878,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="K18" s="52"/>
-      <c r="M18" s="54" t="s">
+      <c r="M18" s="56" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="17"/>
@@ -2822,7 +2890,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="M19" s="55"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
     </row>
@@ -2831,7 +2899,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15">
+    <row r="21" spans="1:15">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -2841,7 +2909,7 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="53" t="s">
         <v>154</v>
       </c>
       <c r="M21" s="64"/>
@@ -2859,7 +2927,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
@@ -2929,7 +2997,7 @@
       <c r="B27" s="6"/>
       <c r="O27" s="63"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -2956,11 +3024,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -2972,6 +3035,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2982,7 +3050,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3095,12 +3163,14 @@
       <c r="I3" s="30">
         <v>1668.12</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="53" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="30">
+        <v>6</v>
+      </c>
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -3126,7 +3196,7 @@
       <c r="I4" s="30">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1">
@@ -3158,13 +3228,15 @@
       <c r="I5" s="30">
         <v>1912.76</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -3190,13 +3262,15 @@
       <c r="I6" s="30">
         <v>1688.86</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="55"/>
       <c r="M6" s="64" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
       <c r="B7" s="30">
         <v>6</v>
       </c>
@@ -3252,7 +3326,7 @@
       <c r="I8" s="28">
         <v>1557.08</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="56" t="s">
         <v>146</v>
       </c>
       <c r="O8" s="17"/>
@@ -3284,10 +3358,10 @@
       <c r="I9" s="28">
         <v>1554.84</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="56"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15">
@@ -3317,7 +3391,7 @@
       <c r="I10" s="28">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="59"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17"/>
       <c r="O10" s="17"/>
@@ -3382,7 +3456,7 @@
         <v>1635.74</v>
       </c>
       <c r="K12" s="52"/>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="56" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3413,7 +3487,7 @@
       <c r="I13" s="28">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="55"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="28"/>
@@ -3504,10 +3578,10 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="6" t="s">
@@ -3522,7 +3596,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
@@ -3581,7 +3655,7 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="O26" s="58" t="s">
+      <c r="O26" s="53" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3590,7 +3664,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="O27" s="59"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="15">
       <c r="A28" s="6" t="s">
@@ -3622,11 +3696,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -3638,6 +3707,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3648,7 +3722,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3761,12 +3835,14 @@
       <c r="I3" s="30">
         <v>1879.82</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="53" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="30">
+        <v>4</v>
+      </c>
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -3792,11 +3868,13 @@
       <c r="I4" s="30">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="30">
+        <v>6</v>
+      </c>
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -3822,7 +3900,7 @@
       <c r="I5" s="30">
         <v>1702.92</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
@@ -3856,13 +3934,15 @@
       <c r="I6" s="30">
         <v>1695.94</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="M6" s="54" t="s">
+      <c r="K6" s="55"/>
+      <c r="M6" s="56" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
       <c r="B7" s="30">
         <v>6</v>
       </c>
@@ -3888,7 +3968,7 @@
       <c r="I7" s="30">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:15">
@@ -4091,7 +4171,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28"/>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="56" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4105,10 +4185,10 @@
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="54"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="18"/>
@@ -4120,7 +4200,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="26"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="12"/>
       <c r="O16" s="17"/>
     </row>
@@ -4170,10 +4250,10 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="6" t="s">
@@ -4188,7 +4268,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
@@ -4247,7 +4327,7 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="O26" s="58" t="s">
+      <c r="O26" s="53" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4256,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="O27" s="59"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="6" t="s">
@@ -4288,11 +4368,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -4304,6 +4379,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4311,10 +4391,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL12" activeCellId="1" sqref="AL19 AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4325,10 +4405,17 @@
     <col min="16" max="16" width="3.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.75" customWidth="1"/>
-    <col min="19" max="29" width="4.25" customWidth="1"/>
+    <col min="19" max="19" width="4.25" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="33" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1">
+    <row r="1" spans="1:38" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -4371,8 +4458,65 @@
       <c r="N1" s="7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="33" customFormat="1">
+      <c r="T1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="7">
+        <v>2011</v>
+      </c>
+      <c r="V1" s="7">
+        <v>2012</v>
+      </c>
+      <c r="W1" s="7">
+        <v>2013</v>
+      </c>
+      <c r="X1" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>2016</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>2017</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>2018</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AG1" s="68">
+        <v>2023</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="33" customFormat="1">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
@@ -4428,8 +4572,83 @@
         <f>_xlfn.XLOOKUP($A2,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="T2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <f>_xlfn.XLOOKUP($A2,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f>_xlfn.XLOOKUP($A2,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>_xlfn.XLOOKUP($A2,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <f>_xlfn.XLOOKUP($A2,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <f>_xlfn.XLOOKUP($A2,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>_xlfn.XLOOKUP($A2,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>_xlfn.XLOOKUP($A2,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>_xlfn.XLOOKUP($A2,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>_xlfn.XLOOKUP($A2,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>_xlfn.XLOOKUP($A2,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>_xlfn.XLOOKUP($A2,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <f>_xlfn.XLOOKUP($A2,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AG2" s="48">
+        <f>_xlfn.XLOOKUP($A2,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AH2" s="43">
+        <f>COUNTIF(U2:AG2,"&gt;0")/COUNTIF(U2:AG2,"&lt;&gt;x")</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AI2">
+        <f>COUNTIF($U2:$AG2,AI$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AK17" si="0">COUNTIF($U2:$AG2,AJ$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="43">
+        <f>(AK2+(AJ2*2)+(AI2*3))/COUNTIF(U2:AG2,"&lt;&gt;x")</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -4485,8 +4704,83 @@
         <f>_xlfn.XLOOKUP($A3,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="33" customFormat="1">
+      <c r="T3" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="69">
+        <f>_xlfn.XLOOKUP($A3,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="V3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF3" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG3" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A3,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH3" s="71">
+        <f t="shared" ref="AH3:AH25" si="1">COUNTIF(U3:AG3,"&gt;0")/COUNTIF(U3:AG3,"&lt;&gt;x")</f>
+        <v>1</v>
+      </c>
+      <c r="AI3" s="69">
+        <f t="shared" ref="AI3:AK25" si="2">COUNTIF($U3:$AG3,AI$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="71">
+        <f t="shared" ref="AL3:AL25" si="3">(AK3+(AJ3*2)+(AI3*3))/COUNTIF(U3:AG3,"&lt;&gt;x")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="33" customFormat="1">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -4542,8 +4836,83 @@
         <f>_xlfn.XLOOKUP($A4,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="T4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <f>_xlfn.XLOOKUP($A4,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f>_xlfn.XLOOKUP($A4,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f>_xlfn.XLOOKUP($A4,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f>_xlfn.XLOOKUP($A4,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>_xlfn.XLOOKUP($A4,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <f>_xlfn.XLOOKUP($A4,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <f>_xlfn.XLOOKUP($A4,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>_xlfn.XLOOKUP($A4,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <f>_xlfn.XLOOKUP($A4,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.XLOOKUP($A4,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.XLOOKUP($A4,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.XLOOKUP($A4,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AG4" s="48">
+        <f>_xlfn.XLOOKUP($A4,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="43">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AL4" s="43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -4599,8 +4968,83 @@
         <f>_xlfn.XLOOKUP($A5,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="33" customFormat="1">
+      <c r="T5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="69">
+        <f>_xlfn.XLOOKUP($A5,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="V5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF5" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG5" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A5,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH5" s="71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="33" customFormat="1">
       <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
@@ -4656,8 +5100,83 @@
         <f>_xlfn.XLOOKUP($A6,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="T6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6">
+        <f>_xlfn.XLOOKUP($A6,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>_xlfn.XLOOKUP($A6,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>_xlfn.XLOOKUP($A6,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>_xlfn.XLOOKUP($A6,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <f>_xlfn.XLOOKUP($A6,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <f>_xlfn.XLOOKUP($A6,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <f>_xlfn.XLOOKUP($A6,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>_xlfn.XLOOKUP($A6,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f>_xlfn.XLOOKUP($A6,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <f>_xlfn.XLOOKUP($A6,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <f>_xlfn.XLOOKUP($A6,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>_xlfn.XLOOKUP($A6,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="48">
+        <f>_xlfn.XLOOKUP($A6,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="43">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="43">
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -4713,8 +5232,83 @@
         <f>_xlfn.XLOOKUP($A7,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="T7" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="69">
+        <f>_xlfn.XLOOKUP($A7,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF7" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG7" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A7,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH7" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -4770,8 +5364,83 @@
         <f>_xlfn.XLOOKUP($A8,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="33" customFormat="1">
+      <c r="T8" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="69">
+        <f>_xlfn.XLOOKUP($A8,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF8" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG8" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A8,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="33" customFormat="1">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -4827,8 +5496,83 @@
         <f>_xlfn.XLOOKUP($A9,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="T9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <f>_xlfn.XLOOKUP($A9,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>_xlfn.XLOOKUP($A9,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>_xlfn.XLOOKUP($A9,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>_xlfn.XLOOKUP($A9,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>_xlfn.XLOOKUP($A9,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <f>_xlfn.XLOOKUP($A9,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>_xlfn.XLOOKUP($A9,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <f>_xlfn.XLOOKUP($A9,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <f>_xlfn.XLOOKUP($A9,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <f>_xlfn.XLOOKUP($A9,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>_xlfn.XLOOKUP($A9,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <f>_xlfn.XLOOKUP($A9,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="48">
+        <f>_xlfn.XLOOKUP($A9,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AH9" s="43">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AL9" s="43">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -4884,8 +5628,83 @@
         <f>_xlfn.XLOOKUP($A10,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="34" customFormat="1">
+      <c r="T10" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V10" s="69">
+        <f>_xlfn.XLOOKUP($A10,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="W10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF10" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG10" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A10,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH10" s="71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="71">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="34" customFormat="1">
       <c r="A11" s="36" t="s">
         <v>46</v>
       </c>
@@ -4941,8 +5760,83 @@
         <f>_xlfn.XLOOKUP($A11,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="34" customFormat="1">
+      <c r="T11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="str">
+        <f>_xlfn.XLOOKUP($A11,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V11">
+        <f>_xlfn.XLOOKUP($A11,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <f>_xlfn.XLOOKUP($A11,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <f>_xlfn.XLOOKUP($A11,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>_xlfn.XLOOKUP($A11,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>_xlfn.XLOOKUP($A11,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <f>_xlfn.XLOOKUP($A11,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>_xlfn.XLOOKUP($A11,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>_xlfn.XLOOKUP($A11,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <f>_xlfn.XLOOKUP($A11,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <f>_xlfn.XLOOKUP($A11,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f>_xlfn.XLOOKUP($A11,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AG11" s="48">
+        <f>_xlfn.XLOOKUP($A11,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="43">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="43">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="34" customFormat="1">
       <c r="A12" s="36" t="s">
         <v>43</v>
       </c>
@@ -4998,8 +5892,83 @@
         <f>_xlfn.XLOOKUP($A12,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="34" customFormat="1">
+      <c r="T12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="str">
+        <f>_xlfn.XLOOKUP($A12,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V12">
+        <f>_xlfn.XLOOKUP($A12,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>_xlfn.XLOOKUP($A12,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <f>_xlfn.XLOOKUP($A12,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>_xlfn.XLOOKUP($A12,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f>_xlfn.XLOOKUP($A12,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <f>_xlfn.XLOOKUP($A12,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f>_xlfn.XLOOKUP($A12,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>_xlfn.XLOOKUP($A12,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>_xlfn.XLOOKUP($A12,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <f>_xlfn.XLOOKUP($A12,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>_xlfn.XLOOKUP($A12,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AG12" s="48">
+        <f>_xlfn.XLOOKUP($A12,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="43">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="34" customFormat="1">
       <c r="A13" s="36" t="s">
         <v>44</v>
       </c>
@@ -5055,8 +6024,83 @@
         <f>_xlfn.XLOOKUP($A13,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="38" customFormat="1">
+      <c r="T13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="str">
+        <f>_xlfn.XLOOKUP($A13,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V13">
+        <f>_xlfn.XLOOKUP($A13,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>_xlfn.XLOOKUP($A13,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>_xlfn.XLOOKUP($A13,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>_xlfn.XLOOKUP($A13,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <f>_xlfn.XLOOKUP($A13,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>_xlfn.XLOOKUP($A13,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f>_xlfn.XLOOKUP($A13,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f>_xlfn.XLOOKUP($A13,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f>_xlfn.XLOOKUP($A13,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>_xlfn.XLOOKUP($A13,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <f>_xlfn.XLOOKUP($A13,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="48">
+        <f>_xlfn.XLOOKUP($A13,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="43">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="43">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="38" customFormat="1">
       <c r="A14" s="37" t="s">
         <v>58</v>
       </c>
@@ -5112,8 +6156,83 @@
         <f>_xlfn.XLOOKUP($A14,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="T14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="str">
+        <f>_xlfn.XLOOKUP($A14,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V14" t="str">
+        <f>_xlfn.XLOOKUP($A14,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W14">
+        <f>_xlfn.XLOOKUP($A14,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>_xlfn.XLOOKUP($A14,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <f>_xlfn.XLOOKUP($A14,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>_xlfn.XLOOKUP($A14,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <f>_xlfn.XLOOKUP($A14,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <f>_xlfn.XLOOKUP($A14,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <f>_xlfn.XLOOKUP($A14,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <f>_xlfn.XLOOKUP($A14,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>_xlfn.XLOOKUP($A14,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f>_xlfn.XLOOKUP($A14,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="AG14" s="48">
+        <f>_xlfn.XLOOKUP($A14,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="43">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="43">
+        <f t="shared" si="3"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="7" t="s">
         <v>110</v>
       </c>
@@ -5169,8 +6288,83 @@
         <f>_xlfn.XLOOKUP($A15,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="T15" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W15" s="69">
+        <f>_xlfn.XLOOKUP($A15,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF15" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG15" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A15,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH15" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -5226,8 +6420,83 @@
         <f>_xlfn.XLOOKUP($A16,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="T16" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V16" s="69">
+        <f>_xlfn.XLOOKUP($A16,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="69">
+        <f>_xlfn.XLOOKUP($A16,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="69">
+        <f>_xlfn.XLOOKUP($A16,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="69">
+        <f>_xlfn.XLOOKUP($A16,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF16" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG16" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A16,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH16" s="71">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="AI16" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -5283,8 +6552,83 @@
         <f>_xlfn.XLOOKUP($A17,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="40" customFormat="1">
+      <c r="T17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X17" s="69">
+        <f>_xlfn.XLOOKUP($A17,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF17" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG17" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A17,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH17" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" s="40" customFormat="1">
       <c r="A18" s="39" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +6684,83 @@
         <f>_xlfn.XLOOKUP($A18,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="40" customFormat="1">
+      <c r="T18" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" t="str">
+        <f>_xlfn.XLOOKUP($A18,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V18" t="str">
+        <f>_xlfn.XLOOKUP($A18,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W18" t="str">
+        <f>_xlfn.XLOOKUP($A18,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X18">
+        <f>_xlfn.XLOOKUP($A18,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f>_xlfn.XLOOKUP($A18,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>_xlfn.XLOOKUP($A18,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f>_xlfn.XLOOKUP($A18,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f>_xlfn.XLOOKUP($A18,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <f>_xlfn.XLOOKUP($A18,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f>_xlfn.XLOOKUP($A18,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <f>_xlfn.XLOOKUP($A18,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f>_xlfn.XLOOKUP($A18,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="48">
+        <f>_xlfn.XLOOKUP($A18,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AH18" s="43">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="43">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" s="40" customFormat="1">
       <c r="A19" s="39" t="s">
         <v>77</v>
       </c>
@@ -5397,8 +6816,83 @@
         <f>_xlfn.XLOOKUP($A19,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="T19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="U19" t="str">
+        <f>_xlfn.XLOOKUP($A19,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V19" t="str">
+        <f>_xlfn.XLOOKUP($A19,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W19" t="str">
+        <f>_xlfn.XLOOKUP($A19,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X19">
+        <f>_xlfn.XLOOKUP($A19,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>_xlfn.XLOOKUP($A19,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <f>_xlfn.XLOOKUP($A19,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <f>_xlfn.XLOOKUP($A19,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <f>_xlfn.XLOOKUP($A19,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f>_xlfn.XLOOKUP($A19,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <f>_xlfn.XLOOKUP($A19,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>_xlfn.XLOOKUP($A19,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f>_xlfn.XLOOKUP($A19,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="48">
+        <f>_xlfn.XLOOKUP($A19,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="43">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AL19" s="43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="7" t="s">
         <v>91</v>
       </c>
@@ -5454,8 +6948,83 @@
         <f>_xlfn.XLOOKUP($A20,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="T20" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y20" s="69">
+        <f>_xlfn.XLOOKUP($A20,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF20" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG20" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A20,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH20" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -5511,8 +7080,83 @@
         <f>_xlfn.XLOOKUP($A21,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="T21" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="U21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z21" s="69">
+        <f>_xlfn.XLOOKUP($A21,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF21" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG21" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A21,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH21" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="7" t="s">
         <v>106</v>
       </c>
@@ -5568,8 +7212,83 @@
         <f>_xlfn.XLOOKUP($A22,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:29" s="42" customFormat="1">
+      <c r="T22" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z22" s="69">
+        <f>_xlfn.XLOOKUP($A22,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="69">
+        <f>_xlfn.XLOOKUP($A22,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AB22" s="69">
+        <f>_xlfn.XLOOKUP($A22,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="AC22" s="69">
+        <f>_xlfn.XLOOKUP($A22,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF22" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG22" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A22,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH22" s="71">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI22" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="71">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" s="42" customFormat="1">
       <c r="A23" s="41" t="s">
         <v>121</v>
       </c>
@@ -5625,8 +7344,83 @@
         <f>_xlfn.XLOOKUP($A23,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="T23" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="U23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z23" t="str">
+        <f>_xlfn.XLOOKUP($A23,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA23">
+        <f>_xlfn.XLOOKUP($A23,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <f>_xlfn.XLOOKUP($A23,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>_xlfn.XLOOKUP($A23,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f>_xlfn.XLOOKUP($A23,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f>_xlfn.XLOOKUP($A23,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AF23">
+        <f>_xlfn.XLOOKUP($A23,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="48">
+        <f>_xlfn.XLOOKUP($A23,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="AH23" s="43">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="43">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="7" t="s">
         <v>144</v>
       </c>
@@ -5682,8 +7476,83 @@
         <f>_xlfn.XLOOKUP($A24,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="T24" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="U24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC24" s="69" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD24" s="69">
+        <f>_xlfn.XLOOKUP($A24,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AE24" s="69">
+        <f>_xlfn.XLOOKUP($A24,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="69">
+        <f>_xlfn.XLOOKUP($A24,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="70" t="str">
+        <f>_xlfn.XLOOKUP($A24,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AH24" s="71">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI24" s="69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="71">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="7" t="s">
         <v>159</v>
       </c>
@@ -5739,8 +7608,83 @@
         <f>_xlfn.XLOOKUP($A25,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="T25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="U25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2011'!$D$2:$D$9,'2011'!$A$2:$A$9,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="V25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2012'!$D$2:$D$11,'2012'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="W25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2013'!$D$2:$D$11,'2013'!$A$2:$A$11,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="X25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2014'!$D$3:$D$16,'2014'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2015'!$D$3:$D$16,'2015'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="Z25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2016'!$D$3:$D$16,'2016'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2017'!$D$3:$D$16,'2017'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AB25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2018'!$D$3:$D$16,'2018'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AC25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2019'!$D$3:$D$16,'2019'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AD25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2020'!$D$3:$D$16,'2020'!$A$3:$A$16,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2021'!$D$2:$D$13,'2021'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>_xlfn.XLOOKUP($A25,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
+        <v>x</v>
+      </c>
+      <c r="AG25" s="48">
+        <f>_xlfn.XLOOKUP($A25,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
+        <v>6</v>
+      </c>
+      <c r="AH25" s="43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="B27">
         <v>14</v>
       </c>
@@ -5781,7 +7725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="3" customFormat="1">
+    <row r="28" spans="1:38" s="3" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>160</v>
       </c>
@@ -5831,7 +7775,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="44" t="s">
         <v>8</v>
       </c>
@@ -5892,7 +7836,7 @@
         <v>97</v>
       </c>
       <c r="P29" s="45">
-        <f t="shared" ref="P29:P52" si="0">SUM($B$27:$N$27)-SUMIFS($B$27:$N$27,$B29:$N29,"")</f>
+        <f t="shared" ref="P29:P52" si="4">SUM($B$27:$N$27)-SUMIFS($B$27:$N$27,$B29:$N29,"")</f>
         <v>175</v>
       </c>
       <c r="Q29" s="46">
@@ -5900,7 +7844,7 @@
         <v>0.55428571428571427</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="19.5" customHeight="1">
+    <row r="30" spans="1:38" ht="19.5" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -5957,15 +7901,15 @@
         <v/>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O52" si="1">SUM(B30:N30)</f>
+        <f t="shared" ref="O30:O52" si="5">SUM(B30:N30)</f>
         <v>9</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q30" s="43">
-        <f t="shared" ref="Q30:Q52" si="2">O30/P30</f>
+        <f t="shared" ref="Q30:Q52" si="6">O30/P30</f>
         <v>0.6428571428571429</v>
       </c>
       <c r="R30" s="45"/>
@@ -5981,7 +7925,7 @@
       <c r="AB30" s="43"/>
       <c r="AC30" s="43"/>
     </row>
-    <row r="31" spans="1:29" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:38" s="45" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="44" t="s">
         <v>10</v>
       </c>
@@ -6038,19 +7982,19 @@
         <v>7</v>
       </c>
       <c r="O31" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="P31" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
       <c r="Q31" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.58285714285714285</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="19.5" customHeight="1">
+    <row r="32" spans="1:38" ht="19.5" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -6107,15 +8051,15 @@
         <v/>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q32" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="R32" s="45"/>
@@ -6177,15 +8121,15 @@
         <v>7</v>
       </c>
       <c r="O33" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="P33" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
       <c r="Q33" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50857142857142856</v>
       </c>
     </row>
@@ -6246,15 +8190,15 @@
         <v/>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q34" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="R34" s="45"/>
@@ -6316,15 +8260,15 @@
         <v/>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q35" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="R35" s="45"/>
@@ -6386,15 +8330,15 @@
         <v>7</v>
       </c>
       <c r="O36" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="P36" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
       <c r="Q36" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.48571428571428571</v>
       </c>
     </row>
@@ -6451,15 +8395,15 @@
         <v/>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q37" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="R37" s="45"/>
@@ -6517,15 +8461,15 @@
         <v>6</v>
       </c>
       <c r="O38" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="P38" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="Q38" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.52795031055900621</v>
       </c>
     </row>
@@ -6582,15 +8526,15 @@
         <v>3</v>
       </c>
       <c r="O39" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="P39" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="Q39" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.44720496894409939</v>
       </c>
     </row>
@@ -6647,15 +8591,15 @@
         <v>6</v>
       </c>
       <c r="O40" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P40" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="Q40" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -6712,15 +8656,15 @@
         <v>5</v>
       </c>
       <c r="O41" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="P41" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="Q41" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.46938775510204084</v>
       </c>
     </row>
@@ -6777,15 +8721,15 @@
         <v/>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q42" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="R42" s="45"/>
@@ -6843,15 +8787,15 @@
         <v/>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="Q43" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="R43" s="45"/>
@@ -6909,15 +8853,15 @@
         <v/>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="Q44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="R44" s="45"/>
@@ -6975,15 +8919,15 @@
         <v>7</v>
       </c>
       <c r="O45" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="P45" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="Q45" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51127819548872178</v>
       </c>
     </row>
@@ -7040,15 +8984,15 @@
         <v>10</v>
       </c>
       <c r="O46" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="P46" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="Q46" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50375939849624063</v>
       </c>
     </row>
@@ -7105,15 +9049,15 @@
         <v/>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="Q47" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="R47" s="45"/>
@@ -7171,20 +9115,20 @@
         <v/>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="Q48" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="R48" s="45"/>
     </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1">
+    <row r="49" spans="1:36" ht="19.5" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>106</v>
       </c>
@@ -7237,20 +9181,20 @@
         <v/>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="Q49" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="R49" s="45"/>
     </row>
-    <row r="50" spans="1:18" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="50" spans="1:36" s="45" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="44" t="s">
         <v>121</v>
       </c>
@@ -7303,19 +9247,19 @@
         <v>11</v>
       </c>
       <c r="O50" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="P50" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="Q50" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53191489361702127</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="19.5" customHeight="1">
+    <row r="51" spans="1:36" ht="19.5" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>144</v>
       </c>
@@ -7368,20 +9312,20 @@
         <v/>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="P51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="Q51" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.56097560975609762</v>
       </c>
       <c r="R51" s="45"/>
     </row>
-    <row r="52" spans="1:18" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="52" spans="1:36" s="45" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="44" t="s">
         <v>159</v>
       </c>
@@ -7434,19 +9378,94 @@
         <v>7</v>
       </c>
       <c r="O52" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P52" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Q52" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
+      <c r="R52" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="AJ55" s="43">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36">
+      <c r="AJ56" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36">
+      <c r="AJ57" s="43">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="AJ58" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="AJ59" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="AJ60" s="43">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="AJ61" s="43">
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="AJ62" s="43">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="AJ63" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="AJ64" s="43">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="65" spans="36:36">
+      <c r="AJ65" s="43">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="66" spans="36:36">
+      <c r="AJ66" s="43">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AJ55:AJ66">
+    <sortCondition descending="1" ref="AJ55:AJ66"/>
+  </sortState>
+  <conditionalFormatting sqref="AI2:AI25">
+    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ25">
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK25">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
@@ -7570,7 +9589,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7713,7 +9732,9 @@
       <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -8026,7 +10047,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8136,7 +10157,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -8483,7 +10506,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8578,12 +10601,14 @@
       <c r="J3" s="1">
         <v>1596.84</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -8612,7 +10637,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
@@ -8647,13 +10672,15 @@
       <c r="J5" s="1">
         <v>1728.66</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -8682,8 +10709,8 @@
       <c r="J6" s="1">
         <v>1635.62</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="53" t="s">
+      <c r="L6" s="55"/>
+      <c r="N6" s="57" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8716,7 +10743,7 @@
       <c r="J7" s="2">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="58"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="15">
@@ -8749,7 +10776,7 @@
       <c r="J8" s="13">
         <v>1388.18</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="56" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="17"/>
@@ -8758,10 +10785,10 @@
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="56"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" ht="15">
@@ -8795,13 +10822,15 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -8868,7 +10897,7 @@
         <v>1615.32</v>
       </c>
       <c r="L12" s="49"/>
-      <c r="P12" s="54" t="s">
+      <c r="P12" s="56" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8901,7 +10930,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="55"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14">
@@ -8932,7 +10961,7 @@
       <c r="J14" s="2">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="57" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8965,10 +10994,10 @@
       <c r="J15">
         <v>1368.88</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="53"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16">
@@ -8999,7 +11028,7 @@
       <c r="J16" s="2">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="57"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
@@ -9019,7 +11048,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="51"/>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="57" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="17"/>
@@ -9032,12 +11061,12 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="N20" s="54" t="s">
+      <c r="N20" s="56" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9051,10 +11080,10 @@
       <c r="F21" s="20">
         <v>120</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="54"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16" ht="15">
       <c r="A22" t="s">
@@ -9069,7 +11098,7 @@
       <c r="F22" s="20">
         <v>60</v>
       </c>
-      <c r="L22" s="59"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -9105,7 +11134,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="56" t="s">
+      <c r="P26" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9113,7 +11142,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="57"/>
+      <c r="P27" s="60"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -9134,6 +11163,12 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -9144,12 +11179,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9157,6 +11186,694 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E8E871-1DEE-426F-86CC-2CFC79130F6E}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1732.22</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1639.06</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1533.2</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1643.26</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="N6" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1588.24</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1475.86</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" ht="15">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="56"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" ht="15">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="63"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H16" si="1">((G11*0.5)+E11)/SUM(E11:G11)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1625.18</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1578.96</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="P12" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13">
+        <v>1497.04</v>
+      </c>
+      <c r="P13" s="61"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14">
+        <v>1303.76</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1504.64</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="57"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1382.22</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="12"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="L17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="51"/>
+      <c r="N18" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="2"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="N20" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15">
+      <c r="D21" s="21">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="56"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="54"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" ht="15">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="P25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="54"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="52"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
+    <sortCondition descending="1" ref="H11:H16"/>
+  </sortState>
+  <mergeCells count="16">
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E9CFFE-E93F-4AD3-A108-443506AE6FF6}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9225,50 +11942,52 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
-        <v>0.69230769230769229</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1">
-        <v>1732.22</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>86</v>
+        <v>1670.76</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -9287,56 +12006,60 @@
         <v>68</v>
       </c>
       <c r="J4" s="1">
-        <v>1639.06</v>
-      </c>
-      <c r="L4" s="59"/>
+        <v>1595.7</v>
+      </c>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1">
-        <v>1533.2</v>
-      </c>
-      <c r="L5" s="61" t="s">
+        <v>1645.12</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
@@ -9352,80 +12075,80 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1">
-        <v>1643.26</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="53" t="s">
-        <v>86</v>
+        <v>1622.42</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="N6" s="57" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2">
-        <v>1588.24</v>
-      </c>
-      <c r="N7" s="60"/>
+        <v>1329.76</v>
+      </c>
+      <c r="N7" s="58"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>58</v>
+        <v>99</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="J8" s="13">
-        <v>1475.86</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>89</v>
+        <v>1426.34</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="P8" s="17"/>
     </row>
@@ -9433,10 +12156,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="54"/>
+      <c r="L9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="56"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" ht="15">
@@ -9470,7 +12193,7 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
@@ -9483,10 +12206,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -9505,25 +12228,25 @@
         <v>93</v>
       </c>
       <c r="J11" s="1">
-        <v>1625.18</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>89</v>
+        <v>1668.7</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1">
         <v>7</v>
@@ -9542,11 +12265,11 @@
         <v>69</v>
       </c>
       <c r="J12" s="1">
-        <v>1578.96</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="54" t="s">
-        <v>86</v>
+        <v>1621.08</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="P12" s="56" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9554,10 +12277,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -9576,113 +12299,113 @@
         <v>95</v>
       </c>
       <c r="J13">
-        <v>1497.04</v>
-      </c>
-      <c r="P13" s="55"/>
+        <v>1604.78</v>
+      </c>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18">
         <v>0</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14">
-        <v>1303.76</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>88</v>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1563.12</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15">
       <c r="B15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="2">
-        <v>1504.64</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="53"/>
+        <v>1437.26</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1382.22</v>
-      </c>
-      <c r="L16" s="57"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16">
+        <v>1463.6</v>
+      </c>
+      <c r="L16" s="54"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="L17" s="51" t="s">
-        <v>72</v>
+      <c r="L17" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
@@ -9695,9 +12418,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="53" t="s">
-        <v>72</v>
+      <c r="L18" s="52"/>
+      <c r="N18" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="P18" s="17"/>
     </row>
@@ -9709,18 +12432,18 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="N20" s="54" t="s">
-        <v>88</v>
+      <c r="N20" s="56" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15">
       <c r="D21" s="21">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>107</v>
@@ -9728,10 +12451,10 @@
       <c r="F21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" s="54"/>
+      <c r="L21" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -9746,7 +12469,7 @@
       <c r="F22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="59"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -9769,9 +12492,11 @@
         <v>28</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="15">
@@ -9787,40 +12512,35 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="58" t="s">
-        <v>89</v>
+      <c r="P26" s="62" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="52" t="s">
-        <v>72</v>
+      <c r="P28" s="51" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="52"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
-    <sortCondition descending="1" ref="H11:H16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J8">
+    <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -9832,17 +12552,22 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E9CFFE-E93F-4AD3-A108-443506AE6FF6}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0A40A-5DE9-4989-AED7-C2F5292C1B35}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9906,37 +12631,39 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
-        <v>0.92307692307692313</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1">
-        <v>1670.76</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>97</v>
+        <v>1593.46</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
@@ -9944,7 +12671,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>73</v>
@@ -9953,39 +12680,39 @@
         <v>77</v>
       </c>
       <c r="E4" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1">
-        <v>1595.7</v>
-      </c>
-      <c r="L4" s="59"/>
+        <v>1541.96</v>
+      </c>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -10001,93 +12728,93 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1">
-        <v>1645.12</v>
-      </c>
-      <c r="L5" s="61" t="s">
+        <v>1469.7</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I6" s="16" t="s">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="1">
-        <v>1622.42</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="53" t="s">
-        <v>97</v>
+      <c r="J6" s="2">
+        <v>1471.44</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="N6" s="56" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2">
-        <v>1329.76</v>
-      </c>
-      <c r="N7" s="60"/>
+        <v>1396.52</v>
+      </c>
+      <c r="N7" s="61"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="13">
         <v>3</v>
@@ -10106,10 +12833,10 @@
         <v>94</v>
       </c>
       <c r="J8" s="13">
-        <v>1426.34</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>96</v>
+        <v>1071.8599999999999</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="P8" s="17"/>
     </row>
@@ -10117,10 +12844,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="54"/>
+      <c r="L9" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="64"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" ht="15">
@@ -10154,123 +12881,128 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
         <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ref="H11:H16" si="1">((G11*0.5)+E11)/SUM(E11:G11)</f>
-        <v>0.61538461538461542</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
-        <v>1668.7</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>88</v>
+        <v>1662.04</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:16" ht="15">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1508.68</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="P12" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="1">
-        <v>1621.08</v>
-      </c>
-      <c r="L12" s="52"/>
-      <c r="P12" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13">
-        <v>1604.78</v>
-      </c>
-      <c r="P13" s="55"/>
+      <c r="J13" s="1">
+        <v>1559.22</v>
+      </c>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
@@ -10286,24 +13018,24 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2">
-        <v>1563.12</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15">
+        <v>1534.62</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="2">
         <v>6</v>
@@ -10322,49 +13054,49 @@
         <v>68</v>
       </c>
       <c r="J15" s="2">
-        <v>1437.26</v>
-      </c>
-      <c r="L15" s="58" t="s">
+        <v>1411.74</v>
+      </c>
+      <c r="L15" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="53"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J16">
-        <v>1463.6</v>
-      </c>
-      <c r="L16" s="59"/>
+      <c r="J16" s="2">
+        <v>1163.0999999999999</v>
+      </c>
+      <c r="L16" s="54"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="L17" s="52" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
@@ -10378,7 +13110,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="52"/>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="57" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="17"/>
@@ -10391,29 +13123,29 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="N20" s="54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15">
-      <c r="D21" s="21">
+      <c r="N20" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="D21" s="20">
         <v>50</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="54"/>
+      <c r="F21" s="20">
+        <v>200</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -10425,10 +13157,10 @@
       <c r="E22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="59"/>
+      <c r="F22" s="20">
+        <v>100</v>
+      </c>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -10439,8 +13171,8 @@
       <c r="E23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>85</v>
+      <c r="F23" s="20">
+        <v>40</v>
       </c>
       <c r="L23" s="49" t="s">
         <v>80</v>
@@ -10450,11 +13182,11 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>91</v>
+      <c r="E24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="20">
+        <v>50</v>
       </c>
       <c r="L24" s="49"/>
     </row>
@@ -10462,6 +13194,12 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="20">
+        <v>50</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="P25" s="7" t="s">
         <v>25</v>
@@ -10471,8 +13209,14 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="E26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="20">
+        <v>10</v>
+      </c>
       <c r="P26" s="62" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -10496,15 +13240,10 @@
       <c r="P29" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J8">
-    <sortCondition descending="1" ref="H3:H8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
+    <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -10516,17 +13255,22 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0A40A-5DE9-4989-AED7-C2F5292C1B35}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEF29D-9AA7-4BA2-901E-BC5EBCF92DBB}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10591,106 +13335,106 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
-        <v>0.61538461538461542</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="J3" s="1">
-        <v>1593.46</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>96</v>
+        <v>1792.26</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="J4" s="1">
-        <v>1541.96</v>
-      </c>
-      <c r="L4" s="59"/>
+        <v>1746.74</v>
+      </c>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1469.7</v>
-      </c>
-      <c r="L5" s="61" t="s">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1623.88</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
@@ -10701,77 +13445,77 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2">
-        <v>1471.44</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="54" t="s">
-        <v>96</v>
+        <v>1608.62</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="N6" s="64" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2">
-        <v>1396.52</v>
-      </c>
-      <c r="N7" s="55"/>
+        <v>1608.1</v>
+      </c>
+      <c r="N7" s="65"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E8" s="13">
         <v>3</v>
@@ -10787,13 +13531,13 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="J8" s="13">
-        <v>1071.8599999999999</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>60</v>
+        <v>1419.32</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>116</v>
       </c>
       <c r="P8" s="17"/>
     </row>
@@ -10801,10 +13545,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="64"/>
+      <c r="L9" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="56"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" ht="15">
@@ -10838,58 +13582,60 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ref="H11:H16" si="1">((G11*0.5)+E11)/SUM(E11:G11)</f>
-        <v>0.76923076923076927</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="J11" s="1">
-        <v>1662.04</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>60</v>
+        <v>1895.72</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>124</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -10905,124 +13651,129 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J12" s="1">
-        <v>1508.68</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="54" t="s">
-        <v>96</v>
+        <v>1666.54</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="P12" s="64" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1">
-        <v>1559.22</v>
-      </c>
-      <c r="P13" s="55"/>
+        <v>1770.32</v>
+      </c>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
-        <v>7</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1534.62</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>115</v>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1642.38</v>
+      </c>
+      <c r="P14" s="56" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
         <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="J15" s="2">
-        <v>1411.74</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="53"/>
+        <v>1496.7</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -11037,19 +13788,19 @@
         <f t="shared" si="1"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>103</v>
+      <c r="I16" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="J16" s="2">
-        <v>1163.0999999999999</v>
-      </c>
-      <c r="L16" s="59"/>
+        <v>1310.1400000000001</v>
+      </c>
+      <c r="L16" s="63"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="L17" s="52" t="s">
-        <v>119</v>
+      <c r="L17" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
@@ -11062,9 +13813,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="52"/>
-      <c r="N18" s="53" t="s">
-        <v>73</v>
+      <c r="L18" s="51"/>
+      <c r="N18" s="56" t="s">
+        <v>122</v>
       </c>
       <c r="P18" s="17"/>
     </row>
@@ -11076,13 +13827,13 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="61"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="N20" s="54" t="s">
-        <v>115</v>
+      <c r="N20" s="64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -11095,10 +13846,10 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" s="54"/>
+      <c r="L21" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -11113,7 +13864,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="59"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -11168,40 +13919,35 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="62" t="s">
-        <v>60</v>
+      <c r="P26" s="53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="63"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="51" t="s">
-        <v>73</v>
+      <c r="P28" s="52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -11213,17 +13959,22 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEF29D-9AA7-4BA2-901E-BC5EBCF92DBB}">
-  <dimension ref="A1:P29"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2ECC5B-51E5-468A-A1A1-442D9C805CD7}">
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11287,9 +14038,11 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -11311,27 +14064,27 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
-        <v>1792.26</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>123</v>
+        <v>1530.24</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
@@ -11347,18 +14100,18 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1">
-        <v>1746.74</v>
-      </c>
-      <c r="L4" s="59"/>
+        <v>1530.84</v>
+      </c>
+      <c r="L4" s="54"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>71</v>
@@ -11380,12 +14133,12 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2">
-        <v>1623.88</v>
-      </c>
-      <c r="L5" s="61" t="s">
+        <v>1523.86</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
@@ -11393,80 +14146,81 @@
     <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2">
-        <v>1608.62</v>
-      </c>
-      <c r="L6" s="61"/>
+        <v>1541.3</v>
+      </c>
+      <c r="L6" s="55"/>
       <c r="N6" s="64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1608.1</v>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1631.78</v>
       </c>
       <c r="N7" s="65"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>77</v>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="13">
         <v>3</v>
@@ -11482,96 +14236,105 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="J8" s="13">
-        <v>1419.32</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>116</v>
+        <v>1453.8</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16" ht="15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="54"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="56"/>
       <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" ht="15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ref="H11:H16" si="1">((G11*0.5)+E11)/SUM(E11:G11)</f>
-        <v>0.92307692307692313</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
-        <v>1895.72</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>124</v>
+        <v>1851.34</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="P11" s="17"/>
     </row>
@@ -11580,48 +14343,50 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1">
-        <v>1666.54</v>
-      </c>
-      <c r="L12" s="52"/>
-      <c r="P12" s="64" t="s">
-        <v>116</v>
+        <v>1742.32</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="P12" s="56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
@@ -11637,117 +14402,121 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1">
-        <v>1770.32</v>
-      </c>
-      <c r="P13" s="65"/>
+        <v>1566.5</v>
+      </c>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="J14" s="1">
-        <v>1642.38</v>
-      </c>
-      <c r="P14" s="54" t="s">
+        <v>1453.92</v>
+      </c>
+      <c r="P14" s="64" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15">
-        <v>10</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2">
-        <v>1496.7</v>
-      </c>
-      <c r="L15" s="62" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="64"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="54"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="J16" s="2">
-        <v>1310.1400000000001</v>
-      </c>
-      <c r="L16" s="63"/>
+        <v>1656.98</v>
+      </c>
+      <c r="L16" s="54"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="L17" s="51" t="s">
-        <v>122</v>
+      <c r="L17" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
@@ -11760,9 +14529,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="54" t="s">
-        <v>122</v>
+      <c r="L18" s="52"/>
+      <c r="N18" s="56" t="s">
+        <v>135</v>
       </c>
       <c r="P18" s="17"/>
     </row>
@@ -11774,13 +14543,13 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="55"/>
+      <c r="N19" s="61"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="N20" s="64" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -11793,8 +14562,8 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="58" t="s">
-        <v>60</v>
+      <c r="L21" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="N21" s="64"/>
     </row>
@@ -11811,7 +14580,7 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="59"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
@@ -11866,40 +14635,40 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="58" t="s">
-        <v>123</v>
+      <c r="P26" s="62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="52" t="s">
-        <v>60</v>
+      <c r="P28" s="51" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="52"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="A30" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -11911,721 +14680,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2ECC5B-51E5-468A-A1A1-442D9C805CD7}">
-  <dimension ref="A1:P30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15">
-      <c r="A1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1530.24</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1530.84</v>
-      </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1523.86</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1541.3</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="N6" s="64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="18">
-        <v>4</v>
-      </c>
-      <c r="F7" s="18">
-        <v>9</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1631.78</v>
-      </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1453.8</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" ht="15">
-      <c r="A9" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" ht="15">
-      <c r="A10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="17"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" ref="H11:H16" si="1">((G11*0.5)+E11)/SUM(E11:G11)</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1851.34</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1742.32</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1566.5</v>
-      </c>
-      <c r="P13" s="55"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1453.92</v>
-      </c>
-      <c r="P14" s="64" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1573</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="64"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1656.98</v>
-      </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="12"/>
-      <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="L17" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="52"/>
-      <c r="N18" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="17"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="D21" s="20">
-        <v>50</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="20">
-        <v>200</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="64"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="20">
-        <v>100</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="20">
-        <v>40</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="20">
-        <v>50</v>
-      </c>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="20">
-        <v>50</v>
-      </c>
-      <c r="N25" s="7"/>
-      <c r="P25" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="20">
-        <v>10</v>
-      </c>
-      <c r="P26" s="62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="63"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="51"/>
-    </row>
-    <row r="30" spans="1:16" ht="15">
-      <c r="A30" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
-    <sortCondition descending="1" ref="H11:H16"/>
-  </sortState>
-  <mergeCells count="16">
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podrobin\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7F243-4165-4211-8DCD-A301AAB467D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402C18C-6913-41F4-B432-1D126CFE0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="16" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
+    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" tabRatio="677" activeTab="17" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="16" r:id="rId1"/>
@@ -30,10 +30,11 @@
     <sheet name="2021" sheetId="12" r:id="rId15"/>
     <sheet name="2022" sheetId="13" r:id="rId16"/>
     <sheet name="2023" sheetId="14" r:id="rId17"/>
-    <sheet name="Managers" sheetId="15" r:id="rId18"/>
+    <sheet name="2024" sheetId="20" r:id="rId18"/>
+    <sheet name="Managers" sheetId="15" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Managers!$A$2:$A$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Managers!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="273">
   <si>
     <t>Team</t>
   </si>
@@ -886,7 +887,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,31 +1166,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1191,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,10 +1227,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1605,13 +1606,13 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1666,18 +1667,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <f>((G2*0.5)+E2)/SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H7" si="0">((G2*0.5)+E2)/SUM(E2:G2)</f>
         <v>0.6333333333333333</v>
       </c>
       <c r="I2" s="1">
         <v>2368.5</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1700,18 +1701,18 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f>((G3*0.5)+E3)/SUM(E3:G3)</f>
+        <f t="shared" si="0"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="I3" s="1">
         <v>2248.5</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>((G4*0.5)+E4)/SUM(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="I4" s="1">
@@ -1745,7 +1746,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>((G5*0.5)+E5)/SUM(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I5" s="1">
@@ -1776,7 +1777,7 @@
       </c>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>((G6*0.5)+E6)/SUM(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I6">
@@ -1806,7 +1807,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -1826,42 +1827,42 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>((G7*0.5)+E7)/SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I7">
         <v>1856</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="K8" s="53"/>
-      <c r="L8" s="53" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" s="55"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="L13" s="53" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1874,9 +1875,9 @@
       <c r="D14" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1902,7 +1903,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1916,12 +1917,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>175</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>176</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>177</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>178</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>192</v>
       </c>
@@ -1987,12 +1988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>193</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>194</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>195</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>196</v>
       </c>
@@ -2030,12 +2031,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>197</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>198</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>200</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>201</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>202</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>203</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>204</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>205</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>206</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>207</v>
       </c>
@@ -2132,12 +2133,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>208</v>
       </c>
@@ -2148,12 +2149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>209</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>210</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>211</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>212</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>213</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>214</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>215</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>216</v>
       </c>
@@ -2243,18 +2244,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2335,11 +2336,11 @@
       <c r="J3" s="1">
         <v>1670.76</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2371,10 +2372,10 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2406,12 +2407,12 @@
       <c r="J5" s="1">
         <v>1645.12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2443,12 +2444,12 @@
       <c r="J6" s="1">
         <v>1622.42</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11</v>
       </c>
@@ -2477,10 +2478,10 @@
       <c r="J7" s="2">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="65"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>10</v>
@@ -2510,22 +2511,22 @@
       <c r="J8" s="13">
         <v>1426.34</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="62" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2556,12 +2557,12 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2593,12 +2594,12 @@
       <c r="J11" s="1">
         <v>1668.7</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="58" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2630,12 +2631,12 @@
       <c r="J12" s="1">
         <v>1621.08</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="P12" s="58" t="s">
+      <c r="L12" s="58"/>
+      <c r="P12" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2664,9 +2665,9 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="67"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -2695,11 +2696,11 @@
       <c r="J14" s="2">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -2728,12 +2729,12 @@
       <c r="J15" s="2">
         <v>1437.26</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2762,18 +2763,18 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="L17" s="56" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="58" t="s">
         <v>60</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2781,13 +2782,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="56"/>
-      <c r="N18" s="57" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="63" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2795,16 +2796,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="65"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="58" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="21">
         <v>50</v>
       </c>
@@ -2814,12 +2815,12 @@
       <c r="F21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2832,11 +2833,11 @@
       <c r="F22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2846,11 +2847,11 @@
       <c r="F23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2860,9 +2861,9 @@
       <c r="F24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2871,21 +2872,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2904,11 +2905,6 @@
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2920,6 +2916,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2933,18 +2934,18 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3025,11 +3026,11 @@
       <c r="J3" s="1">
         <v>1593.46</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3061,10 +3062,10 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3096,12 +3097,12 @@
       <c r="J5" s="1">
         <v>1469.7</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>8</v>
@@ -3131,12 +3132,12 @@
       <c r="J6" s="2">
         <v>1471.44</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="58" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10</v>
       </c>
@@ -3165,10 +3166,10 @@
       <c r="J7" s="2">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>12</v>
@@ -3198,22 +3199,22 @@
       <c r="J8" s="13">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="70" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="68"/>
+      <c r="N9" s="70"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -3244,12 +3245,12 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3286,7 +3287,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -3319,11 +3320,11 @@
         <v>1508.68</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -3355,9 +3356,9 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="67"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
@@ -3386,11 +3387,11 @@
       <c r="J14" s="2">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="63" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -3419,12 +3420,12 @@
       <c r="J15" s="2">
         <v>1411.74</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -3453,18 +3454,18 @@
       <c r="J16" s="2">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="L17" s="56" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="58" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3472,13 +3473,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="56"/>
-      <c r="N18" s="57" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="63" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3486,16 +3487,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="65"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="58" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -3505,12 +3506,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3523,11 +3524,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3537,11 +3538,11 @@
       <c r="F23" s="20">
         <v>40</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3551,9 +3552,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3578,17 +3579,17 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3607,11 +3608,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3623,6 +3619,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3636,18 +3637,18 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -3728,11 +3729,11 @@
       <c r="J3" s="1">
         <v>1792.26</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3764,10 +3765,10 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>7</v>
@@ -3797,12 +3798,12 @@
       <c r="J5" s="2">
         <v>1623.88</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>8</v>
@@ -3832,12 +3833,12 @@
       <c r="J6" s="2">
         <v>1608.62</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="68" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>9</v>
       </c>
@@ -3866,10 +3867,10 @@
       <c r="J7" s="2">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>11</v>
@@ -3899,22 +3900,22 @@
       <c r="J8" s="13">
         <v>1419.32</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="62" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -3945,12 +3946,12 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -3982,12 +3983,12 @@
       <c r="J11" s="1">
         <v>1895.72</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="58" t="s">
         <v>124</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4019,12 +4020,12 @@
       <c r="J12" s="1">
         <v>1666.54</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="P12" s="68" t="s">
+      <c r="L12" s="58"/>
+      <c r="P12" s="70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -4056,9 +4057,9 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="69"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="71"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -4090,11 +4091,11 @@
       <c r="J14" s="1">
         <v>1642.38</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -4123,12 +4124,12 @@
       <c r="J15" s="2">
         <v>1496.7</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="58"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
@@ -4157,18 +4158,18 @@
       <c r="J16" s="2">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="67"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L17" s="55" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4177,12 +4178,12 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="55"/>
-      <c r="N18" s="58" t="s">
+      <c r="N18" s="62" t="s">
         <v>122</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4190,16 +4191,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="68" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -4209,12 +4210,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="68"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4227,11 +4228,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4241,11 +4242,11 @@
       <c r="F23" s="20">
         <v>40</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4255,9 +4256,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4282,40 +4283,35 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="62" t="s">
+      <c r="P26" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="63"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" s="58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="56"/>
+      <c r="P29" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4327,6 +4323,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4340,18 +4341,18 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4432,11 +4433,11 @@
       <c r="J3" s="1">
         <v>1530.24</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4468,10 +4469,10 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>10</v>
@@ -4501,12 +4502,12 @@
       <c r="J5" s="2">
         <v>1523.86</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>9</v>
@@ -4536,12 +4537,12 @@
       <c r="J6" s="2">
         <v>1541.3</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="68" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="70" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>11</v>
@@ -4571,10 +4572,10 @@
       <c r="J7" s="18">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13">
         <v>12</v>
@@ -4604,12 +4605,12 @@
       <c r="J8" s="13">
         <v>1453.8</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="62" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
@@ -4622,13 +4623,13 @@
       <c r="H9" s="2"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
@@ -4659,12 +4660,12 @@
       <c r="J10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -4701,7 +4702,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -4734,11 +4735,11 @@
         <v>1742.32</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -4770,9 +4771,9 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="67"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -4804,11 +4805,11 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="68" t="s">
+      <c r="P14" s="70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>7</v>
@@ -4838,12 +4839,12 @@
       <c r="J15" s="2">
         <v>1573</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="68"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="70"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>8</v>
@@ -4873,18 +4874,18 @@
       <c r="J16" s="2">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="L17" s="56" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="58" t="s">
         <v>136</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4892,13 +4893,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="56"/>
-      <c r="N18" s="58" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="62" t="s">
         <v>135</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4906,16 +4907,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="68" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="70" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -4925,12 +4926,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="68"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4943,11 +4944,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4957,11 +4958,11 @@
       <c r="F23" s="20">
         <v>40</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4971,9 +4972,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4998,17 +4999,17 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5016,13 +5017,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="P29" s="55"/>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>139</v>
       </c>
@@ -5032,11 +5033,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5048,6 +5044,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5061,18 +5062,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5153,11 +5154,11 @@
       <c r="J3" s="1">
         <v>1744.88</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5189,10 +5190,10 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -5224,12 +5225,12 @@
       <c r="J5" s="1">
         <v>1613.18</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>7</v>
@@ -5259,12 +5260,12 @@
       <c r="J6" s="2">
         <v>1612.58</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="58" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>10</v>
@@ -5294,10 +5295,10 @@
       <c r="J7" s="18">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13">
         <v>11</v>
@@ -5327,12 +5328,12 @@
       <c r="J8" s="13">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="70" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
@@ -5345,13 +5346,13 @@
       <c r="H9" s="2"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="68"/>
+      <c r="N9" s="70"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
@@ -5382,12 +5383,12 @@
       <c r="J10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -5424,7 +5425,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -5457,11 +5458,11 @@
         <v>1574.5</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="P12" s="68" t="s">
+      <c r="P12" s="70" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -5493,9 +5494,9 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="69"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="71"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>8</v>
@@ -5525,11 +5526,11 @@
       <c r="J14" s="2">
         <v>1397.72</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="62" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>9</v>
@@ -5559,12 +5560,12 @@
       <c r="J15" s="2">
         <v>1368.44</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="58"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -5594,18 +5595,18 @@
       <c r="J16" s="2">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="L17" s="56" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="58" t="s">
         <v>96</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -5613,13 +5614,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="56"/>
-      <c r="N18" s="58" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="62" t="s">
         <v>118</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5627,16 +5628,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="68" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="70" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -5646,12 +5647,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="68"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -5664,11 +5665,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -5679,11 +5680,11 @@
       <c r="F23" s="20">
         <v>40</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -5694,9 +5695,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -5723,18 +5724,18 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -5743,14 +5744,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6"/>
       <c r="P29" s="55"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>139</v>
       </c>
@@ -5761,11 +5762,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5777,6 +5773,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,17 +5791,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="2.5" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>4</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>1</v>
       </c>
@@ -5900,11 +5901,11 @@
       <c r="I3" s="30">
         <v>1830.48</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -5933,10 +5934,10 @@
       <c r="I4" s="30">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -5965,12 +5966,12 @@
       <c r="I5" s="30">
         <v>2011.64</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -5999,12 +6000,12 @@
       <c r="I6" s="30">
         <v>1810.54</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="M6" s="68" t="s">
+      <c r="K6" s="61"/>
+      <c r="M6" s="70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -6033,10 +6034,10 @@
       <c r="I7" s="30">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="69"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28">
         <v>8</v>
@@ -6063,12 +6064,12 @@
       <c r="I8" s="28">
         <v>1557.34</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="62" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28">
         <v>7</v>
@@ -6095,13 +6096,13 @@
       <c r="I9" s="28">
         <v>1632.8</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="58"/>
+      <c r="M9" s="62"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28">
         <v>9</v>
@@ -6128,12 +6129,12 @@
       <c r="I10" s="28">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28">
         <v>12</v>
@@ -6160,12 +6161,12 @@
       <c r="I11" s="28">
         <v>1326.38</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="58" t="s">
         <v>136</v>
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="28">
         <v>10</v>
@@ -6192,12 +6193,12 @@
       <c r="I12" s="28">
         <v>1491.86</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="O12" s="58" t="s">
+      <c r="K12" s="58"/>
+      <c r="O12" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28">
         <v>11</v>
@@ -6224,9 +6225,9 @@
       <c r="I13" s="28">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="67"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -6236,11 +6237,11 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28"/>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -6250,12 +6251,12 @@
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="70"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -6265,47 +6266,47 @@
       <c r="G16" s="18"/>
       <c r="H16" s="26"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="12"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="K17" s="56" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="58" t="s">
         <v>99</v>
       </c>
       <c r="M17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="56"/>
-      <c r="M18" s="58" t="s">
+      <c r="K18" s="58"/>
+      <c r="M18" s="62" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="M19" s="59"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="M20" s="70" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="72" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -6315,12 +6316,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="68"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -6333,11 +6334,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="63"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -6348,11 +6349,11 @@
       <c r="F23" s="21">
         <v>30</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -6363,9 +6364,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -6392,18 +6393,18 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="O27" s="67"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -6412,14 +6413,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6"/>
       <c r="O29" s="55"/>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>150</v>
       </c>
@@ -6430,11 +6431,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6446,6 +6442,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6459,17 +6460,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="2.5" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>3</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -6569,11 +6570,11 @@
       <c r="I3" s="30">
         <v>1668.12</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>6</v>
       </c>
@@ -6602,10 +6603,10 @@
       <c r="I4" s="30">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>1</v>
       </c>
@@ -6634,12 +6635,12 @@
       <c r="I5" s="30">
         <v>1912.76</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -6668,12 +6669,12 @@
       <c r="I6" s="30">
         <v>1688.86</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="M6" s="68" t="s">
+      <c r="K6" s="61"/>
+      <c r="M6" s="70" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>4</v>
       </c>
@@ -6702,10 +6703,10 @@
       <c r="I7" s="30">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="69"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28">
         <v>7</v>
@@ -6732,12 +6733,12 @@
       <c r="I8" s="28">
         <v>1557.08</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="62" t="s">
         <v>146</v>
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28">
         <v>8</v>
@@ -6764,13 +6765,13 @@
       <c r="I9" s="28">
         <v>1554.84</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="58"/>
+      <c r="M9" s="62"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28">
         <v>9</v>
@@ -6797,12 +6798,12 @@
       <c r="I10" s="28">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28">
         <v>10</v>
@@ -6829,12 +6830,12 @@
       <c r="I11" s="28">
         <v>1798.06</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="58" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="28">
         <v>11</v>
@@ -6861,12 +6862,12 @@
       <c r="I12" s="28">
         <v>1635.74</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="O12" s="58" t="s">
+      <c r="K12" s="58"/>
+      <c r="O12" s="62" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28">
         <v>12</v>
@@ -6893,9 +6894,9 @@
       <c r="I13" s="28">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="67"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -6905,11 +6906,11 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28"/>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="70" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -6919,12 +6920,12 @@
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="70"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -6934,18 +6935,18 @@
       <c r="G16" s="18"/>
       <c r="H16" s="26"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="67"/>
+      <c r="K16" s="69"/>
       <c r="L16" s="12"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K17" s="55" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6953,28 +6954,28 @@
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="K18" s="55"/>
-      <c r="M18" s="68" t="s">
+      <c r="M18" s="70" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="M19" s="69"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="M20" s="71" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="73" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -6984,12 +6985,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="58"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -7002,11 +7003,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="63"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -7017,11 +7018,11 @@
       <c r="F23" s="20">
         <v>30</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -7032,9 +7033,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -7061,18 +7062,18 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="59" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:15" ht="15">
+      <c r="O27" s="60"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -7080,18 +7081,18 @@
       <c r="C28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="O29" s="56"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -7102,11 +7103,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7118,6 +7114,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7127,21 +7128,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D0822-8899-4C5A-915C-7C008E45C408}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="2.5" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>2</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>1</v>
       </c>
@@ -7241,11 +7242,11 @@
       <c r="I3" s="30">
         <v>1879.82</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>4</v>
       </c>
@@ -7274,10 +7275,10 @@
       <c r="I4" s="30">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>6</v>
       </c>
@@ -7306,12 +7307,12 @@
       <c r="I5" s="30">
         <v>1702.92</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>3</v>
       </c>
@@ -7340,12 +7341,12 @@
       <c r="I6" s="30">
         <v>1695.94</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="M6" s="58" t="s">
+      <c r="K6" s="61"/>
+      <c r="M6" s="62" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -7374,10 +7375,10 @@
       <c r="I7" s="30">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28">
         <v>7</v>
@@ -7404,12 +7405,12 @@
       <c r="I8" s="28">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="70" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28">
         <v>8</v>
@@ -7436,13 +7437,13 @@
       <c r="I9" s="28">
         <v>1566.6</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="68"/>
+      <c r="M9" s="70"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28">
         <v>9</v>
@@ -7469,12 +7470,12 @@
       <c r="I10" s="28">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="67"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="12"/>
       <c r="M10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28">
         <v>10</v>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="28">
         <v>11</v>
@@ -7534,11 +7535,11 @@
         <v>1435.98</v>
       </c>
       <c r="K12" s="55"/>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="70" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28">
         <v>12</v>
@@ -7565,9 +7566,9 @@
       <c r="I13" s="28">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="69"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -7577,11 +7578,11 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28"/>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -7591,12 +7592,12 @@
       <c r="G15" s="18"/>
       <c r="H15" s="26"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="58"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -7606,47 +7607,47 @@
       <c r="G16" s="18"/>
       <c r="H16" s="26"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="12"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="K17" s="56" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="M17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="56"/>
-      <c r="M18" s="68" t="s">
+      <c r="K18" s="58"/>
+      <c r="M18" s="70" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="M19" s="69"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="M20" s="71" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="73" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>50</v>
       </c>
@@ -7656,12 +7657,12 @@
       <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="58"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -7674,11 +7675,11 @@
       <c r="F22" s="20">
         <v>100</v>
       </c>
-      <c r="K22" s="63"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="12"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -7689,11 +7690,11 @@
       <c r="F23" s="20">
         <v>30</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -7704,9 +7705,9 @@
       <c r="F24" s="20">
         <v>50</v>
       </c>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -7733,18 +7734,18 @@
       <c r="F26" s="20">
         <v>10</v>
       </c>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" s="60"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -7752,18 +7753,18 @@
       <c r="C28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="O29" s="56"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -7774,11 +7775,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7790,40 +7786,530 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC38AAB-96CB-42DE-9F89-BEE07C09AAC6}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="e">
+        <f t="shared" ref="H2:H13" si="0">((G2*0.5)+E2)/SUM(E2:G2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="K2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30">
+        <v>4</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="K5" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="K6" s="61"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30">
+        <v>6</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="M8" s="70"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="K9" s="68"/>
+      <c r="M9" s="70"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="K11" s="55"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="K12" s="55"/>
+      <c r="O12" s="70"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="59"/>
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="12"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="58"/>
+      <c r="M17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="58"/>
+      <c r="M18" s="70"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="20">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="20">
+        <v>200</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="20">
+        <v>100</v>
+      </c>
+      <c r="K22" s="60"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="20">
+        <v>30</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="20">
+        <v>50</v>
+      </c>
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="20">
+        <v>50</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="O25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="E26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="20">
+        <v>10</v>
+      </c>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="O27" s="60"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" s="58"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="5" width="4.875" style="7" customWidth="1"/>
-    <col min="6" max="18" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" customWidth="1"/>
-    <col min="23" max="23" width="4.25" customWidth="1"/>
-    <col min="24" max="24" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.875" customWidth="1"/>
-    <col min="29" max="41" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.85546875" style="7" customWidth="1"/>
+    <col min="6" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" customWidth="1"/>
+    <col min="29" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="7" customFormat="1">
+    <row r="1" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -7948,7 +8434,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="33" customFormat="1">
+    <row r="2" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
@@ -8112,7 +8598,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -8276,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="33" customFormat="1">
+    <row r="4" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -8440,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -8604,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="33" customFormat="1">
+    <row r="6" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
@@ -8768,7 +9254,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -8932,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -9096,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="33" customFormat="1">
+    <row r="9" spans="1:46" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -9260,7 +9746,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -9424,7 +9910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="34" customFormat="1">
+    <row r="11" spans="1:46" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>46</v>
       </c>
@@ -9588,7 +10074,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="34" customFormat="1">
+    <row r="12" spans="1:46" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>43</v>
       </c>
@@ -9752,7 +10238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="34" customFormat="1">
+    <row r="13" spans="1:46" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>44</v>
       </c>
@@ -9916,7 +10402,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="38" customFormat="1">
+    <row r="14" spans="1:46" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>58</v>
       </c>
@@ -10080,7 +10566,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>110</v>
       </c>
@@ -10244,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -10408,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -10572,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" s="40" customFormat="1">
+    <row r="18" spans="1:46" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>76</v>
       </c>
@@ -10736,7 +11222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:46" s="40" customFormat="1">
+    <row r="19" spans="1:46" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>77</v>
       </c>
@@ -10900,7 +11386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>91</v>
       </c>
@@ -11064,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -11228,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>106</v>
       </c>
@@ -11392,7 +11878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:46" s="42" customFormat="1">
+    <row r="23" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>121</v>
       </c>
@@ -11556,7 +12042,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>144</v>
       </c>
@@ -11720,7 +12206,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>159</v>
       </c>
@@ -11884,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>15</v>
       </c>
@@ -11937,7 +12423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:46" s="3" customFormat="1">
+    <row r="28" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>160</v>
       </c>
@@ -11999,7 +12485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="3" customFormat="1">
+    <row r="29" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>171</v>
       </c>
@@ -12027,7 +12513,7 @@
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
     </row>
-    <row r="30" spans="1:46" s="3" customFormat="1">
+    <row r="30" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>173</v>
       </c>
@@ -12055,7 +12541,7 @@
       <c r="U30" s="50"/>
       <c r="V30" s="50"/>
     </row>
-    <row r="31" spans="1:46" s="3" customFormat="1">
+    <row r="31" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>172</v>
       </c>
@@ -12083,7 +12569,7 @@
       <c r="U31" s="50"/>
       <c r="V31" s="50"/>
     </row>
-    <row r="32" spans="1:46" s="3" customFormat="1">
+    <row r="32" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>227</v>
       </c>
@@ -12111,7 +12597,7 @@
       <c r="U32" s="50"/>
       <c r="V32" s="50"/>
     </row>
-    <row r="33" spans="1:37" s="3" customFormat="1">
+    <row r="33" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>229</v>
       </c>
@@ -12139,7 +12625,7 @@
       <c r="U33" s="50"/>
       <c r="V33" s="50"/>
     </row>
-    <row r="34" spans="1:37" s="3" customFormat="1">
+    <row r="34" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>226</v>
       </c>
@@ -12167,7 +12653,7 @@
       <c r="U34" s="50"/>
       <c r="V34" s="50"/>
     </row>
-    <row r="35" spans="1:37" s="3" customFormat="1">
+    <row r="35" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>228</v>
       </c>
@@ -12195,7 +12681,7 @@
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
     </row>
-    <row r="36" spans="1:37" s="3" customFormat="1">
+    <row r="36" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>253</v>
       </c>
@@ -12223,7 +12709,7 @@
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
     </row>
-    <row r="37" spans="1:37" s="3" customFormat="1">
+    <row r="37" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>254</v>
       </c>
@@ -12251,7 +12737,7 @@
       <c r="U37" s="50"/>
       <c r="V37" s="50"/>
     </row>
-    <row r="38" spans="1:37" s="3" customFormat="1">
+    <row r="38" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>255</v>
       </c>
@@ -12279,7 +12765,7 @@
       <c r="U38" s="50"/>
       <c r="V38" s="50"/>
     </row>
-    <row r="39" spans="1:37" s="3" customFormat="1">
+    <row r="39" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>256</v>
       </c>
@@ -12307,7 +12793,7 @@
       <c r="U39" s="50"/>
       <c r="V39" s="50"/>
     </row>
-    <row r="40" spans="1:37" s="3" customFormat="1">
+    <row r="40" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>257</v>
       </c>
@@ -12335,7 +12821,7 @@
       <c r="U40" s="50"/>
       <c r="V40" s="50"/>
     </row>
-    <row r="41" spans="1:37" s="3" customFormat="1">
+    <row r="41" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>258</v>
       </c>
@@ -12363,7 +12849,7 @@
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
     </row>
-    <row r="42" spans="1:37" s="3" customFormat="1">
+    <row r="42" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>266</v>
       </c>
@@ -12391,7 +12877,7 @@
       <c r="U42" s="50"/>
       <c r="V42" s="50"/>
     </row>
-    <row r="43" spans="1:37" s="3" customFormat="1">
+    <row r="43" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>267</v>
       </c>
@@ -12419,7 +12905,7 @@
       <c r="U43" s="50"/>
       <c r="V43" s="50"/>
     </row>
-    <row r="44" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="44" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>8</v>
       </c>
@@ -12504,7 +12990,7 @@
         <v>0.55428571428571427</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="19.5" customHeight="1">
+    <row r="45" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>48</v>
       </c>
@@ -12605,7 +13091,7 @@
       <c r="AJ45" s="43"/>
       <c r="AK45" s="43"/>
     </row>
-    <row r="46" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="46" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>10</v>
       </c>
@@ -12690,7 +13176,7 @@
         <v>0.58285714285714285</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="19.5" customHeight="1">
+    <row r="47" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
@@ -12776,7 +13262,7 @@
       </c>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="48" spans="1:37" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>19</v>
       </c>
@@ -12861,7 +13347,7 @@
         <v>0.50857142857142856</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="19.5" customHeight="1">
+    <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>18</v>
       </c>
@@ -12947,7 +13433,7 @@
       </c>
       <c r="V49" s="45"/>
     </row>
-    <row r="50" spans="1:22" ht="19.5" customHeight="1">
+    <row r="50" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>85</v>
       </c>
@@ -13033,7 +13519,7 @@
       </c>
       <c r="V50" s="45"/>
     </row>
-    <row r="51" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="51" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>21</v>
       </c>
@@ -13118,7 +13604,7 @@
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="19.5" customHeight="1">
+    <row r="52" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>45</v>
       </c>
@@ -13200,7 +13686,7 @@
       </c>
       <c r="V52" s="45"/>
     </row>
-    <row r="53" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="53" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>46</v>
       </c>
@@ -13281,7 +13767,7 @@
         <v>0.52795031055900621</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="54" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>43</v>
       </c>
@@ -13362,7 +13848,7 @@
         <v>0.44720496894409939</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="55" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>44</v>
       </c>
@@ -13443,7 +13929,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="56" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>58</v>
       </c>
@@ -13524,7 +14010,7 @@
         <v>0.46938775510204084</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="19.5" customHeight="1">
+    <row r="57" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>110</v>
       </c>
@@ -13606,7 +14092,7 @@
       </c>
       <c r="V57" s="45"/>
     </row>
-    <row r="58" spans="1:22" ht="19.5" customHeight="1">
+    <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>20</v>
       </c>
@@ -13688,7 +14174,7 @@
       </c>
       <c r="V58" s="45"/>
     </row>
-    <row r="59" spans="1:22" ht="19.5" customHeight="1">
+    <row r="59" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>92</v>
       </c>
@@ -13770,7 +14256,7 @@
       </c>
       <c r="V59" s="45"/>
     </row>
-    <row r="60" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="60" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>76</v>
       </c>
@@ -13851,7 +14337,7 @@
         <v>0.51127819548872178</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="61" spans="1:22" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>77</v>
       </c>
@@ -13932,7 +14418,7 @@
         <v>0.50375939849624063</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="19.5" customHeight="1">
+    <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>91</v>
       </c>
@@ -14014,7 +14500,7 @@
       </c>
       <c r="V62" s="45"/>
     </row>
-    <row r="63" spans="1:22" ht="19.5" customHeight="1">
+    <row r="63" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -14096,7 +14582,7 @@
       </c>
       <c r="V63" s="45"/>
     </row>
-    <row r="64" spans="1:22" ht="19.5" customHeight="1">
+    <row r="64" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -14178,7 +14664,7 @@
       </c>
       <c r="V64" s="45"/>
     </row>
-    <row r="65" spans="1:44" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="65" spans="1:44" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>121</v>
       </c>
@@ -14259,7 +14745,7 @@
         <v>0.53191489361702127</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="19.5" customHeight="1">
+    <row r="66" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>144</v>
       </c>
@@ -14341,7 +14827,7 @@
       </c>
       <c r="V66" s="45"/>
     </row>
-    <row r="67" spans="1:44" s="45" customFormat="1" ht="19.5" customHeight="1">
+    <row r="67" spans="1:44" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
         <v>159</v>
       </c>
@@ -14422,40 +14908,40 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR70" s="43"/>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR71" s="43"/>
     </row>
-    <row r="72" spans="1:44">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR72" s="43"/>
     </row>
-    <row r="73" spans="1:44">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR73" s="43"/>
     </row>
-    <row r="74" spans="1:44">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR74" s="43"/>
     </row>
-    <row r="75" spans="1:44">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR75" s="43"/>
     </row>
-    <row r="76" spans="1:44">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR76" s="43"/>
     </row>
-    <row r="77" spans="1:44">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR77" s="43"/>
     </row>
-    <row r="78" spans="1:44">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR78" s="43"/>
     </row>
-    <row r="79" spans="1:44">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR79" s="43"/>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR80" s="43"/>
     </row>
-    <row r="81" spans="44:44">
+    <row r="81" spans="44:44" x14ac:dyDescent="0.25">
       <c r="AR81" s="43"/>
     </row>
   </sheetData>
@@ -14597,13 +15083,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -14635,7 +15121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14658,18 +15144,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <f>((G2*0.5)+E2)/SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H9" si="0">((G2*0.5)+E2)/SUM(E2:G2)</f>
         <v>0.6785714285714286</v>
       </c>
       <c r="I2" s="1">
         <v>1401</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14692,18 +15178,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>((G3*0.5)+E3)/SUM(E3:G3)</f>
+        <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="I3" s="1">
         <v>1597</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -14726,18 +15212,18 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f>((G4*0.5)+E4)/SUM(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="I4" s="1">
         <v>1324</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="58" t="s">
         <v>220</v>
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14760,15 +15246,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>((G5*0.5)+E5)/SUM(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I5" s="1">
         <v>1364</v>
       </c>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -14788,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>((G6*0.5)+E6)/SUM(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I6">
@@ -14798,7 +15284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -14818,17 +15304,17 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>((G7*0.5)+E7)/SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I7">
         <v>1311</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="54" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -14848,18 +15334,18 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>((G8*0.5)+E8)/SUM(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I8">
         <v>1200</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -14879,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>((G9*0.5)+E9)/SUM(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I9">
@@ -14888,28 +15374,28 @@
       <c r="K9" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" s="55"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="L13" s="53" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="54" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -14926,7 +15412,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -14941,7 +15427,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -14949,7 +15435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -14960,7 +15446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -14974,7 +15460,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -14982,7 +15468,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>189</v>
       </c>
@@ -14993,12 +15479,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>191</v>
       </c>
@@ -15006,7 +15492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>193</v>
       </c>
@@ -15017,12 +15503,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>194</v>
       </c>
@@ -15030,7 +15516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>196</v>
       </c>
@@ -15038,7 +15524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>197</v>
       </c>
@@ -15046,7 +15532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>235</v>
       </c>
@@ -15057,12 +15543,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>198</v>
       </c>
@@ -15070,7 +15556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>199</v>
       </c>
@@ -15081,7 +15567,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>200</v>
       </c>
@@ -15089,7 +15575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>201</v>
       </c>
@@ -15097,7 +15583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>202</v>
       </c>
@@ -15105,7 +15591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>203</v>
       </c>
@@ -15113,7 +15599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>204</v>
       </c>
@@ -15121,7 +15607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>205</v>
       </c>
@@ -15129,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>236</v>
       </c>
@@ -15140,7 +15626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>209</v>
       </c>
@@ -15148,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>210</v>
       </c>
@@ -15156,7 +15642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>212</v>
       </c>
@@ -15164,7 +15650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>213</v>
       </c>
@@ -15172,7 +15658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>214</v>
       </c>
@@ -15180,7 +15666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>216</v>
       </c>
@@ -15188,7 +15674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>195</v>
       </c>
@@ -15199,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>237</v>
       </c>
@@ -15210,12 +15696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>238</v>
       </c>
@@ -15223,7 +15709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>239</v>
       </c>
@@ -15231,7 +15717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>240</v>
       </c>
@@ -15242,12 +15728,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>241</v>
       </c>
@@ -15258,12 +15744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>242</v>
       </c>
@@ -15271,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>243</v>
       </c>
@@ -15279,7 +15765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>244</v>
       </c>
@@ -15290,7 +15776,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>183</v>
       </c>
@@ -15321,13 +15807,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -15359,7 +15845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15382,18 +15868,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <f>((G2*0.5)+E2)/SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H11" si="0">((G2*0.5)+E2)/SUM(E2:G2)</f>
         <v>0.8214285714285714</v>
       </c>
       <c r="I2" s="1">
         <v>1367</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -15416,18 +15902,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>((G3*0.5)+E3)/SUM(E3:G3)</f>
+        <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="I3" s="1">
         <v>1409</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="55" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -15450,18 +15936,18 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f>((G4*0.5)+E4)/SUM(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="I4" s="1">
         <v>1242</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="58" t="s">
         <v>247</v>
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15484,15 +15970,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>((G5*0.5)+E5)/SUM(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I5" s="1">
         <v>1280</v>
       </c>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -15513,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>((G6*0.5)+E6)/SUM(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2">
@@ -15523,7 +16009,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -15544,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>((G7*0.5)+E7)/SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I7" s="2">
@@ -15554,7 +16040,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -15575,18 +16061,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <f>((G8*0.5)+E8)/SUM(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>0.39285714285714285</v>
       </c>
       <c r="I8" s="2">
         <v>1167</v>
       </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>8</v>
@@ -15607,18 +16093,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>((G9*0.5)+E9)/SUM(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="I9" s="2">
         <v>1162</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -15638,15 +16124,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <f>((G10*0.5)+E10)/SUM(E10:G10)</f>
+        <f t="shared" si="0"/>
         <v>0.32142857142857145</v>
       </c>
       <c r="I10" s="2">
         <v>1086</v>
       </c>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -15666,59 +16152,59 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>((G11*0.5)+E11)/SUM(E11:G11)</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="I11" s="2">
         <v>862</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="58" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -15749,13 +16235,13 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -15787,7 +16273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -15810,18 +16296,18 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f>((G2*0.5)+E2)/SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H9" si="0">((G2*0.5)+E2)/SUM(E2:G2)</f>
         <v>0.9285714285714286</v>
       </c>
       <c r="I2" s="1">
         <v>1830.14</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15844,18 +16330,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>((G3*0.5)+E3)/SUM(E3:G3)</f>
+        <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="I3" s="1">
         <v>1705.42</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -15878,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>((G4*0.5)+E4)/SUM(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="I4" s="1">
@@ -15887,9 +16373,9 @@
       <c r="K4" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -15912,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>((G5*0.5)+E5)/SUM(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I5" s="1">
@@ -15920,7 +16406,7 @@
       </c>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -15940,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>((G6*0.5)+E6)/SUM(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I6">
@@ -15950,7 +16436,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -15970,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>((G7*0.5)+E7)/SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="I7">
@@ -15980,7 +16466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -16000,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>((G8*0.5)+E8)/SUM(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I8">
@@ -16011,7 +16497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -16031,31 +16517,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>((G9*0.5)+E9)/SUM(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="I9">
         <v>1320.34</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="58" t="s">
         <v>261</v>
       </c>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="K10" s="56"/>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -16064,27 +16550,27 @@
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="58" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -16092,7 +16578,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -16100,17 +16586,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -16141,13 +16627,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -16179,7 +16665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -16208,11 +16694,11 @@
       <c r="I2" s="1">
         <v>1636</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -16241,12 +16727,12 @@
       <c r="I3" s="1">
         <v>1450</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16275,12 +16761,12 @@
       <c r="I4" s="1">
         <v>1333</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16309,9 +16795,9 @@
       <c r="I5" s="1">
         <v>1558</v>
       </c>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -16341,7 +16827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -16367,11 +16853,11 @@
       <c r="I7" s="2">
         <v>1141</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -16397,12 +16883,12 @@
       <c r="I8" s="2">
         <v>1174</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -16431,68 +16917,68 @@
       <c r="K9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" s="55"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="L13" s="53" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="53"/>
+      <c r="L14" s="54"/>
       <c r="M14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -16523,13 +17009,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -16561,7 +17047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -16590,11 +17076,11 @@
       <c r="I2" s="1">
         <v>1511</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -16623,12 +17109,12 @@
       <c r="I3" s="1">
         <v>1402</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -16662,7 +17148,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -16693,7 +17179,7 @@
       </c>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -16723,7 +17209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -16753,7 +17239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -16780,11 +17266,11 @@
         <v>1254</v>
       </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -16810,12 +17296,12 @@
       <c r="I9" s="2">
         <v>1351</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -16841,9 +17327,9 @@
       <c r="I10" s="2">
         <v>1294</v>
       </c>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -16870,17 +17356,17 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -16892,7 +17378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -16905,11 +17391,11 @@
       <c r="F15" s="19">
         <v>120</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -16920,9 +17406,9 @@
       <c r="F16" s="19">
         <v>60</v>
       </c>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -16934,22 +17420,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -16981,13 +17467,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -17019,7 +17505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -17048,12 +17534,12 @@
       <c r="I2" s="1">
         <v>1844.5</v>
       </c>
-      <c r="K2" s="56" t="str">
+      <c r="K2" s="58" t="str">
         <f>C2</f>
         <v>#Hashtags</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17082,12 +17568,12 @@
       <c r="I3" s="1">
         <v>2096.08</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -17122,7 +17608,7 @@
       </c>
       <c r="L4" s="55"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -17153,7 +17639,7 @@
       </c>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -17183,7 +17669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -17214,7 +17700,7 @@
         <v>The Timmies</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -17241,11 +17727,11 @@
         <v>1793.28</v>
       </c>
       <c r="K8" s="55"/>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -17271,13 +17757,13 @@
       <c r="I9" s="2">
         <v>1922.56</v>
       </c>
-      <c r="K9" s="56" t="str">
+      <c r="K9" s="58" t="str">
         <f>C4</f>
         <v>The dago</v>
       </c>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -17303,9 +17789,9 @@
       <c r="I10" s="2">
         <v>1882.62</v>
       </c>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -17332,17 +17818,17 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" s="55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -17354,7 +17840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -17367,11 +17853,11 @@
       <c r="F15" s="20">
         <v>120</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -17381,9 +17867,9 @@
       <c r="F16" s="20">
         <v>60</v>
       </c>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -17394,22 +17880,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -17440,18 +17926,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
@@ -17459,7 +17945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -17500,7 +17986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17532,11 +18018,11 @@
       <c r="J3" s="1">
         <v>1596.84</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -17568,10 +18054,10 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -17603,12 +18089,12 @@
       <c r="J5" s="1">
         <v>1728.66</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -17640,12 +18126,12 @@
       <c r="J6" s="1">
         <v>1635.62</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -17674,10 +18160,10 @@
       <c r="J7" s="2">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="65"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>6</v>
@@ -17707,22 +18193,22 @@
       <c r="J8" s="13">
         <v>1388.18</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="62" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -17753,12 +18239,12 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -17790,12 +18276,12 @@
       <c r="J11" s="1">
         <v>1673.14</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="54" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -17827,12 +18313,12 @@
       <c r="J12" s="1">
         <v>1615.32</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="P12" s="58" t="s">
+      <c r="L12" s="54"/>
+      <c r="P12" s="62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -17861,9 +18347,9 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="67"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -17892,11 +18378,11 @@
       <c r="J14" s="2">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
@@ -17925,12 +18411,12 @@
       <c r="J15">
         <v>1368.88</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6</v>
       </c>
@@ -17959,18 +18445,18 @@
       <c r="J16" s="2">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="61"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L17" s="55" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -17979,12 +18465,12 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="55"/>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="63" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -17992,16 +18478,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="65"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="58" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="20">
         <v>20</v>
       </c>
@@ -18011,12 +18497,12 @@
       <c r="F21" s="20">
         <v>120</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="1:16" ht="15">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -18029,11 +18515,11 @@
       <c r="F22" s="20">
         <v>60</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -18043,17 +18529,17 @@
       <c r="F23" s="20">
         <v>20</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -18061,21 +18547,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="60" t="s">
+      <c r="P26" s="65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="61"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="66"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -18083,7 +18569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -18094,6 +18580,12 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -18104,12 +18596,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18123,18 +18609,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -18142,7 +18628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -18183,7 +18669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18215,11 +18701,11 @@
       <c r="J3" s="1">
         <v>1732.22</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -18251,10 +18737,10 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18286,12 +18772,12 @@
       <c r="J5" s="1">
         <v>1533.2</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18323,12 +18809,12 @@
       <c r="J6" s="1">
         <v>1643.26</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="61"/>
+      <c r="N6" s="63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8</v>
       </c>
@@ -18357,10 +18843,10 @@
       <c r="J7" s="2">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="65"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
         <v>9</v>
@@ -18390,22 +18876,22 @@
       <c r="J8" s="13">
         <v>1475.86</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="62" t="s">
         <v>89</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -18436,12 +18922,12 @@
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="12"/>
       <c r="N10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -18478,7 +18964,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -18511,11 +18997,11 @@
         <v>1578.96</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -18544,9 +19030,9 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="67"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -18575,11 +19061,11 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
@@ -18608,12 +19094,12 @@
       <c r="J15" s="2">
         <v>1504.64</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="63"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
@@ -18642,18 +19128,18 @@
       <c r="J16" s="2">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="61"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="12"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L17" s="55" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -18662,12 +19148,12 @@
       <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="L18" s="55"/>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="63" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -18675,16 +19161,16 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="65"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="12"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16">
-      <c r="N20" s="58" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D21" s="21">
         <v>35</v>
       </c>
@@ -18694,12 +19180,12 @@
       <c r="F21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -18712,11 +19198,11 @@
       <c r="F22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="12"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -18726,11 +19212,11 @@
       <c r="F23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -18738,9 +19224,9 @@
         <v>112</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15">
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -18749,44 +19235,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="62" t="s">
+      <c r="P26" s="59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="63"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" s="58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="56"/>
+      <c r="P29" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -18798,6 +19279,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85183C78-4C9A-4FA6-B6FB-15E7E2A346AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D32BD-FED8-4607-A692-C54939B1DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="18" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="17" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="16" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="277">
   <si>
     <t>Team</t>
   </si>
@@ -1124,7 +1124,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1162,6 +1162,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,22 +1175,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1198,25 +1199,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1663,7 +1645,7 @@
       <c r="I2" s="1">
         <v>2368.5</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="40" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1696,8 +1678,8 @@
       <c r="I3" s="1">
         <v>2248.5</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="39" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1730,10 +1712,10 @@
       <c r="I4" s="1">
         <v>2325.5</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1764,7 +1746,7 @@
       <c r="I5" s="1">
         <v>2430.5</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1822,24 +1804,24 @@
       <c r="I7">
         <v>1856</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="38" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="38"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -1847,7 +1829,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1864,7 +1846,7 @@
       <c r="D14" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1879,7 +1861,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1890,7 +1872,7 @@
       <c r="B16" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2325,7 +2307,7 @@
       <c r="J3" s="1">
         <v>1670.76</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2361,7 +2343,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2378,7 @@
       <c r="J5" s="1">
         <v>1645.12</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -2433,8 +2415,8 @@
       <c r="J6" s="1">
         <v>1622.42</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2467,7 +2449,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2500,7 +2482,7 @@
       <c r="J8" s="10">
         <v>1426.34</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="14"/>
@@ -2509,10 +2491,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2546,7 +2528,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2583,7 +2565,7 @@
       <c r="J11" s="1">
         <v>1668.7</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="38" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="14"/>
@@ -2620,8 +2602,8 @@
       <c r="J12" s="1">
         <v>1621.08</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="38"/>
+      <c r="P12" s="43" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2654,7 +2636,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2685,7 +2667,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2718,10 +2700,10 @@
       <c r="J15">
         <v>1437.26</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2752,12 +2734,12 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="38" t="s">
         <v>60</v>
       </c>
       <c r="N17" s="14"/>
@@ -2765,20 +2747,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="37"/>
-      <c r="N18" s="41" t="s">
+      <c r="L18" s="38"/>
+      <c r="N18" s="44" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2792,10 +2774,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2810,7 +2792,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2824,7 +2806,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2838,7 +2820,7 @@
       <c r="F24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2853,7 +2835,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2861,13 +2843,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2875,18 +2857,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J8">
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2898,6 +2875,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3003,7 +2985,7 @@
       <c r="J3" s="1">
         <v>1593.46</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3039,7 +3021,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3056,7 @@
       <c r="J5" s="1">
         <v>1469.7</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3108,8 +3090,8 @@
       <c r="J6">
         <v>1471.44</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="43" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3142,7 +3124,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3175,7 +3157,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="44" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3184,10 +3166,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="44"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3221,7 +3203,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3258,7 +3240,7 @@
       <c r="J11" s="1">
         <v>1662.04</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="39" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -3295,8 +3277,8 @@
       <c r="J12" s="1">
         <v>1508.68</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="39"/>
+      <c r="P12" s="43" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3332,7 +3314,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3363,7 +3345,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3396,10 +3378,10 @@
       <c r="J15">
         <v>1411.74</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3430,12 +3412,12 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="38" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="14"/>
@@ -3443,20 +3425,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="37"/>
-      <c r="N18" s="41" t="s">
+      <c r="L18" s="38"/>
+      <c r="N18" s="44" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3470,10 +3452,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3488,7 +3470,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3502,7 +3484,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3516,7 +3498,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3543,7 +3525,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3551,13 +3533,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3565,18 +3547,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3588,6 +3565,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3693,7 +3675,7 @@
       <c r="J3" s="1">
         <v>1792.26</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3729,7 +3711,7 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,7 +3743,7 @@
       <c r="J5">
         <v>1623.88</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3795,8 +3777,8 @@
       <c r="J6">
         <v>1608.62</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3829,7 +3811,7 @@
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3862,7 +3844,7 @@
       <c r="J8" s="10">
         <v>1419.32</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="14"/>
@@ -3871,10 +3853,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3908,7 +3890,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3945,7 +3927,7 @@
       <c r="J11" s="1">
         <v>1895.72</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="38" t="s">
         <v>124</v>
       </c>
       <c r="P11" s="14"/>
@@ -3982,8 +3964,8 @@
       <c r="J12" s="1">
         <v>1666.54</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="P12" s="41" t="s">
+      <c r="L12" s="38"/>
+      <c r="P12" s="44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4019,7 +4001,7 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="46"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4053,7 +4035,7 @@
       <c r="J14" s="1">
         <v>1642.38</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4086,10 +4068,10 @@
       <c r="J15">
         <v>1496.7</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4120,12 +4102,12 @@
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="14"/>
@@ -4133,20 +4115,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="39"/>
+      <c r="N18" s="43" t="s">
         <v>122</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="43"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4160,10 +4142,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="41"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4178,7 +4160,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4192,7 +4174,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4206,7 +4188,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4233,7 +4215,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4241,13 +4223,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4255,18 +4237,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="37"/>
+      <c r="P29" s="38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4278,6 +4255,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4383,7 +4365,7 @@
       <c r="J3" s="1">
         <v>1530.24</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4419,7 +4401,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4451,7 +4433,7 @@
       <c r="J5">
         <v>1523.86</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -4485,8 +4467,8 @@
       <c r="J6">
         <v>1541.3</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4519,7 +4501,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4552,7 +4534,7 @@
       <c r="J8" s="10">
         <v>1453.8</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -4561,10 +4543,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4598,7 +4580,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4635,7 +4617,7 @@
       <c r="J11" s="1">
         <v>1851.34</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="39" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -4672,8 +4654,8 @@
       <c r="J12" s="1">
         <v>1742.32</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="39"/>
+      <c r="P12" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4709,7 +4691,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4743,7 +4725,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4776,10 +4758,10 @@
       <c r="J15">
         <v>1573</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4810,12 +4792,12 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="38" t="s">
         <v>136</v>
       </c>
       <c r="N17" s="14"/>
@@ -4823,20 +4805,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="37"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="38"/>
+      <c r="N18" s="43" t="s">
         <v>135</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="43"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="44" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4850,10 +4832,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="41"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4868,7 +4850,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4882,7 +4864,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4896,7 +4878,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4923,7 +4905,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4931,13 +4913,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4945,7 +4927,7 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -4957,11 +4939,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4973,6 +4950,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5078,7 +5060,7 @@
       <c r="J3" s="1">
         <v>1744.88</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5114,7 +5096,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5149,7 +5131,7 @@
       <c r="J5" s="1">
         <v>1613.18</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -5183,8 +5165,8 @@
       <c r="J6">
         <v>1612.58</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="43" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5217,7 +5199,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5250,7 +5232,7 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="44" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="14"/>
@@ -5259,10 +5241,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="44"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5296,7 +5278,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5333,7 +5315,7 @@
       <c r="J11" s="1">
         <v>1764.64</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="39" t="s">
         <v>142</v>
       </c>
       <c r="P11" s="14"/>
@@ -5370,8 +5352,8 @@
       <c r="J12" s="1">
         <v>1574.5</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="41" t="s">
+      <c r="L12" s="39"/>
+      <c r="P12" s="44" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5407,7 +5389,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="46"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5438,7 +5420,7 @@
       <c r="J14">
         <v>1397.72</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5471,10 +5453,10 @@
       <c r="J15">
         <v>1368.44</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -5505,12 +5487,12 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="38" t="s">
         <v>96</v>
       </c>
       <c r="N17" s="14"/>
@@ -5518,20 +5500,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="37"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="38"/>
+      <c r="N18" s="43" t="s">
         <v>118</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="43"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5545,10 +5527,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="41"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5563,7 +5545,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5578,7 +5560,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5593,7 +5575,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -5622,7 +5604,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5631,14 +5613,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="44"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5647,7 +5629,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="P29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -5660,11 +5642,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5676,6 +5653,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5799,7 +5781,7 @@
       <c r="I3" s="1">
         <v>1830.48</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5832,7 +5814,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5846,7 @@
       <c r="I5" s="1">
         <v>2011.64</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -5898,8 +5880,8 @@
       <c r="I6" s="1">
         <v>1810.54</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="M6" s="41" t="s">
+      <c r="K6" s="40"/>
+      <c r="M6" s="44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5932,7 +5914,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5961,7 +5943,7 @@
       <c r="I8">
         <v>1557.34</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="43" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="14"/>
@@ -5992,10 +5974,10 @@
       <c r="I9">
         <v>1632.8</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6024,7 +6006,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6055,7 +6037,7 @@
       <c r="I11">
         <v>1326.38</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="38" t="s">
         <v>136</v>
       </c>
       <c r="O11" s="14"/>
@@ -6086,8 +6068,8 @@
       <c r="I12">
         <v>1491.86</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="O12" s="42" t="s">
+      <c r="K12" s="38"/>
+      <c r="O12" s="43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6117,29 +6099,29 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="43"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="44" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="41"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="38" t="s">
         <v>99</v>
       </c>
       <c r="M17" s="14"/>
@@ -6147,20 +6129,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="37"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="38"/>
+      <c r="M18" s="43" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="48" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6174,10 +6156,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="41"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6192,7 +6174,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6207,7 +6189,7 @@
       <c r="F23" s="17">
         <v>30</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6222,7 +6204,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6251,7 +6233,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O26" s="38" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6260,14 +6242,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="44"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="39" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6276,7 +6258,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="38"/>
+      <c r="O29" s="39"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -6289,11 +6271,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6305,6 +6282,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6428,7 +6410,7 @@
       <c r="I3" s="1">
         <v>1668.12</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6461,7 +6443,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6493,7 +6475,7 @@
       <c r="I5" s="1">
         <v>1912.76</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -6527,8 +6509,8 @@
       <c r="I6" s="1">
         <v>1688.86</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="M6" s="41" t="s">
+      <c r="K6" s="40"/>
+      <c r="M6" s="44" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6561,7 +6543,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6590,7 +6572,7 @@
       <c r="I8">
         <v>1557.08</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="43" t="s">
         <v>146</v>
       </c>
       <c r="O8" s="14"/>
@@ -6621,10 +6603,10 @@
       <c r="I9">
         <v>1554.84</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6653,7 +6635,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6684,7 +6666,7 @@
       <c r="I11">
         <v>1798.06</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="38" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="14"/>
@@ -6715,8 +6697,8 @@
       <c r="I12">
         <v>1635.74</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="O12" s="42" t="s">
+      <c r="K12" s="38"/>
+      <c r="O12" s="43" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6746,29 +6728,29 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="43"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="44" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="41"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="44"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="39" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="14"/>
@@ -6776,20 +6758,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="41" t="s">
+      <c r="K18" s="39"/>
+      <c r="M18" s="44" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="46"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="49" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6803,10 +6785,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6821,7 +6803,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6836,7 +6818,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6851,7 +6833,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6880,7 +6862,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="39" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6889,7 +6871,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6899,7 +6881,7 @@
       <c r="C28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6908,7 +6890,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -6921,11 +6903,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6937,6 +6914,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7060,7 +7042,7 @@
       <c r="I3" s="1">
         <v>1879.82</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7093,7 +7075,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7125,7 +7107,7 @@
       <c r="I5" s="1">
         <v>1702.92</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7159,8 +7141,8 @@
       <c r="I6" s="1">
         <v>1695.94</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="40"/>
+      <c r="M6" s="43" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7193,7 +7175,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7222,7 +7204,7 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="44" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="14"/>
@@ -7253,10 +7235,10 @@
       <c r="I9">
         <v>1566.6</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="44"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7285,7 +7267,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7316,7 +7298,7 @@
       <c r="I11">
         <v>1740</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O11" s="14"/>
@@ -7347,8 +7329,8 @@
       <c r="I12">
         <v>1435.98</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="O12" s="41" t="s">
+      <c r="K12" s="39"/>
+      <c r="O12" s="44" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7378,29 +7360,29 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="46"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="43" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="38" t="s">
         <v>148</v>
       </c>
       <c r="M17" s="14"/>
@@ -7408,20 +7390,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="37"/>
-      <c r="M18" s="41" t="s">
+      <c r="K18" s="38"/>
+      <c r="M18" s="44" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="46"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="49" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7435,10 +7417,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -7453,7 +7435,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7468,7 +7450,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7483,7 +7465,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -7512,7 +7494,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7521,7 +7503,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7531,7 +7513,7 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="38" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7540,7 +7522,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -7553,11 +7535,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7569,6 +7546,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7578,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC38AAB-96CB-42DE-9F89-BEE07C09AAC6}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7688,7 +7670,7 @@
       <c r="I3" s="1">
         <v>1810.84</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7719,7 +7701,7 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7749,7 +7731,7 @@
       <c r="I5" s="1">
         <v>1758.24</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7781,8 +7763,8 @@
       <c r="I6" s="1">
         <v>1712.9</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="M6" s="52" t="s">
+      <c r="K6" s="40"/>
+      <c r="M6" s="44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7813,7 +7795,7 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7842,7 +7824,9 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="41"/>
+      <c r="M8" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7871,10 +7855,10 @@
       <c r="I9">
         <v>1582.7</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="44"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7903,7 +7887,7 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7934,7 +7918,7 @@
       <c r="I11">
         <v>1628.92</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="38" t="s">
         <v>60</v>
       </c>
       <c r="O11" s="14"/>
@@ -7965,8 +7949,8 @@
       <c r="I12">
         <v>1418.44</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="O12" s="41"/>
+      <c r="K12" s="38"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -7994,27 +7978,27 @@
       <c r="I13">
         <v>1315.52</v>
       </c>
-      <c r="O13" s="46"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="52"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="52"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="50"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="38" t="s">
         <v>155</v>
       </c>
       <c r="M17" s="14"/>
@@ -8022,18 +8006,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="37"/>
-      <c r="M18" s="41"/>
+      <c r="K18" s="38"/>
+      <c r="M18" s="44" t="s">
+        <v>145</v>
+      </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="46"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="48" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8047,10 +8033,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8065,7 +8051,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8080,7 +8066,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8095,7 +8081,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -8124,14 +8110,14 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="49"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="50"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8141,14 +8127,14 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="37"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="37"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -8158,11 +8144,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8174,6 +8155,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8184,7 +8170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
   <dimension ref="A1:AU81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
@@ -8315,7 +8301,7 @@
       <c r="AN1" s="6">
         <v>2022</v>
       </c>
-      <c r="AO1" s="54">
+      <c r="AO1" s="6">
         <v>2023</v>
       </c>
       <c r="AP1" s="33">
@@ -8480,7 +8466,7 @@
         <f>_xlfn.XLOOKUP($A2,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>6</v>
       </c>
-      <c r="AO2" s="55">
+      <c r="AO2">
         <f>_xlfn.XLOOKUP($A2,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>4</v>
       </c>
@@ -8652,7 +8638,7 @@
         <f>_xlfn.XLOOKUP($A3,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO3" s="56" t="str">
+      <c r="AO3" s="37" t="str">
         <f>_xlfn.XLOOKUP($A3,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -8824,7 +8810,7 @@
         <f>_xlfn.XLOOKUP($A4,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>3</v>
       </c>
-      <c r="AO4" s="55">
+      <c r="AO4">
         <f>_xlfn.XLOOKUP($A4,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -8996,7 +8982,7 @@
         <f>_xlfn.XLOOKUP($A5,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO5" s="56" t="str">
+      <c r="AO5" s="37" t="str">
         <f>_xlfn.XLOOKUP($A5,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -9168,7 +9154,7 @@
         <f>_xlfn.XLOOKUP($A6,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="55">
+      <c r="AO6">
         <f>_xlfn.XLOOKUP($A6,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -9340,7 +9326,7 @@
         <f>_xlfn.XLOOKUP($A7,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO7" s="56" t="str">
+      <c r="AO7" s="37" t="str">
         <f>_xlfn.XLOOKUP($A7,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -9512,7 +9498,7 @@
         <f>_xlfn.XLOOKUP($A8,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO8" s="56" t="str">
+      <c r="AO8" s="37" t="str">
         <f>_xlfn.XLOOKUP($A8,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -9684,7 +9670,7 @@
         <f>_xlfn.XLOOKUP($A9,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="55">
+      <c r="AO9">
         <f>_xlfn.XLOOKUP($A9,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>3</v>
       </c>
@@ -9856,7 +9842,7 @@
         <f>_xlfn.XLOOKUP($A10,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO10" s="56" t="str">
+      <c r="AO10" s="37" t="str">
         <f>_xlfn.XLOOKUP($A10,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -10028,7 +10014,7 @@
         <f>_xlfn.XLOOKUP($A11,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>2</v>
       </c>
-      <c r="AO11" s="55">
+      <c r="AO11">
         <f>_xlfn.XLOOKUP($A11,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -10200,7 +10186,7 @@
         <f>_xlfn.XLOOKUP($A12,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>5</v>
       </c>
-      <c r="AO12" s="55">
+      <c r="AO12">
         <f>_xlfn.XLOOKUP($A12,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -10372,7 +10358,7 @@
         <f>_xlfn.XLOOKUP($A13,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>1</v>
       </c>
-      <c r="AO13" s="55">
+      <c r="AO13">
         <f>_xlfn.XLOOKUP($A13,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -10544,7 +10530,7 @@
         <f>_xlfn.XLOOKUP($A14,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>4</v>
       </c>
-      <c r="AO14" s="55">
+      <c r="AO14">
         <f>_xlfn.XLOOKUP($A14,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
@@ -10716,7 +10702,7 @@
         <f>_xlfn.XLOOKUP($A15,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO15" s="56" t="str">
+      <c r="AO15" s="37" t="str">
         <f>_xlfn.XLOOKUP($A15,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -10888,7 +10874,7 @@
         <f>_xlfn.XLOOKUP($A16,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO16" s="56" t="str">
+      <c r="AO16" s="37" t="str">
         <f>_xlfn.XLOOKUP($A16,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -11060,7 +11046,7 @@
         <f>_xlfn.XLOOKUP($A17,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO17" s="56" t="str">
+      <c r="AO17" s="37" t="str">
         <f>_xlfn.XLOOKUP($A17,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -11232,7 +11218,7 @@
         <f>_xlfn.XLOOKUP($A18,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="55">
+      <c r="AO18">
         <f>_xlfn.XLOOKUP($A18,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>5</v>
       </c>
@@ -11404,7 +11390,7 @@
         <f>_xlfn.XLOOKUP($A19,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO19" s="55">
+      <c r="AO19">
         <f>_xlfn.XLOOKUP($A19,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>1</v>
       </c>
@@ -11576,7 +11562,7 @@
         <f>_xlfn.XLOOKUP($A20,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO20" s="56" t="str">
+      <c r="AO20" s="37" t="str">
         <f>_xlfn.XLOOKUP($A20,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -11748,7 +11734,7 @@
         <f>_xlfn.XLOOKUP($A21,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO21" s="56" t="str">
+      <c r="AO21" s="37" t="str">
         <f>_xlfn.XLOOKUP($A21,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -11920,7 +11906,7 @@
         <f>_xlfn.XLOOKUP($A22,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO22" s="56" t="str">
+      <c r="AO22" s="37" t="str">
         <f>_xlfn.XLOOKUP($A22,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -12092,7 +12078,7 @@
         <f>_xlfn.XLOOKUP($A23,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO23" s="55">
+      <c r="AO23">
         <f>_xlfn.XLOOKUP($A23,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>2</v>
       </c>
@@ -12264,7 +12250,7 @@
         <f>_xlfn.XLOOKUP($A24,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>0</v>
       </c>
-      <c r="AO24" s="56" t="str">
+      <c r="AO24" s="37" t="str">
         <f>_xlfn.XLOOKUP($A24,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
@@ -12436,7 +12422,7 @@
         <f>_xlfn.XLOOKUP($A25,'2022'!$D$2:$D$13,'2022'!$A$2:$A$13,"x")</f>
         <v>x</v>
       </c>
-      <c r="AO25" s="55">
+      <c r="AO25">
         <f>_xlfn.XLOOKUP($A25,'2023'!$D$2:$D$13,'2023'!$A$2:$A$13,"x")</f>
         <v>6</v>
       </c>
@@ -12607,7 +12593,7 @@
         <v/>
       </c>
       <c r="T29" s="34">
-        <f>SUM(B29:E29)</f>
+        <f t="shared" ref="T29:T43" si="3">SUM(B29:E29)</f>
         <v>16</v>
       </c>
       <c r="U29" s="34"/>
@@ -12635,7 +12621,7 @@
         <v/>
       </c>
       <c r="T30" s="34">
-        <f>SUM(B30:E30)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="U30" s="34"/>
@@ -12663,7 +12649,7 @@
         <v/>
       </c>
       <c r="T31" s="34">
-        <f>SUM(B31:E31)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="U31" s="34"/>
@@ -12691,7 +12677,7 @@
         <v/>
       </c>
       <c r="T32" s="34">
-        <f>SUM(B32:E32)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="U32" s="34"/>
@@ -12719,7 +12705,7 @@
         <v/>
       </c>
       <c r="T33" s="34">
-        <f>SUM(B33:E33)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U33" s="34"/>
@@ -12747,7 +12733,7 @@
         <v/>
       </c>
       <c r="T34" s="34">
-        <f>SUM(B34:E34)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U34" s="34"/>
@@ -12775,7 +12761,7 @@
         <v/>
       </c>
       <c r="T35" s="34">
-        <f>SUM(B35:E35)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U35" s="34"/>
@@ -12803,7 +12789,7 @@
         <v/>
       </c>
       <c r="T36" s="34">
-        <f>SUM(B36:E36)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="U36" s="34"/>
@@ -12831,7 +12817,7 @@
         <v/>
       </c>
       <c r="T37" s="34">
-        <f>SUM(B37:E37)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="U37" s="34"/>
@@ -12859,7 +12845,7 @@
         <v>4</v>
       </c>
       <c r="T38" s="34">
-        <f>SUM(B38:E38)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="U38" s="34"/>
@@ -12887,7 +12873,7 @@
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>SUM(B39:E39)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U39" s="34"/>
@@ -12915,7 +12901,7 @@
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>SUM(B40:E40)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="U40" s="34"/>
@@ -12943,7 +12929,7 @@
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>SUM(B41:E41)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="U41" s="34"/>
@@ -12971,7 +12957,7 @@
         <v>6</v>
       </c>
       <c r="T42" s="34">
-        <f>SUM(B42:E42)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U42" s="34"/>
@@ -12999,7 +12985,7 @@
         <v>3</v>
       </c>
       <c r="T43" s="34">
-        <f>SUM(B43:E43)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="U43" s="34"/>
@@ -13074,7 +13060,7 @@
         <f>_xlfn.XLOOKUP($A44,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>9</v>
       </c>
-      <c r="R44" s="57">
+      <c r="R44" s="29">
         <f>_xlfn.XLOOKUP($A44,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>8</v>
       </c>
@@ -13163,7 +13149,7 @@
         <f>_xlfn.XLOOKUP($A45,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R45" s="56" t="str">
+      <c r="R45" s="37" t="str">
         <f>_xlfn.XLOOKUP($A45,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -13172,15 +13158,15 @@
         <v/>
       </c>
       <c r="T45" s="34">
-        <f t="shared" ref="T45:T67" si="3">SUM(F45:S45)</f>
+        <f t="shared" ref="T45:T67" si="4">SUM(F45:S45)</f>
         <v>9</v>
       </c>
       <c r="U45" s="34">
-        <f t="shared" ref="U45:U67" si="4">SUM($F$27:$S$27)-SUMIFS($F$27:$S$27,$F45:$S45,"")</f>
+        <f t="shared" ref="U45:U67" si="5">SUM($F$27:$S$27)-SUMIFS($F$27:$S$27,$F45:$S45,"")</f>
         <v>14</v>
       </c>
       <c r="V45" s="34">
-        <f t="shared" ref="V45:V67" si="5">T45/U45</f>
+        <f t="shared" ref="V45:V67" si="6">T45/U45</f>
         <v>0.6428571428571429</v>
       </c>
       <c r="W45" s="34"/>
@@ -13267,7 +13253,7 @@
         <f>_xlfn.XLOOKUP($A46,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>10</v>
       </c>
-      <c r="R46" s="57">
+      <c r="R46" s="29">
         <f>_xlfn.XLOOKUP($A46,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
@@ -13276,15 +13262,15 @@
         <v>4</v>
       </c>
       <c r="T46" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="U46" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="V46" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56084656084656082</v>
       </c>
     </row>
@@ -13356,7 +13342,7 @@
         <f>_xlfn.XLOOKUP($A47,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R47" s="56" t="str">
+      <c r="R47" s="37" t="str">
         <f>_xlfn.XLOOKUP($A47,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -13365,15 +13351,15 @@
         <v/>
       </c>
       <c r="T47" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="U47" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="V47" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="W47" s="34"/>
@@ -13446,7 +13432,7 @@
         <f>_xlfn.XLOOKUP($A48,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
-      <c r="R48" s="57">
+      <c r="R48" s="29">
         <f>_xlfn.XLOOKUP($A48,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
@@ -13455,15 +13441,15 @@
         <v>8</v>
       </c>
       <c r="T48" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="U48" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="V48" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51322751322751325</v>
       </c>
     </row>
@@ -13535,7 +13521,7 @@
         <f>_xlfn.XLOOKUP($A49,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R49" s="56" t="str">
+      <c r="R49" s="37" t="str">
         <f>_xlfn.XLOOKUP($A49,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -13544,15 +13530,15 @@
         <v/>
       </c>
       <c r="T49" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="U49" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="V49" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="W49" s="34"/>
@@ -13625,7 +13611,7 @@
         <f>_xlfn.XLOOKUP($A50,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R50" s="56" t="str">
+      <c r="R50" s="37" t="str">
         <f>_xlfn.XLOOKUP($A50,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -13634,15 +13620,15 @@
         <v/>
       </c>
       <c r="T50" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="U50" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="V50" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W50" s="34"/>
@@ -13715,7 +13701,7 @@
         <f>_xlfn.XLOOKUP($A51,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>5</v>
       </c>
-      <c r="R51" s="57">
+      <c r="R51" s="29">
         <f>_xlfn.XLOOKUP($A51,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
@@ -13724,15 +13710,15 @@
         <v>11</v>
       </c>
       <c r="T51" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="U51" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="V51" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50793650793650791</v>
       </c>
     </row>
@@ -13801,7 +13787,7 @@
         <f>_xlfn.XLOOKUP($A52,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R52" s="56" t="str">
+      <c r="R52" s="37" t="str">
         <f>_xlfn.XLOOKUP($A52,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -13810,15 +13796,15 @@
         <v/>
       </c>
       <c r="T52" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="U52" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="V52" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="W52" s="34"/>
@@ -13887,7 +13873,7 @@
         <f>_xlfn.XLOOKUP($A53,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>10</v>
       </c>
-      <c r="R53" s="57">
+      <c r="R53" s="29">
         <f>_xlfn.XLOOKUP($A53,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>6</v>
       </c>
@@ -13896,15 +13882,15 @@
         <v>10</v>
       </c>
       <c r="T53" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="U53" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="V53" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54285714285714282</v>
       </c>
     </row>
@@ -13972,7 +13958,7 @@
         <f>_xlfn.XLOOKUP($A54,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
-      <c r="R54" s="57">
+      <c r="R54" s="29">
         <f>_xlfn.XLOOKUP($A54,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>3</v>
       </c>
@@ -13981,15 +13967,15 @@
         <v>2</v>
       </c>
       <c r="T54" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="U54" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="V54" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42285714285714288</v>
       </c>
     </row>
@@ -14057,7 +14043,7 @@
         <f>_xlfn.XLOOKUP($A55,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
-      <c r="R55" s="57">
+      <c r="R55" s="29">
         <f>_xlfn.XLOOKUP($A55,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>6</v>
       </c>
@@ -14066,15 +14052,15 @@
         <v>4</v>
       </c>
       <c r="T55" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="U55" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="V55" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41714285714285715</v>
       </c>
     </row>
@@ -14142,7 +14128,7 @@
         <f>_xlfn.XLOOKUP($A56,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
-      <c r="R56" s="57">
+      <c r="R56" s="29">
         <f>_xlfn.XLOOKUP($A56,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>5</v>
       </c>
@@ -14151,15 +14137,15 @@
         <v>9</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="V56" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48447204968944102</v>
       </c>
     </row>
@@ -14228,7 +14214,7 @@
         <f>_xlfn.XLOOKUP($A57,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R57" s="56" t="str">
+      <c r="R57" s="37" t="str">
         <f>_xlfn.XLOOKUP($A57,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14237,15 +14223,15 @@
         <v/>
       </c>
       <c r="T57" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="U57" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="V57" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="W57" s="34"/>
@@ -14315,7 +14301,7 @@
         <f>_xlfn.XLOOKUP($A58,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R58" s="56" t="str">
+      <c r="R58" s="37" t="str">
         <f>_xlfn.XLOOKUP($A58,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14324,15 +14310,15 @@
         <v/>
       </c>
       <c r="T58" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="U58" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="V58" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="W58" s="34"/>
@@ -14402,7 +14388,7 @@
         <f>_xlfn.XLOOKUP($A59,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R59" s="56" t="str">
+      <c r="R59" s="37" t="str">
         <f>_xlfn.XLOOKUP($A59,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14411,15 +14397,15 @@
         <v/>
       </c>
       <c r="T59" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U59" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="V59" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="W59" s="34"/>
@@ -14488,7 +14474,7 @@
         <f>_xlfn.XLOOKUP($A60,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>5</v>
       </c>
-      <c r="R60" s="57">
+      <c r="R60" s="29">
         <f>_xlfn.XLOOKUP($A60,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
@@ -14497,15 +14483,15 @@
         <v>5</v>
       </c>
       <c r="T60" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="U60" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="V60" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49659863945578231</v>
       </c>
     </row>
@@ -14573,7 +14559,7 @@
         <f>_xlfn.XLOOKUP($A61,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>6</v>
       </c>
-      <c r="R61" s="57">
+      <c r="R61" s="29">
         <f>_xlfn.XLOOKUP($A61,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>10</v>
       </c>
@@ -14582,15 +14568,15 @@
         <v>4</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="V61" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48299319727891155</v>
       </c>
     </row>
@@ -14659,7 +14645,7 @@
         <f>_xlfn.XLOOKUP($A62,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R62" s="56" t="str">
+      <c r="R62" s="37" t="str">
         <f>_xlfn.XLOOKUP($A62,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14668,15 +14654,15 @@
         <v/>
       </c>
       <c r="T62" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="U62" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="V62" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="W62" s="34"/>
@@ -14746,7 +14732,7 @@
         <f>_xlfn.XLOOKUP($A63,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R63" s="56" t="str">
+      <c r="R63" s="37" t="str">
         <f>_xlfn.XLOOKUP($A63,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14755,15 +14741,15 @@
         <v/>
       </c>
       <c r="T63" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U63" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="V63" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="W63" s="34"/>
@@ -14833,7 +14819,7 @@
         <f>_xlfn.XLOOKUP($A64,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R64" s="56" t="str">
+      <c r="R64" s="37" t="str">
         <f>_xlfn.XLOOKUP($A64,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -14842,15 +14828,15 @@
         <v/>
       </c>
       <c r="T64" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="U64" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="V64" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="W64" s="34"/>
@@ -14919,7 +14905,7 @@
         <f>_xlfn.XLOOKUP($A65,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>6</v>
       </c>
-      <c r="R65" s="57">
+      <c r="R65" s="29">
         <f>_xlfn.XLOOKUP($A65,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>11</v>
       </c>
@@ -14928,15 +14914,15 @@
         <v>8</v>
       </c>
       <c r="T65" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="U65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="V65" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53703703703703709</v>
       </c>
     </row>
@@ -15005,7 +14991,7 @@
         <f>_xlfn.XLOOKUP($A66,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>5</v>
       </c>
-      <c r="R66" s="56" t="str">
+      <c r="R66" s="37" t="str">
         <f>_xlfn.XLOOKUP($A66,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v/>
       </c>
@@ -15014,15 +15000,15 @@
         <v/>
       </c>
       <c r="T66" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="U66" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="V66" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56097560975609762</v>
       </c>
       <c r="W66" s="34"/>
@@ -15091,7 +15077,7 @@
         <f>_xlfn.XLOOKUP($A67,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v/>
       </c>
-      <c r="R67" s="57">
+      <c r="R67" s="29">
         <f>_xlfn.XLOOKUP($A67,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
@@ -15100,15 +15086,15 @@
         <v>9</v>
       </c>
       <c r="T67" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="U67" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="V67" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -15354,7 +15340,7 @@
       <c r="I2" s="1">
         <v>1401</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>217</v>
       </c>
     </row>
@@ -15387,8 +15373,8 @@
       <c r="I3" s="1">
         <v>1597</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="39" t="s">
         <v>217</v>
       </c>
     </row>
@@ -15421,10 +15407,10 @@
       <c r="I4" s="1">
         <v>1324</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -15455,7 +15441,7 @@
       <c r="I5" s="1">
         <v>1364</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -15513,7 +15499,7 @@
       <c r="I7">
         <v>1311</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="38" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15543,8 +15529,8 @@
       <c r="I8">
         <v>1200</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15574,13 +15560,13 @@
       <c r="I9">
         <v>985</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="38"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -15588,7 +15574,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="38" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15596,7 +15582,7 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -15611,7 +15597,7 @@
       <c r="D15" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>219</v>
       </c>
     </row>
@@ -15628,7 +15614,7 @@
       <c r="D16" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -16077,7 +16063,7 @@
       <c r="I2" s="1">
         <v>1367</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>245</v>
       </c>
     </row>
@@ -16110,8 +16096,8 @@
       <c r="I3" s="1">
         <v>1409</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="39" t="s">
         <v>245</v>
       </c>
     </row>
@@ -16144,10 +16130,10 @@
       <c r="I4" s="1">
         <v>1242</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -16178,7 +16164,7 @@
       <c r="I5" s="1">
         <v>1280</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -16236,7 +16222,7 @@
       <c r="I7">
         <v>1055</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>246</v>
       </c>
     </row>
@@ -16266,8 +16252,8 @@
       <c r="I8">
         <v>1167</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
         <v>246</v>
       </c>
     </row>
@@ -16297,10 +16283,10 @@
       <c r="I9">
         <v>1162</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -16328,7 +16314,7 @@
       <c r="I10">
         <v>1086</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -16363,7 +16349,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="39" t="s">
         <v>247</v>
       </c>
     </row>
@@ -16371,13 +16357,13 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>248</v>
       </c>
     </row>
@@ -16385,7 +16371,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -16500,7 +16486,7 @@
       <c r="I2" s="1">
         <v>1830.14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16533,8 +16519,8 @@
       <c r="I3" s="1">
         <v>1705.42</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16567,10 +16553,10 @@
       <c r="I4" s="1">
         <v>1633.02</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -16601,7 +16587,7 @@
       <c r="I5" s="1">
         <v>1611.72</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -16659,7 +16645,7 @@
       <c r="I7">
         <v>1547.34</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>259</v>
       </c>
     </row>
@@ -16689,8 +16675,8 @@
       <c r="I8">
         <v>1316.64</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="39" t="s">
         <v>259</v>
       </c>
     </row>
@@ -16720,13 +16706,13 @@
       <c r="I9">
         <v>1320.34</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -16734,7 +16720,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16745,7 +16731,7 @@
       <c r="B14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -16754,7 +16740,7 @@
       <c r="B15" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>261</v>
       </c>
     </row>
@@ -16765,7 +16751,7 @@
       <c r="B16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -16891,7 +16877,7 @@
       <c r="I2" s="1">
         <v>1636</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16924,8 +16910,8 @@
       <c r="I3" s="1">
         <v>1450</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16958,10 +16944,10 @@
       <c r="I4" s="1">
         <v>1333</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -16992,7 +16978,7 @@
       <c r="I5" s="1">
         <v>1558</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -17050,7 +17036,7 @@
       <c r="I7">
         <v>1141</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="38" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17080,8 +17066,8 @@
       <c r="I8">
         <v>1174</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17111,13 +17097,13 @@
       <c r="I9">
         <v>1344</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="38"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -17125,7 +17111,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -17136,7 +17122,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="M14" t="s">
         <v>11</v>
       </c>
@@ -17145,7 +17131,7 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17153,7 +17139,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -17273,7 +17259,7 @@
       <c r="I2" s="1">
         <v>1511</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17306,8 +17292,8 @@
       <c r="I3" s="1">
         <v>1402</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -17340,10 +17326,10 @@
       <c r="I4" s="1">
         <v>1297</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17374,7 +17360,7 @@
       <c r="I5" s="1">
         <v>1398</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -17432,7 +17418,7 @@
       <c r="I7">
         <v>1269</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -17462,8 +17448,8 @@
       <c r="I8">
         <v>1254</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17493,10 +17479,10 @@
       <c r="I9">
         <v>1351</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -17524,7 +17510,7 @@
       <c r="I10">
         <v>1294</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -17559,7 +17545,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17570,7 +17556,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="39"/>
       <c r="M14" t="s">
         <v>9</v>
       </c>
@@ -17588,7 +17574,7 @@
       <c r="F15" s="15">
         <v>120</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17603,7 +17589,7 @@
       <c r="F16" s="15">
         <v>60</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -17731,7 +17717,7 @@
       <c r="I2" s="1">
         <v>1844.5</v>
       </c>
-      <c r="K2" s="37" t="str">
+      <c r="K2" s="38" t="str">
         <f>C2</f>
         <v>#Hashtags</v>
       </c>
@@ -17765,8 +17751,8 @@
       <c r="I3" s="1">
         <v>2096.08</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -17799,11 +17785,11 @@
       <c r="I4" s="1">
         <v>1811.46</v>
       </c>
-      <c r="K4" s="38" t="str">
+      <c r="K4" s="39" t="str">
         <f>C5</f>
         <v>Bologna Ponies</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17834,7 +17820,7 @@
       <c r="I5" s="1">
         <v>2048.5</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -17892,7 +17878,7 @@
       <c r="I7">
         <v>1774.8</v>
       </c>
-      <c r="K7" s="38" t="str">
+      <c r="K7" s="39" t="str">
         <f>C3</f>
         <v>The Timmies</v>
       </c>
@@ -17923,8 +17909,8 @@
       <c r="I8">
         <v>1793.28</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
         <v>51</v>
       </c>
     </row>
@@ -17954,11 +17940,11 @@
       <c r="I9">
         <v>1922.56</v>
       </c>
-      <c r="K9" s="37" t="str">
+      <c r="K9" s="38" t="str">
         <f>C4</f>
         <v>The dago</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -17986,7 +17972,7 @@
       <c r="I10">
         <v>1882.62</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -18021,7 +18007,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18032,7 +18018,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="39"/>
       <c r="M14" t="s">
         <v>7</v>
       </c>
@@ -18050,7 +18036,7 @@
       <c r="F15" s="16">
         <v>120</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -18064,7 +18050,7 @@
       <c r="F16" s="16">
         <v>60</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18215,7 +18201,7 @@
       <c r="J3" s="1">
         <v>1596.84</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18251,7 +18237,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18286,7 +18272,7 @@
       <c r="J5" s="1">
         <v>1728.66</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -18323,8 +18309,8 @@
       <c r="J6" s="1">
         <v>1635.62</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18357,7 +18343,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -18390,7 +18376,7 @@
       <c r="J8" s="10">
         <v>1388.18</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="14"/>
@@ -18399,10 +18385,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -18436,7 +18422,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -18473,7 +18459,7 @@
       <c r="J11" s="1">
         <v>1673.14</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="14"/>
@@ -18510,8 +18496,8 @@
       <c r="J12" s="1">
         <v>1615.32</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="38"/>
+      <c r="P12" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -18544,7 +18530,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -18575,7 +18561,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18608,10 +18594,10 @@
       <c r="J15">
         <v>1368.88</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -18642,12 +18628,12 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="14"/>
@@ -18655,20 +18641,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="41" t="s">
+      <c r="L18" s="39"/>
+      <c r="N18" s="44" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -18682,10 +18668,10 @@
       <c r="F21" s="16">
         <v>120</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -18700,7 +18686,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -18714,7 +18700,7 @@
       <c r="F23" s="16">
         <v>20</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -18722,7 +18708,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -18736,7 +18722,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="38" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18744,13 +18730,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -18758,13 +18744,19 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -18775,12 +18767,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18886,7 +18872,7 @@
       <c r="J3" s="1">
         <v>1732.22</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>86</v>
       </c>
     </row>
@@ -18922,7 +18908,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18957,7 +18943,7 @@
       <c r="J5" s="1">
         <v>1533.2</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -18994,8 +18980,8 @@
       <c r="J6" s="1">
         <v>1643.26</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="40"/>
+      <c r="N6" s="44" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19028,7 +19014,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19061,7 +19047,7 @@
       <c r="J8" s="10">
         <v>1475.86</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>89</v>
       </c>
       <c r="P8" s="14"/>
@@ -19070,10 +19056,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -19107,7 +19093,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19144,7 +19130,7 @@
       <c r="J11" s="1">
         <v>1625.18</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="39" t="s">
         <v>89</v>
       </c>
       <c r="P11" s="14"/>
@@ -19181,8 +19167,8 @@
       <c r="J12" s="1">
         <v>1578.96</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="39"/>
+      <c r="P12" s="43" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19215,7 +19201,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19246,7 +19232,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19279,10 +19265,10 @@
       <c r="J15">
         <v>1504.64</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19313,12 +19299,12 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="14"/>
@@ -19326,20 +19312,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="41" t="s">
+      <c r="L18" s="39"/>
+      <c r="N18" s="44" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="43" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19353,10 +19339,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -19371,7 +19357,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -19385,7 +19371,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -19397,7 +19383,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -19412,7 +19398,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="39" t="s">
         <v>89</v>
       </c>
     </row>
@@ -19420,13 +19406,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -19434,18 +19420,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="37"/>
+      <c r="P29" s="38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -19457,6 +19438,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D32BD-FED8-4607-A692-C54939B1DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F652E3A2-3019-4B9A-8063-7AA110B07CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="17" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="277">
   <si>
     <t>Team</t>
   </si>
@@ -1175,22 +1175,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2343,7 +2343,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>1622.42</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2636,7 +2636,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2667,7 +2667,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2734,7 +2734,7 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -2748,14 +2748,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -2792,7 +2792,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2864,6 +2864,11 @@
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2875,11 +2880,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,7 +3021,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="42" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3169,7 +3169,7 @@
       <c r="L9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3314,7 +3314,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3345,7 +3345,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3412,7 +3412,7 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -3426,14 +3426,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -3470,7 +3470,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3554,6 +3554,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3565,11 +3570,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3711,7 +3711,7 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>1608.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3965,7 +3965,7 @@
         <v>1666.54</v>
       </c>
       <c r="L12" s="38"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4102,7 +4102,7 @@
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4123,12 +4123,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4160,7 +4160,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="42"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4244,6 +4244,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4255,11 +4260,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,7 +4401,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>1541.3</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4691,7 +4691,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4725,7 +4725,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       <c r="L15" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4792,7 +4792,7 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4813,12 +4813,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       <c r="L21" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4850,7 +4850,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4939,6 +4939,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4950,11 +4955,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5096,7 +5096,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="42" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="14"/>
@@ -5244,7 +5244,7 @@
       <c r="L9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5353,7 +5353,7 @@
         <v>1574.5</v>
       </c>
       <c r="L12" s="39"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="42" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5487,7 +5487,7 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -5508,12 +5508,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       <c r="L21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5545,7 +5545,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5613,7 +5613,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5642,6 +5642,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5653,11 +5658,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5814,7 +5814,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>1810.54</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="42" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,7 +6006,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6099,11 +6099,11 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="42" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6112,11 +6112,11 @@
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6159,7 +6159,7 @@
       <c r="K21" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6174,7 +6174,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6242,7 +6242,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="45"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6271,6 +6271,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6282,11 +6287,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6443,7 +6443,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
         <v>1688.86</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="42" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6635,7 +6635,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6728,11 +6728,11 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="42" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6741,11 +6741,11 @@
       <c r="K15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6759,14 +6759,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="39"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6871,7 +6871,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6903,6 +6903,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6914,11 +6919,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7075,7 +7075,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="14"/>
@@ -7238,7 +7238,7 @@
       <c r="K9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7330,7 +7330,7 @@
         <v>1435.98</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="42" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -7391,14 +7391,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7503,7 +7503,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7535,6 +7535,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7546,11 +7551,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7561,7 +7561,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M19"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7701,7 +7701,7 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7764,7 +7764,7 @@
         <v>1712.9</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
         <v>276</v>
       </c>
       <c r="O8" s="14"/>
@@ -7858,7 +7858,7 @@
       <c r="K9" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7924,6 +7924,9 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
@@ -7950,9 +7953,14 @@
         <v>1418.44</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="O12" s="44"/>
+      <c r="O12" s="42" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -7978,22 +7986,24 @@
       <c r="I13">
         <v>1315.52</v>
       </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="44"/>
+      <c r="O14" s="48" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -8007,19 +8017,19 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8036,7 +8046,7 @@
       <c r="K21" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8051,7 +8061,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8110,14 +8120,16 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38"/>
+      <c r="O26" s="38" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="45"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8127,7 +8139,9 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="38"/>
+      <c r="O28" s="38" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -8144,6 +8158,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8155,11 +8174,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8816,11 +8830,11 @@
       </c>
       <c r="AP4" s="32">
         <f>_xlfn.XLOOKUP($A4,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AQ4" s="4">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AR4">
         <f t="shared" si="1"/>
@@ -10192,11 +10206,11 @@
       </c>
       <c r="AP12" s="32">
         <f>_xlfn.XLOOKUP($A12,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ12" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <f t="shared" si="1"/>
@@ -18237,7 +18251,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18310,7 +18324,7 @@
         <v>1635.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18343,7 +18357,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -18422,7 +18436,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -18530,7 +18544,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -18561,7 +18575,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18597,7 +18611,7 @@
       <c r="L15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -18628,7 +18642,7 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -18642,14 +18656,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -18686,7 +18700,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -18730,7 +18744,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -18751,12 +18765,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -18767,6 +18775,12 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18908,7 +18922,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18981,7 +18995,7 @@
         <v>1643.26</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19014,7 +19028,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19093,7 +19107,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19201,7 +19215,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19232,7 +19246,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19268,7 +19282,7 @@
       <c r="L15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19299,7 +19313,7 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -19313,14 +19327,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -19357,7 +19371,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -19406,7 +19420,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="42"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -19427,6 +19441,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -19438,11 +19457,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F652E3A2-3019-4B9A-8063-7AA110B07CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B8299-1570-4514-B1C2-DDC1ACA39844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="17" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="18" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="16" r:id="rId1"/>
@@ -1175,22 +1175,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2343,7 +2343,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>1622.42</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2636,7 +2636,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2667,7 +2667,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="44" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2734,7 +2734,7 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -2748,14 +2748,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="44" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -2792,7 +2792,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2864,11 +2864,6 @@
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2880,6 +2875,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,7 +3021,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="44" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3169,7 +3169,7 @@
       <c r="L9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="44"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3314,7 +3314,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3345,7 +3345,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3412,7 +3412,7 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -3426,14 +3426,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="44" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -3470,7 +3470,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3554,11 +3554,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3570,6 +3565,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3711,7 +3711,7 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>1608.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3965,7 +3965,7 @@
         <v>1666.54</v>
       </c>
       <c r="L12" s="38"/>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4102,7 +4102,7 @@
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4123,12 +4123,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4160,7 +4160,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4244,11 +4244,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4260,6 +4255,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,7 +4401,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>1541.3</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4691,7 +4691,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4725,7 +4725,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       <c r="L15" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4792,7 +4792,7 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4813,12 +4813,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="44" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       <c r="L21" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4850,7 +4850,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4939,11 +4939,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4955,6 +4950,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5096,7 +5096,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="44" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="14"/>
@@ -5244,7 +5244,7 @@
       <c r="L9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="44"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5353,7 +5353,7 @@
         <v>1574.5</v>
       </c>
       <c r="L12" s="39"/>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="44" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5487,7 +5487,7 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -5508,12 +5508,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       <c r="L21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5545,7 +5545,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5613,7 +5613,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5642,11 +5642,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5658,6 +5653,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5814,7 +5814,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>1810.54</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,7 +6006,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6099,11 +6099,11 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="44" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6112,11 +6112,11 @@
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6159,7 +6159,7 @@
       <c r="K21" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6174,7 +6174,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6242,7 +6242,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6271,11 +6271,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6287,6 +6282,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6443,7 +6443,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
         <v>1688.86</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6635,7 +6635,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6728,11 +6728,11 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6741,11 +6741,11 @@
       <c r="K15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6759,14 +6759,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="39"/>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="44" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6871,7 +6871,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6903,11 +6903,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6919,6 +6914,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7075,7 +7075,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="44" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="14"/>
@@ -7238,7 +7238,7 @@
       <c r="K9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="44"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7330,7 +7330,7 @@
         <v>1435.98</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="44" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -7391,14 +7391,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="44" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7503,7 +7503,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7535,11 +7535,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7551,6 +7546,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7560,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC38AAB-96CB-42DE-9F89-BEE07C09AAC6}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7607,7 +7607,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -7644,7 +7646,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -7675,7 +7679,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -7701,11 +7707,13 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -7737,7 +7745,9 @@
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -7769,7 +7779,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -7795,10 +7807,13 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
@@ -7824,12 +7839,15 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="44" t="s">
         <v>276</v>
       </c>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -7858,10 +7876,13 @@
       <c r="K9" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="44"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -7887,12 +7908,15 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -7953,7 +7977,7 @@
         <v>1418.44</v>
       </c>
       <c r="K12" s="38"/>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7999,11 +8023,11 @@
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -8017,14 +8041,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="44" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -8061,7 +8085,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8120,7 +8144,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="39" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8129,7 +8153,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8158,11 +8182,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8174,6 +8193,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8184,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
   <dimension ref="A1:AU81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8486,11 +8510,11 @@
       </c>
       <c r="AP2" s="32">
         <f>_xlfn.XLOOKUP($A2,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="4">
         <f>COUNTIF(AC2:AP2,"&gt;0")/COUNTIF(AC2:AO2,"&lt;&gt;x")</f>
-        <v>0.46153846153846156</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AR2">
         <f>COUNTIF($AC2:$AP2,AR$1)</f>
@@ -8502,11 +8526,11 @@
       </c>
       <c r="AT2">
         <f>COUNTIF($AC2:$AP2,AT$1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="4">
         <f>(AT2+(AS2*2)+(AR2*3))/COUNTIF(AC2:AP2,"&lt;&gt;x")</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -9174,11 +9198,11 @@
       </c>
       <c r="AP6" s="32">
         <f>_xlfn.XLOOKUP($A6,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ6" s="4">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AR6">
         <f t="shared" si="1"/>
@@ -9690,15 +9714,15 @@
       </c>
       <c r="AP9" s="32">
         <f>_xlfn.XLOOKUP($A9,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="4">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AR9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <f t="shared" si="1"/>
@@ -9710,7 +9734,7 @@
       </c>
       <c r="AU9" s="4">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -10034,11 +10058,11 @@
       </c>
       <c r="AP11" s="32">
         <f>_xlfn.XLOOKUP($A11,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ11" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <f t="shared" si="1"/>
@@ -10046,7 +10070,7 @@
       </c>
       <c r="AS11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11">
         <f t="shared" si="1"/>
@@ -10054,7 +10078,7 @@
       </c>
       <c r="AU11" s="4">
         <f t="shared" si="2"/>
-        <v>1.0769230769230769</v>
+        <v>1.2307692307692308</v>
       </c>
     </row>
     <row r="12" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -10378,11 +10402,11 @@
       </c>
       <c r="AP13" s="32">
         <f>_xlfn.XLOOKUP($A13,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ13" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AR13">
         <f t="shared" si="1"/>
@@ -10550,11 +10574,11 @@
       </c>
       <c r="AP14" s="32">
         <f>_xlfn.XLOOKUP($A14,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ14" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AR14">
         <f t="shared" si="1"/>
@@ -11238,11 +11262,11 @@
       </c>
       <c r="AP18" s="32">
         <f>_xlfn.XLOOKUP($A18,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ18" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <f t="shared" si="1"/>
@@ -11410,11 +11434,11 @@
       </c>
       <c r="AP19" s="32">
         <f>_xlfn.XLOOKUP($A19,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ19" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <f t="shared" si="1"/>
@@ -12098,11 +12122,11 @@
       </c>
       <c r="AP23" s="32">
         <f>_xlfn.XLOOKUP($A23,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ23" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
@@ -12442,11 +12466,11 @@
       </c>
       <c r="AP25" s="32">
         <f>_xlfn.XLOOKUP($A25,'2024'!$D$2:$D$13,'2024'!$A$2:$A$13,"x")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <f t="shared" si="1"/>
@@ -18251,7 +18275,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18324,7 +18348,7 @@
         <v>1635.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18357,7 +18381,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -18436,7 +18460,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -18544,7 +18568,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -18575,7 +18599,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18611,7 +18635,7 @@
       <c r="L15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -18642,7 +18666,7 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -18656,14 +18680,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="44" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -18700,7 +18724,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -18744,7 +18768,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -18765,6 +18789,12 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -18775,12 +18805,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18922,7 +18946,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18995,7 +19019,7 @@
         <v>1643.26</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19028,7 +19052,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19107,7 +19131,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19215,7 +19239,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19246,7 +19270,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19282,7 +19306,7 @@
       <c r="L15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19313,7 +19337,7 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -19327,14 +19351,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="44" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -19371,7 +19395,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -19420,7 +19444,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -19441,11 +19465,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -19457,6 +19476,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B8299-1570-4514-B1C2-DDC1ACA39844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD3007-4075-47B0-8BD0-1CB450D577A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" activeTab="18" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="278">
   <si>
     <t>Team</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>Antics</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +988,20 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1124,7 +1141,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,22 +1192,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,6 +1216,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2343,7 +2365,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2438,7 @@
         <v>1622.42</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2449,7 +2471,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2528,7 +2550,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2636,7 +2658,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2667,7 +2689,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2703,7 +2725,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2734,7 +2756,7 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -2748,14 +2770,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -2792,7 +2814,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2843,7 +2865,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2864,6 +2886,11 @@
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2875,11 +2902,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,7 +3043,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3146,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3157,7 +3179,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="42" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3169,7 +3191,7 @@
       <c r="L9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3203,7 +3225,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3314,7 +3336,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3345,7 +3367,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3381,7 +3403,7 @@
       <c r="L15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3412,7 +3434,7 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -3426,14 +3448,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="38"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -3470,7 +3492,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3533,7 +3555,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3554,6 +3576,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3565,11 +3592,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3711,7 +3733,7 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3800,7 @@
         <v>1608.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3811,7 +3833,7 @@
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3890,7 +3912,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3965,7 +3987,7 @@
         <v>1666.54</v>
       </c>
       <c r="L12" s="38"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4001,7 +4023,7 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4102,7 +4124,7 @@
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4123,12 +4145,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4145,7 +4167,7 @@
       <c r="L21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4160,7 +4182,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4223,7 +4245,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="42"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4244,6 +4266,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4255,11 +4282,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,7 +4423,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,7 +4490,7 @@
         <v>1541.3</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4501,7 +4523,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4580,7 +4602,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4691,7 +4713,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4725,7 +4747,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4761,7 +4783,7 @@
       <c r="L15" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4792,7 +4814,7 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -4813,12 +4835,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4835,7 +4857,7 @@
       <c r="L21" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4850,7 +4872,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4913,7 +4935,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4939,6 +4961,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4950,11 +4977,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5096,7 +5118,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,7 +5221,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5232,7 +5254,7 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="42" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="14"/>
@@ -5244,7 +5266,7 @@
       <c r="L9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5278,7 +5300,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5353,7 +5375,7 @@
         <v>1574.5</v>
       </c>
       <c r="L12" s="39"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="42" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5389,7 +5411,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5487,7 +5509,7 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -5508,12 +5530,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5530,7 +5552,7 @@
       <c r="L21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5545,7 +5567,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5613,7 +5635,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5642,6 +5664,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5653,11 +5680,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5814,7 +5836,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5903,7 @@
         <v>1810.54</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="42" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5914,7 +5936,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,7 +6028,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6099,11 +6121,11 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="42" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6112,11 +6134,11 @@
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6137,7 +6159,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6159,7 +6181,7 @@
       <c r="K21" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6174,7 +6196,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6242,7 +6264,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="45"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6271,6 +6293,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6282,11 +6309,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6443,7 +6465,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,7 +6532,7 @@
         <v>1688.86</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="42" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6543,7 +6565,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6635,7 +6657,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6728,11 +6750,11 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="42" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6741,11 +6763,11 @@
       <c r="K15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -6759,14 +6781,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="39"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -6803,7 +6825,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6871,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6903,6 +6925,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6914,11 +6941,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7075,7 +7097,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,7 +7197,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7204,7 +7226,7 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="14"/>
@@ -7238,7 +7260,7 @@
       <c r="K9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7267,7 +7289,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7330,7 +7352,7 @@
         <v>1435.98</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="42" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7360,7 +7382,7 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
@@ -7377,7 +7399,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -7391,14 +7413,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -7435,7 +7457,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7503,7 +7525,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7535,6 +7557,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7546,11 +7573,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7707,7 +7729,7 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7807,7 +7829,7 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7839,7 +7861,7 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
         <v>276</v>
       </c>
       <c r="O8" s="14"/>
@@ -7876,7 +7898,7 @@
       <c r="K9" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="42"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7908,7 +7930,7 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -8010,7 +8032,7 @@
       <c r="I13">
         <v>1315.52</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
@@ -8023,11 +8045,11 @@
       <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="44"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
@@ -8041,14 +8063,14 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="K18" s="38"/>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="42" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
@@ -8085,7 +8107,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8153,7 +8175,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8182,6 +8204,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8193,11 +8220,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8209,7 +8231,7 @@
   <dimension ref="A1:AU81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8219,7 +8241,7 @@
     <col min="6" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="5" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -10157,7 +10179,7 @@
         <f>_xlfn.XLOOKUP($A12,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v>12</v>
       </c>
-      <c r="X12" s="21" t="s">
+      <c r="X12" s="54" t="s">
         <v>43</v>
       </c>
       <c r="Y12" t="str">
@@ -12487,6 +12509,90 @@
       <c r="AU25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
+        <v/>
+      </c>
+      <c r="X26" s="53" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
@@ -13933,89 +14039,91 @@
       </c>
     </row>
     <row r="54" spans="1:23" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="50" t="str">
         <f>_xlfn.XLOOKUP($A54,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
         <v/>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="50" t="str">
         <f>_xlfn.XLOOKUP($A54,'2006'!$D$2:$D$9,'2006'!$E$2:$E$9,"")</f>
         <v/>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="50" t="str">
         <f>_xlfn.XLOOKUP($A54,'2008'!$D$2:$D$11,'2008'!$E$2:$E$11,"")</f>
         <v/>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="50" t="str">
         <f>_xlfn.XLOOKUP($A54,'2009'!$D$2:$D$9,'2009'!$E$2:$E$9,"")</f>
         <v/>
       </c>
-      <c r="G54" s="29">
+      <c r="F54" s="50"/>
+      <c r="G54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2012'!$D$2:$D$11,'2012'!$E$2:$E$11,"")</f>
         <v>6</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2013'!$D$2:$D$11,'2013'!$E$2:$E$11,"")</f>
         <v>8</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2014'!$D$3:$D$16,'2014'!$E$3:$E$16,"")</f>
         <v>5</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2015'!$D$3:$D$16,'2015'!$E$3:$E$16,"")</f>
         <v>9</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2016'!$D$3:$D$16,'2016'!$E$3:$E$16,"")</f>
         <v>12</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2017'!$D$3:$D$16,'2017'!$E$3:$E$16,"")</f>
         <v>3</v>
       </c>
-      <c r="M54" s="29">
+      <c r="M54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2018'!$D$3:$D$16,'2018'!$E$3:$E$16,"")</f>
         <v>3</v>
       </c>
-      <c r="N54" s="29">
+      <c r="N54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2019'!$D$3:$D$16,'2019'!$E$3:$E$16,"")</f>
         <v>4</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2020'!$D$3:$D$16,'2020'!$E$3:$E$16,"")</f>
         <v>9</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2021'!$D$2:$D$13,'2021'!$E$2:$E$13,"")</f>
         <v>3</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2022'!$D$2:$D$13,'2022'!$E$2:$E$13,"")</f>
         <v>7</v>
       </c>
-      <c r="R54" s="29">
+      <c r="R54" s="50">
         <f>_xlfn.XLOOKUP($A54,'2023'!$D$2:$D$13,'2023'!$E$2:$E$13,"")</f>
         <v>3</v>
       </c>
-      <c r="S54" s="31">
+      <c r="S54" s="51">
         <f>_xlfn.XLOOKUP($A54,'2024'!$D$2:$D$13,'2024'!$E$2:$E$13,"")</f>
         <v>2</v>
       </c>
-      <c r="T54" s="29">
+      <c r="T54" s="50">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="U54" s="29">
+      <c r="U54" s="50">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="V54" s="30">
+      <c r="V54" s="52">
         <f t="shared" si="6"/>
         <v>0.42285714285714288</v>
       </c>
+      <c r="W54" s="50"/>
     </row>
     <row r="55" spans="1:23" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
@@ -15134,6 +15242,11 @@
       <c r="V67" s="30">
         <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.25">
@@ -18275,7 +18388,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18348,7 +18461,7 @@
         <v>1635.62</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>79</v>
       </c>
     </row>
@@ -18381,7 +18494,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -18460,7 +18573,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -18568,7 +18681,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -18599,7 +18712,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18635,7 +18748,7 @@
       <c r="L15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -18666,7 +18779,7 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -18680,14 +18793,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -18724,7 +18837,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -18768,7 +18881,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -18789,12 +18902,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -18805,6 +18912,12 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18946,7 +19059,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19019,7 +19132,7 @@
         <v>1643.26</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="42" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19052,7 +19165,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19131,7 +19244,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19239,7 +19352,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19270,7 +19383,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19306,7 +19419,7 @@
       <c r="L15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19337,7 +19450,7 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
@@ -19351,14 +19464,14 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="42" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="45"/>
+      <c r="N19" s="47"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
@@ -19395,7 +19508,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -19444,7 +19557,7 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="42"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -19465,6 +19578,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -19476,11 +19594,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC756D4-49BD-4B75-A5DB-71871092D6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B6696C-6ABC-4C76-B4D8-FCC0B9B03E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" firstSheet="1" activeTab="19" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
@@ -1146,15 +1146,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1193,6 +1194,18 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,22 +1218,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1229,27 +1242,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1618,7 +1627,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1697,7 @@
       <c r="I2" s="1">
         <v>2368.5</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="52" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1721,8 +1730,8 @@
       <c r="I3" s="1">
         <v>2248.5</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="51" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1755,10 +1764,10 @@
       <c r="I4" s="1">
         <v>2325.5</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1789,7 +1798,7 @@
       <c r="I5" s="1">
         <v>2430.5</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1847,24 +1856,24 @@
       <c r="I7">
         <v>1856</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="50" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="39"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -1872,7 +1881,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="50" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1889,7 +1898,7 @@
       <c r="D14" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1904,7 +1913,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1915,7 +1924,7 @@
       <c r="B16" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2350,7 +2359,7 @@
       <c r="J3" s="1">
         <v>1670.76</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2386,7 +2395,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2430,7 @@
       <c r="J5" s="1">
         <v>1645.12</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -2458,8 +2467,8 @@
       <c r="J6" s="1">
         <v>1622.42</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2492,7 +2501,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2525,7 +2534,7 @@
       <c r="J8" s="10">
         <v>1426.34</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="55" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="14"/>
@@ -2534,10 +2543,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2571,7 +2580,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2608,7 +2617,7 @@
       <c r="J11" s="1">
         <v>1668.7</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="50" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="14"/>
@@ -2645,8 +2654,8 @@
       <c r="J12" s="1">
         <v>1621.08</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="43" t="s">
+      <c r="L12" s="50"/>
+      <c r="P12" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2679,7 +2688,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2710,7 +2719,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="56" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2743,10 +2752,10 @@
       <c r="J15">
         <v>1437.26</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2777,12 +2786,12 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="50" t="s">
         <v>60</v>
       </c>
       <c r="N17" s="14"/>
@@ -2790,20 +2799,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="50"/>
+      <c r="N18" s="56" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="55" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2817,10 +2826,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2835,7 +2844,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2849,7 +2858,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2863,7 +2872,7 @@
       <c r="F24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2878,7 +2887,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="50" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2886,13 +2895,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="51" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2900,18 +2909,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="39"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J8">
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2923,6 +2927,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3028,7 +3037,7 @@
       <c r="J3" s="1">
         <v>1593.46</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3064,7 +3073,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3108,7 @@
       <c r="J5" s="1">
         <v>1469.7</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3133,8 +3142,8 @@
       <c r="J6">
         <v>1471.44</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="43" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3167,7 +3176,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3200,7 +3209,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="56" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3209,10 +3218,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="56"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3246,7 +3255,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3283,7 +3292,7 @@
       <c r="J11" s="1">
         <v>1662.04</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="51" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -3320,8 +3329,8 @@
       <c r="J12" s="1">
         <v>1508.68</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="P12" s="43" t="s">
+      <c r="L12" s="51"/>
+      <c r="P12" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3357,7 +3366,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3388,7 +3397,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="56" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3421,10 +3430,10 @@
       <c r="J15">
         <v>1411.74</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3455,12 +3464,12 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="50" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="14"/>
@@ -3468,20 +3477,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="50"/>
+      <c r="N18" s="56" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="55" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3495,10 +3504,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3513,7 +3522,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3527,7 +3536,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3541,7 +3550,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3568,7 +3577,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3576,13 +3585,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="51" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3590,18 +3599,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="39"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3613,6 +3617,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3718,7 +3727,7 @@
       <c r="J3" s="1">
         <v>1792.26</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3754,7 +3763,7 @@
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,7 +3795,7 @@
       <c r="J5">
         <v>1623.88</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3820,8 +3829,8 @@
       <c r="J6">
         <v>1608.62</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3854,7 +3863,7 @@
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3887,7 +3896,7 @@
       <c r="J8" s="10">
         <v>1419.32</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="55" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="14"/>
@@ -3896,10 +3905,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3933,7 +3942,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3970,7 +3979,7 @@
       <c r="J11" s="1">
         <v>1895.72</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="50" t="s">
         <v>124</v>
       </c>
       <c r="P11" s="14"/>
@@ -4007,8 +4016,8 @@
       <c r="J12" s="1">
         <v>1666.54</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="50"/>
+      <c r="P12" s="56" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4044,7 +4053,7 @@
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4078,7 +4087,7 @@
       <c r="J14" s="1">
         <v>1642.38</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="55" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4111,10 +4120,10 @@
       <c r="J15">
         <v>1496.7</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="43"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4145,12 +4154,12 @@
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="51" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="14"/>
@@ -4158,20 +4167,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="39"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="51"/>
+      <c r="N18" s="55" t="s">
         <v>122</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="56" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4185,10 +4194,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4203,7 +4212,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4217,7 +4226,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4231,7 +4240,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4258,7 +4267,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="51" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4266,13 +4275,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4280,18 +4289,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4303,6 +4307,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4408,7 +4417,7 @@
       <c r="J3" s="1">
         <v>1530.24</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4444,7 +4453,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,7 +4485,7 @@
       <c r="J5">
         <v>1523.86</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -4510,8 +4519,8 @@
       <c r="J6">
         <v>1541.3</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4544,7 +4553,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4577,7 +4586,7 @@
       <c r="J8" s="10">
         <v>1453.8</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="55" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -4586,10 +4595,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4623,7 +4632,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4660,7 +4669,7 @@
       <c r="J11" s="1">
         <v>1851.34</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="51" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -4697,8 +4706,8 @@
       <c r="J12" s="1">
         <v>1742.32</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="P12" s="43" t="s">
+      <c r="L12" s="51"/>
+      <c r="P12" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4734,7 +4743,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4768,7 +4777,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="56" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4801,10 +4810,10 @@
       <c r="J15">
         <v>1573</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4835,12 +4844,12 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="50" t="s">
         <v>136</v>
       </c>
       <c r="N17" s="14"/>
@@ -4848,20 +4857,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="50"/>
+      <c r="N18" s="55" t="s">
         <v>135</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="56" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4875,10 +4884,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4893,7 +4902,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4907,7 +4916,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4921,7 +4930,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4948,7 +4957,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4956,13 +4965,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="51" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4970,7 +4979,7 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="39"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -4982,11 +4991,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4998,6 +5002,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5103,7 +5112,7 @@
       <c r="J3" s="1">
         <v>1744.88</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5139,7 +5148,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,7 +5183,7 @@
       <c r="J5" s="1">
         <v>1613.18</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -5208,8 +5217,8 @@
       <c r="J6">
         <v>1612.58</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="43" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="55" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5242,7 +5251,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5275,7 +5284,7 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="56" t="s">
         <v>142</v>
       </c>
       <c r="P8" s="14"/>
@@ -5284,10 +5293,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="56"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5321,7 +5330,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5358,7 +5367,7 @@
       <c r="J11" s="1">
         <v>1764.64</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="51" t="s">
         <v>142</v>
       </c>
       <c r="P11" s="14"/>
@@ -5395,8 +5404,8 @@
       <c r="J12" s="1">
         <v>1574.5</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="51"/>
+      <c r="P12" s="56" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5432,7 +5441,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="47"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5463,7 +5472,7 @@
       <c r="J14">
         <v>1397.72</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="55" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5496,10 +5505,10 @@
       <c r="J15">
         <v>1368.44</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="43"/>
+      <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -5530,12 +5539,12 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="50" t="s">
         <v>96</v>
       </c>
       <c r="N17" s="14"/>
@@ -5543,20 +5552,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="38"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="50"/>
+      <c r="N18" s="55" t="s">
         <v>118</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="56" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5570,10 +5579,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5588,7 +5597,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5603,7 +5612,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5618,7 +5627,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -5647,7 +5656,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="50" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5656,14 +5665,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="45"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="51" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5672,7 +5681,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="P29" s="39"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -5685,11 +5694,6 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5701,6 +5705,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5824,7 +5833,7 @@
       <c r="I3" s="1">
         <v>1830.48</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5857,7 +5866,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,7 +5898,7 @@
       <c r="I5" s="1">
         <v>2011.64</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -5923,8 +5932,8 @@
       <c r="I6" s="1">
         <v>1810.54</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="52"/>
+      <c r="M6" s="56" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5957,7 +5966,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5986,7 +5995,7 @@
       <c r="I8">
         <v>1557.34</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="55" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="14"/>
@@ -6017,10 +6026,10 @@
       <c r="I9">
         <v>1632.8</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="55"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6049,7 +6058,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6080,7 +6089,7 @@
       <c r="I11">
         <v>1326.38</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="50" t="s">
         <v>136</v>
       </c>
       <c r="O11" s="14"/>
@@ -6111,8 +6120,8 @@
       <c r="I12">
         <v>1491.86</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="O12" s="43" t="s">
+      <c r="K12" s="50"/>
+      <c r="O12" s="55" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6142,29 +6151,29 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="56" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="50" t="s">
         <v>99</v>
       </c>
       <c r="M17" s="14"/>
@@ -6172,20 +6181,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="43" t="s">
+      <c r="K18" s="50"/>
+      <c r="M18" s="55" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="60" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6199,10 +6208,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6217,7 +6226,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6232,7 +6241,7 @@
       <c r="F23" s="17">
         <v>30</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6247,7 +6256,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6276,7 +6285,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="50" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6285,14 +6294,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="51" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6301,7 +6310,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="39"/>
+      <c r="O29" s="51"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -6314,11 +6323,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6330,6 +6334,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6453,7 +6462,7 @@
       <c r="I3" s="1">
         <v>1668.12</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6486,7 +6495,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6518,7 +6527,7 @@
       <c r="I5" s="1">
         <v>1912.76</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -6552,8 +6561,8 @@
       <c r="I6" s="1">
         <v>1688.86</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="52"/>
+      <c r="M6" s="56" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6586,7 +6595,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6615,7 +6624,7 @@
       <c r="I8">
         <v>1557.08</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="55" t="s">
         <v>146</v>
       </c>
       <c r="O8" s="14"/>
@@ -6646,10 +6655,10 @@
       <c r="I9">
         <v>1554.84</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="55"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6678,7 +6687,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6709,7 +6718,7 @@
       <c r="I11">
         <v>1798.06</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="50" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="14"/>
@@ -6740,8 +6749,8 @@
       <c r="I12">
         <v>1635.74</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="O12" s="43" t="s">
+      <c r="K12" s="50"/>
+      <c r="O12" s="55" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6771,29 +6780,29 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="56" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="51" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="14"/>
@@ -6801,20 +6810,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="39"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="51"/>
+      <c r="M18" s="56" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="61" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6828,10 +6837,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6846,7 +6855,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6861,7 +6870,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6876,7 +6885,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6905,7 +6914,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="51" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6914,7 +6923,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6924,7 +6933,7 @@
       <c r="C28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6933,7 +6942,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="38"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -6946,11 +6955,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6962,6 +6966,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7085,7 +7094,7 @@
       <c r="I3" s="1">
         <v>1879.82</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7118,7 +7127,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7150,7 +7159,7 @@
       <c r="I5" s="1">
         <v>1702.92</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7184,8 +7193,8 @@
       <c r="I6" s="1">
         <v>1695.94</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="43" t="s">
+      <c r="K6" s="52"/>
+      <c r="M6" s="55" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7218,7 +7227,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7247,7 +7256,7 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="56" t="s">
         <v>147</v>
       </c>
       <c r="O8" s="14"/>
@@ -7278,10 +7287,10 @@
       <c r="I9">
         <v>1566.6</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="56"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7310,7 +7319,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7341,7 +7350,7 @@
       <c r="I11">
         <v>1740</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="51" t="s">
         <v>147</v>
       </c>
       <c r="O11" s="14"/>
@@ -7372,8 +7381,8 @@
       <c r="I12">
         <v>1435.98</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="O12" s="42" t="s">
+      <c r="K12" s="51"/>
+      <c r="O12" s="56" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7403,29 +7412,29 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="43" t="s">
+      <c r="O14" s="55" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="43"/>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="50" t="s">
         <v>148</v>
       </c>
       <c r="M17" s="14"/>
@@ -7433,20 +7442,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="50"/>
+      <c r="M18" s="56" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7460,10 +7469,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -7478,7 +7487,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7493,7 +7502,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7508,7 +7517,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -7537,7 +7546,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7546,7 +7555,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7556,7 +7565,7 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="50" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7565,7 +7574,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="38"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -7578,11 +7587,6 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7594,6 +7598,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7717,7 +7726,7 @@
       <c r="I3" s="1">
         <v>1810.84</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7750,7 +7759,7 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7782,7 +7791,7 @@
       <c r="I5" s="1">
         <v>1758.24</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7816,8 +7825,8 @@
       <c r="I6" s="1">
         <v>1712.9</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="43" t="s">
+      <c r="K6" s="52"/>
+      <c r="M6" s="55" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7850,7 +7859,7 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7879,7 +7888,7 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="56" t="s">
         <v>276</v>
       </c>
       <c r="O8" s="14"/>
@@ -7910,10 +7919,10 @@
       <c r="I9">
         <v>1582.7</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="56"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7942,7 +7951,7 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7973,7 +7982,7 @@
       <c r="I11">
         <v>1628.92</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="50" t="s">
         <v>60</v>
       </c>
       <c r="O11" s="14"/>
@@ -8004,8 +8013,8 @@
       <c r="I12">
         <v>1418.44</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="O12" s="43" t="s">
+      <c r="K12" s="50"/>
+      <c r="O12" s="55" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8035,29 +8044,29 @@
       <c r="I13">
         <v>1315.52</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="60" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="50" t="s">
         <v>155</v>
       </c>
       <c r="M17" s="14"/>
@@ -8065,20 +8074,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="50"/>
+      <c r="M18" s="56" t="s">
         <v>145</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="61" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8092,10 +8101,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8110,7 +8119,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8125,7 +8134,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8140,7 +8149,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -8169,7 +8178,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="51" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8178,7 +8187,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="46"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8188,7 +8197,7 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="50" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8197,7 +8206,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="38"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -8207,11 +8216,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8223,6 +8227,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8347,7 +8356,7 @@
       <c r="I3" s="1">
         <v>1852.66</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8380,7 +8389,7 @@
       <c r="I4" s="1">
         <v>1802.18</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8412,7 +8421,7 @@
       <c r="I5" s="1">
         <v>1712.8</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -8446,8 +8455,8 @@
       <c r="I6" s="1">
         <v>1666.64</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="43" t="s">
+      <c r="K6" s="52"/>
+      <c r="M6" s="55" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8480,7 +8489,7 @@
       <c r="I7" s="1">
         <v>1628.1</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -8509,7 +8518,7 @@
       <c r="I8">
         <v>1590.92</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="56" t="s">
         <v>278</v>
       </c>
       <c r="O8" s="14"/>
@@ -8540,10 +8549,10 @@
       <c r="I9">
         <v>1544.14</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="56"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8572,7 +8581,7 @@
       <c r="I10">
         <v>1697.52</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -8603,7 +8612,7 @@
       <c r="I11">
         <v>1643.86</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="50" t="s">
         <v>276</v>
       </c>
       <c r="O11" s="14"/>
@@ -8634,8 +8643,8 @@
       <c r="I12">
         <v>1604.52</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="O12" s="42" t="s">
+      <c r="K12" s="50"/>
+      <c r="O12" s="56" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8665,29 +8674,29 @@
       <c r="I13">
         <v>1465.8</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="O15" s="43"/>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="51" t="s">
         <v>147</v>
       </c>
       <c r="M17" s="14"/>
@@ -8695,20 +8704,20 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="39"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="51"/>
+      <c r="M18" s="56" t="s">
         <v>147</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8722,10 +8731,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8740,7 +8749,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8755,7 +8764,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8770,7 +8779,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="38"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -8799,7 +8808,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="50" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8808,7 +8817,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8818,7 +8827,7 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8827,7 +8836,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="39"/>
+      <c r="O29" s="51"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -8837,11 +8846,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8853,6 +8857,11 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8864,7 +8873,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8934,7 +8943,7 @@
       <c r="I2" s="1">
         <v>1401</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="53" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8967,8 +8976,8 @@
       <c r="I3" s="1">
         <v>1597</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="51" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9001,10 +9010,10 @@
       <c r="I4" s="1">
         <v>1324</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -9035,7 +9044,7 @@
       <c r="I5" s="1">
         <v>1364</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -9093,7 +9102,7 @@
       <c r="I7">
         <v>1311</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="50" t="s">
         <v>218</v>
       </c>
     </row>
@@ -9123,8 +9132,8 @@
       <c r="I8">
         <v>1200</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>218</v>
       </c>
     </row>
@@ -9154,13 +9163,13 @@
       <c r="I9">
         <v>985</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="39"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -9168,7 +9177,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="50" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9176,7 +9185,7 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -9191,7 +9200,7 @@
       <c r="D15" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="51" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9208,7 +9217,7 @@
       <c r="D16" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -9584,10 +9593,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
-  <dimension ref="A1:AV81"/>
+  <dimension ref="A1:AW81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="AW25" sqref="AW25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9609,7 +9618,7 @@
     <col min="48" max="48" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -9746,7 +9755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -9925,8 +9934,12 @@
         <f>(AU2+(AT2*2)+(AS2*3))/COUNTIF(AC2:AQ2,"&lt;&gt;x")</f>
         <v>0.46666666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW2" s="62">
+        <f>COUNTIF(AC2:AQ2, "&gt;0")/COUNTIF(AC2:AQ2,"&lt;&gt;x")</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -10105,8 +10118,12 @@
         <f t="shared" ref="AV3:AV26" si="2">(AU3+(AT3*2)+(AS3*3))/COUNTIF(AC3:AQ3,"&lt;&gt;x")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW3" s="63">
+        <f t="shared" ref="AW3:AW26" si="3">COUNTIF(AC3:AQ3, "&gt;0")/COUNTIF(AC3:AQ3,"&lt;&gt;x")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -10285,8 +10302,12 @@
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW4" s="62">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -10465,8 +10486,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW5" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
@@ -10645,8 +10670,12 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW6" s="62">
+        <f t="shared" si="3"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10825,8 +10854,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW7" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -11005,8 +11038,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW8" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
@@ -11185,8 +11222,12 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW9" s="62">
+        <f t="shared" si="3"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -11365,8 +11406,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW10" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>46</v>
       </c>
@@ -11545,90 +11590,94 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="AW11" s="64">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="51" t="str">
+      <c r="B12" t="str">
         <f>_xlfn.XLOOKUP($A12,'2005'!$D$2:$D$9,'2005'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="C12" s="51" t="str">
+      <c r="C12" t="str">
         <f>_xlfn.XLOOKUP($A12,'2006'!$D$2:$D$9,'2006'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="D12" s="51" t="str">
+      <c r="D12" t="str">
         <f>_xlfn.XLOOKUP($A12,'2008'!$D$2:$D$9,'2008'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="E12" s="51" t="str">
+      <c r="E12" t="str">
         <f>_xlfn.XLOOKUP($A12,'2009'!$D$2:$D$9,'2009'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="F12" s="52" t="str">
+      <c r="F12" s="39" t="str">
         <f>_xlfn.XLOOKUP($A12,'2011'!$D12:$D19,'2011'!$B12:$B19,"")</f>
         <v/>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2012'!$D$2:$D$11,'2012'!$B$2:$B$11,"")</f>
         <v>7</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2013'!$D$2:$D$11,'2013'!$B$2:$B$11,"")</f>
         <v>3</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2014'!$D$3:$D$16,'2014'!$B$3:$B$16,"")</f>
         <v>4</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="38">
         <f>_xlfn.XLOOKUP($A12,'2015'!$D$3:$D$16,'2015'!$B$3:$B$16,"")</f>
         <v>1</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="38">
         <f>_xlfn.XLOOKUP($A12,'2016'!$D$3:$D$16,'2016'!$B$3:$B$16,"")</f>
         <v>1</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2017'!$D$3:$D$16,'2017'!$B$3:$B$16,"")</f>
         <v>12</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2018'!$D$3:$D$16,'2018'!$B$3:$B$16,"")</f>
         <v>12</v>
       </c>
-      <c r="N12" s="52">
+      <c r="N12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2019'!$D$3:$D$16,'2019'!$B$3:$B$16,"")</f>
         <v>11</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2020'!$D$3:$D$16,'2020'!$B$3:$B$16,"")</f>
         <v>2</v>
       </c>
-      <c r="P12" s="52">
+      <c r="P12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2021'!$D$2:$D$13,'2021'!$B$2:$B$13,"")</f>
         <v>10</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2022'!$D$2:$D$13,'2022'!$B$2:$B$13,"")</f>
         <v>5</v>
       </c>
-      <c r="R12" s="52">
+      <c r="R12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>12</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="39">
         <f>_xlfn.XLOOKUP($A12,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v>12</v>
       </c>
-      <c r="T12" s="52" t="str">
+      <c r="T12" s="39" t="str">
         <f>_xlfn.XLOOKUP($A12,'2025'!$D$2:$D$13,'2025'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
       <c r="X12" s="36" t="s">
         <v>43</v>
       </c>
@@ -11728,8 +11777,12 @@
         <f t="shared" si="2"/>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW12" s="64">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>44</v>
       </c>
@@ -11908,8 +11961,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW13" s="64">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -11941,7 +11998,7 @@
         <f>_xlfn.XLOOKUP($A14,'2013'!$D$2:$D$11,'2013'!$B$2:$B$11,"")</f>
         <v>6</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="40">
         <f>_xlfn.XLOOKUP($A14,'2014'!$D$3:$D$16,'2014'!$B$3:$B$16,"")</f>
         <v>1</v>
       </c>
@@ -12088,8 +12145,12 @@
         <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW14" s="65">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>110</v>
       </c>
@@ -12268,8 +12329,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW15" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -12448,8 +12513,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW16" s="63">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
@@ -12628,8 +12697,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW17" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>76</v>
       </c>
@@ -12677,7 +12750,7 @@
         <f>_xlfn.XLOOKUP($A18,'2017'!$D$3:$D$16,'2017'!$B$3:$B$16,"")</f>
         <v>9</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="41">
         <f>_xlfn.XLOOKUP($A18,'2018'!$D$3:$D$16,'2018'!$B$3:$B$16,"")</f>
         <v>1</v>
       </c>
@@ -12808,8 +12881,12 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:48" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW18" s="66">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
@@ -12849,7 +12926,7 @@
         <f>_xlfn.XLOOKUP($A19,'2015'!$D$3:$D$16,'2015'!$B$3:$B$16,"")</f>
         <v>5</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="41">
         <f>_xlfn.XLOOKUP($A19,'2016'!$D$3:$D$16,'2016'!$B$3:$B$16,"")</f>
         <v>2</v>
       </c>
@@ -12877,7 +12954,7 @@
         <f>_xlfn.XLOOKUP($A19,'2022'!$D$2:$D$13,'2022'!$B$2:$B$13,"")</f>
         <v>9</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="41">
         <f>_xlfn.XLOOKUP($A19,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>2</v>
       </c>
@@ -12988,8 +13065,12 @@
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW19" s="66">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
@@ -13168,8 +13249,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW20" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
@@ -13348,8 +13433,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW21" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>106</v>
       </c>
@@ -13528,8 +13617,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>121</v>
       </c>
@@ -13597,7 +13690,7 @@
         <f>_xlfn.XLOOKUP($A23,'2022'!$D$2:$D$13,'2022'!$B$2:$B$13,"")</f>
         <v>8</v>
       </c>
-      <c r="R23" s="55">
+      <c r="R23" s="42">
         <f>_xlfn.XLOOKUP($A23,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>1</v>
       </c>
@@ -13605,7 +13698,7 @@
         <f>_xlfn.XLOOKUP($A23,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v>6</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="42">
         <f>_xlfn.XLOOKUP($A23,'2025'!$D$2:$D$13,'2025'!$B$2:$B$13,"")</f>
         <v>1</v>
       </c>
@@ -13708,8 +13801,12 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW23" s="67">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>144</v>
       </c>
@@ -13888,91 +13985,95 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="AW24" s="63">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="44">
         <f>_xlfn.XLOOKUP($A25,'2005'!$D$2:$D$9,'2005'!$B$2:$B$9,"")</f>
         <v>3</v>
       </c>
-      <c r="C25" s="57" t="str">
+      <c r="C25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2006'!$D$2:$D$9,'2006'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="D25" s="57" t="str">
+      <c r="D25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2008'!$D$2:$D$9,'2008'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="E25" s="57" t="str">
+      <c r="E25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2009'!$D$2:$D$9,'2009'!$B$2:$B$9,"")</f>
         <v/>
       </c>
-      <c r="F25" s="57" t="str">
+      <c r="F25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2011'!$D25:$D32,'2011'!$B25:$B32,"")</f>
         <v/>
       </c>
-      <c r="G25" s="57" t="str">
+      <c r="G25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2012'!$D$2:$D$11,'2012'!$B$2:$B$11,"")</f>
         <v/>
       </c>
-      <c r="H25" s="57" t="str">
+      <c r="H25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2013'!$D$2:$D$11,'2013'!$B$2:$B$11,"")</f>
         <v/>
       </c>
-      <c r="I25" s="57" t="str">
+      <c r="I25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2014'!$D$3:$D$16,'2014'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="J25" s="57" t="str">
+      <c r="J25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2015'!$D$3:$D$16,'2015'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="K25" s="57" t="str">
+      <c r="K25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2016'!$D$3:$D$16,'2016'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="L25" s="57" t="str">
+      <c r="L25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2017'!$D$3:$D$16,'2017'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="M25" s="57" t="str">
+      <c r="M25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2018'!$D$3:$D$16,'2018'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="N25" s="57" t="str">
+      <c r="N25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2019'!$D$3:$D$16,'2019'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="O25" s="57" t="str">
+      <c r="O25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2020'!$D$3:$D$16,'2020'!$B$3:$B$16,"")</f>
         <v/>
       </c>
-      <c r="P25" s="57" t="str">
+      <c r="P25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2021'!$D$2:$D$13,'2021'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="Q25" s="57" t="str">
+      <c r="Q25" s="44" t="str">
         <f>_xlfn.XLOOKUP($A25,'2022'!$D$2:$D$13,'2022'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="R25" s="61">
+      <c r="R25" s="48">
         <f>_xlfn.XLOOKUP($A25,'2023'!$D$2:$D$13,'2023'!$B$2:$B$13,"")</f>
         <v>4</v>
       </c>
-      <c r="S25" s="61">
+      <c r="S25" s="48">
         <f>_xlfn.XLOOKUP($A25,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v>4</v>
       </c>
-      <c r="T25" s="57">
+      <c r="T25" s="44">
         <f>_xlfn.XLOOKUP($A25,'2025'!$D$2:$D$13,'2025'!$B$2:$B$13,"")</f>
         <v>5</v>
       </c>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="56" t="s">
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="43" t="s">
         <v>159</v>
       </c>
       <c r="Y25">
@@ -14071,91 +14172,95 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="AW25" s="69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="E26" s="59" t="str">
+      <c r="E26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="F26" s="59" t="str">
+      <c r="F26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="G26" s="59" t="str">
+      <c r="G26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="H26" s="59" t="str">
+      <c r="H26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="I26" s="59" t="str">
+      <c r="I26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="K26" s="59" t="str">
+      <c r="K26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="L26" s="59" t="str">
+      <c r="L26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="M26" s="59" t="str">
+      <c r="M26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="N26" s="59" t="str">
+      <c r="N26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="O26" s="59" t="str">
+      <c r="O26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="P26" s="59" t="str">
+      <c r="P26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="Q26" s="59" t="str">
+      <c r="Q26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="R26" s="59" t="str">
+      <c r="R26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="S26" s="59" t="str">
+      <c r="S26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
         <v/>
       </c>
-      <c r="T26" s="62">
+      <c r="T26" s="49">
         <f>_xlfn.XLOOKUP($A26,'2025'!$D$2:$D$13,'2025'!$B$2:$B$13,"")</f>
         <v>12</v>
       </c>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="60" t="s">
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47" t="s">
         <v>277</v>
       </c>
       <c r="Y26" t="s">
@@ -14236,8 +14341,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW26" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>15</v>
       </c>
@@ -14296,7 +14405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>160</v>
       </c>
@@ -14364,7 +14473,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>171</v>
       </c>
@@ -14385,14 +14494,14 @@
         <v/>
       </c>
       <c r="U29" s="31">
-        <f t="shared" ref="U29:U43" si="3">SUM(B29:E29)</f>
+        <f t="shared" ref="U29:U43" si="4">SUM(B29:E29)</f>
         <v>16</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
     </row>
-    <row r="30" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>173</v>
       </c>
@@ -14413,14 +14522,14 @@
         <v/>
       </c>
       <c r="U30" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
       <c r="X30" s="31"/>
     </row>
-    <row r="31" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>172</v>
       </c>
@@ -14441,14 +14550,14 @@
         <v/>
       </c>
       <c r="U31" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
       <c r="X31" s="31"/>
     </row>
-    <row r="32" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>227</v>
       </c>
@@ -14469,7 +14578,7 @@
         <v/>
       </c>
       <c r="U32" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="V32" s="31"/>
@@ -14497,7 +14606,7 @@
         <v/>
       </c>
       <c r="U33" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="V33" s="31"/>
@@ -14525,7 +14634,7 @@
         <v/>
       </c>
       <c r="U34" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="V34" s="31"/>
@@ -14553,7 +14662,7 @@
         <v/>
       </c>
       <c r="U35" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="V35" s="31"/>
@@ -14581,7 +14690,7 @@
         <v/>
       </c>
       <c r="U36" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="V36" s="31"/>
@@ -14609,7 +14718,7 @@
         <v/>
       </c>
       <c r="U37" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="V37" s="31"/>
@@ -14637,7 +14746,7 @@
         <v>4</v>
       </c>
       <c r="U38" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="V38" s="31"/>
@@ -14665,7 +14774,7 @@
         <v/>
       </c>
       <c r="U39" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="V39" s="31"/>
@@ -14693,7 +14802,7 @@
         <v/>
       </c>
       <c r="U40" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="V40" s="31"/>
@@ -14721,7 +14830,7 @@
         <v/>
       </c>
       <c r="U41" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="V41" s="31"/>
@@ -14749,7 +14858,7 @@
         <v>6</v>
       </c>
       <c r="U42" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="V42" s="31"/>
@@ -14777,7 +14886,7 @@
         <v>3</v>
       </c>
       <c r="U43" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="V43" s="31"/>
@@ -14958,15 +15067,15 @@
         <v/>
       </c>
       <c r="U45" s="31">
-        <f t="shared" ref="U45:U68" si="4">SUM(F45:T45)</f>
+        <f t="shared" ref="U45:U68" si="5">SUM(F45:T45)</f>
         <v>9</v>
       </c>
       <c r="V45" s="31">
-        <f t="shared" ref="V45:V68" si="5">SUM($F$27:$T$27)-SUMIFS($F$27:$T$27,$F45:$T45,"")</f>
+        <f t="shared" ref="V45:V68" si="6">SUM($F$27:$T$27)-SUMIFS($F$27:$T$27,$F45:$T45,"")</f>
         <v>14</v>
       </c>
       <c r="W45" s="31">
-        <f t="shared" ref="W45:W68" si="6">U45/V45</f>
+        <f t="shared" ref="W45:W68" si="7">U45/V45</f>
         <v>0.6428571428571429</v>
       </c>
       <c r="X45" s="29"/>
@@ -15065,15 +15174,15 @@
         <v>7</v>
       </c>
       <c r="U46" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="V46" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="W46" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55665024630541871</v>
       </c>
     </row>
@@ -15158,15 +15267,15 @@
         <v/>
       </c>
       <c r="U47" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="V47" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W47" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="X47" s="29"/>
@@ -15252,15 +15361,15 @@
         <v>8</v>
       </c>
       <c r="U48" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="V48" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="W48" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51724137931034486</v>
       </c>
     </row>
@@ -15345,15 +15454,15 @@
         <v/>
       </c>
       <c r="U49" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V49" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W49" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="X49" s="29"/>
@@ -15439,15 +15548,15 @@
         <v/>
       </c>
       <c r="U50" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="V50" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W50" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="X50" s="29"/>
@@ -15533,15 +15642,15 @@
         <v>7</v>
       </c>
       <c r="U51" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="V51" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="W51" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5073891625615764</v>
       </c>
     </row>
@@ -15623,15 +15732,15 @@
         <v/>
       </c>
       <c r="U52" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="V52" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W52" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="X52" s="29"/>
@@ -15713,15 +15822,15 @@
         <v>5</v>
       </c>
       <c r="U53" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V53" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="W53" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52910052910052907</v>
       </c>
     </row>
@@ -15803,15 +15912,15 @@
         <v/>
       </c>
       <c r="U54" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="V54" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="W54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42285714285714288</v>
       </c>
     </row>
@@ -15892,15 +16001,15 @@
         <v>10</v>
       </c>
       <c r="U55" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="V55" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="W55" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43915343915343913</v>
       </c>
     </row>
@@ -15981,15 +16090,15 @@
         <v>7</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="W56" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48571428571428571</v>
       </c>
     </row>
@@ -16071,15 +16180,15 @@
         <v/>
       </c>
       <c r="U57" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V57" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W57" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="X57" s="29"/>
@@ -16162,15 +16271,15 @@
         <v/>
       </c>
       <c r="U58" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="V58" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="W58" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="X58" s="29"/>
@@ -16253,15 +16362,15 @@
         <v/>
       </c>
       <c r="U59" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V59" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="W59" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="X59" s="29"/>
@@ -16343,15 +16452,15 @@
         <v>8</v>
       </c>
       <c r="U60" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="V60" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="W60" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50310559006211175</v>
       </c>
     </row>
@@ -16432,15 +16541,15 @@
         <v>5</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="W61" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47204968944099379</v>
       </c>
     </row>
@@ -16522,15 +16631,15 @@
         <v/>
       </c>
       <c r="U62" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="V62" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="W62" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="X62" s="29"/>
@@ -16613,15 +16722,15 @@
         <v/>
       </c>
       <c r="U63" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V63" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="W63" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="X63" s="29"/>
@@ -16704,15 +16813,15 @@
         <v/>
       </c>
       <c r="U64" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="V64" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="W64" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="X64" s="29"/>
@@ -16794,15 +16903,15 @@
         <v>11</v>
       </c>
       <c r="U65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="V65" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="W65" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56557377049180324</v>
       </c>
     </row>
@@ -16884,15 +16993,15 @@
         <v/>
       </c>
       <c r="U66" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="V66" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="W66" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56097560975609762</v>
       </c>
       <c r="X66" s="29"/>
@@ -16974,15 +17083,15 @@
         <v>7</v>
       </c>
       <c r="U67" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="V67" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="W67" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
@@ -16995,15 +17104,15 @@
         <v>4</v>
       </c>
       <c r="U68" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="V68" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="W68" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="X68" s="29"/>
@@ -17184,7 +17293,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17254,7 +17363,7 @@
       <c r="I2" s="1">
         <v>1367</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="53" t="s">
         <v>245</v>
       </c>
     </row>
@@ -17287,8 +17396,8 @@
       <c r="I3" s="1">
         <v>1409</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="51" t="s">
         <v>245</v>
       </c>
     </row>
@@ -17321,10 +17430,10 @@
       <c r="I4" s="1">
         <v>1242</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17355,7 +17464,7 @@
       <c r="I5" s="1">
         <v>1280</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -17413,7 +17522,7 @@
       <c r="I7">
         <v>1055</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="51" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17443,8 +17552,8 @@
       <c r="I8">
         <v>1167</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="50" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17474,10 +17583,10 @@
       <c r="I9">
         <v>1162</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -17505,7 +17614,7 @@
       <c r="I10">
         <v>1086</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -17540,7 +17649,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="51" t="s">
         <v>247</v>
       </c>
     </row>
@@ -17548,13 +17657,13 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>248</v>
       </c>
     </row>
@@ -17562,7 +17671,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -17677,7 +17786,7 @@
       <c r="I2" s="1">
         <v>1830.14</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="50" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17710,8 +17819,8 @@
       <c r="I3" s="1">
         <v>1705.42</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>260</v>
       </c>
     </row>
@@ -17744,10 +17853,10 @@
       <c r="I4" s="1">
         <v>1633.02</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17778,7 +17887,7 @@
       <c r="I5" s="1">
         <v>1611.72</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -17836,7 +17945,7 @@
       <c r="I7">
         <v>1547.34</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="51" t="s">
         <v>259</v>
       </c>
     </row>
@@ -17866,8 +17975,8 @@
       <c r="I8">
         <v>1316.64</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51" t="s">
         <v>259</v>
       </c>
     </row>
@@ -17897,13 +18006,13 @@
       <c r="I9">
         <v>1320.34</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="38"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -17911,7 +18020,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17922,7 +18031,7 @@
       <c r="B14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -17931,7 +18040,7 @@
       <c r="B15" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>261</v>
       </c>
     </row>
@@ -17942,7 +18051,7 @@
       <c r="B16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18068,7 +18177,7 @@
       <c r="I2" s="1">
         <v>1636</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18101,8 +18210,8 @@
       <c r="I3" s="1">
         <v>1450</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18135,10 +18244,10 @@
       <c r="I4" s="1">
         <v>1333</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -18169,7 +18278,7 @@
       <c r="I5" s="1">
         <v>1558</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -18227,7 +18336,7 @@
       <c r="I7">
         <v>1141</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="50" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18257,8 +18366,8 @@
       <c r="I8">
         <v>1174</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18288,13 +18397,13 @@
       <c r="I9">
         <v>1344</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="39"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -18302,7 +18411,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="50" t="s">
         <v>11</v>
       </c>
     </row>
@@ -18313,7 +18422,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="50"/>
       <c r="M14" t="s">
         <v>11</v>
       </c>
@@ -18322,7 +18431,7 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18330,7 +18439,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18450,7 +18559,7 @@
       <c r="I2" s="1">
         <v>1511</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18483,8 +18592,8 @@
       <c r="I3" s="1">
         <v>1402</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -18517,10 +18626,10 @@
       <c r="I4" s="1">
         <v>1297</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -18551,7 +18660,7 @@
       <c r="I5" s="1">
         <v>1398</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -18609,7 +18718,7 @@
       <c r="I7">
         <v>1269</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="51" t="s">
         <v>36</v>
       </c>
     </row>
@@ -18639,8 +18748,8 @@
       <c r="I8">
         <v>1254</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18670,10 +18779,10 @@
       <c r="I9">
         <v>1351</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -18701,7 +18810,7 @@
       <c r="I10">
         <v>1294</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -18736,7 +18845,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18747,7 +18856,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="51"/>
       <c r="M14" t="s">
         <v>9</v>
       </c>
@@ -18765,7 +18874,7 @@
       <c r="F15" s="15">
         <v>120</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>37</v>
       </c>
     </row>
@@ -18780,7 +18889,7 @@
       <c r="F16" s="15">
         <v>60</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18908,7 +19017,7 @@
       <c r="I2" s="1">
         <v>1844.5</v>
       </c>
-      <c r="K2" s="38" t="str">
+      <c r="K2" s="50" t="str">
         <f>C2</f>
         <v>#Hashtags</v>
       </c>
@@ -18942,8 +19051,8 @@
       <c r="I3" s="1">
         <v>2096.08</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="51" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18976,11 +19085,11 @@
       <c r="I4" s="1">
         <v>1811.46</v>
       </c>
-      <c r="K4" s="39" t="str">
+      <c r="K4" s="51" t="str">
         <f>C5</f>
         <v>Bologna Ponies</v>
       </c>
-      <c r="L4" s="39"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -19011,7 +19120,7 @@
       <c r="I5" s="1">
         <v>2048.5</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -19069,7 +19178,7 @@
       <c r="I7">
         <v>1774.8</v>
       </c>
-      <c r="K7" s="39" t="str">
+      <c r="K7" s="51" t="str">
         <f>C3</f>
         <v>The Timmies</v>
       </c>
@@ -19100,8 +19209,8 @@
       <c r="I8">
         <v>1793.28</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -19131,11 +19240,11 @@
       <c r="I9">
         <v>1922.56</v>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="50" t="str">
         <f>C4</f>
         <v>The dago</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -19163,7 +19272,7 @@
       <c r="I10">
         <v>1882.62</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -19198,7 +19307,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19209,7 +19318,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="51"/>
       <c r="M14" t="s">
         <v>7</v>
       </c>
@@ -19227,7 +19336,7 @@
       <c r="F15" s="16">
         <v>120</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19241,7 +19350,7 @@
       <c r="F16" s="16">
         <v>60</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -19392,7 +19501,7 @@
       <c r="J3" s="1">
         <v>1596.84</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19428,7 +19537,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19463,7 +19572,7 @@
       <c r="J5" s="1">
         <v>1728.66</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -19500,8 +19609,8 @@
       <c r="J6" s="1">
         <v>1635.62</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="56" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19534,7 +19643,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19567,7 +19676,7 @@
       <c r="J8" s="10">
         <v>1388.18</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="55" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="14"/>
@@ -19576,10 +19685,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -19613,7 +19722,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19650,7 +19759,7 @@
       <c r="J11" s="1">
         <v>1673.14</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="50" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="14"/>
@@ -19687,8 +19796,8 @@
       <c r="J12" s="1">
         <v>1615.32</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="P12" s="43" t="s">
+      <c r="L12" s="50"/>
+      <c r="P12" s="55" t="s">
         <v>51</v>
       </c>
     </row>
@@ -19721,7 +19830,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19752,7 +19861,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="56" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19785,10 +19894,10 @@
       <c r="J15">
         <v>1368.88</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19819,12 +19928,12 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="51" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="14"/>
@@ -19832,20 +19941,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="39"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="51"/>
+      <c r="N18" s="56" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -19859,10 +19968,10 @@
       <c r="F21" s="16">
         <v>120</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -19877,7 +19986,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -19891,7 +20000,7 @@
       <c r="F23" s="16">
         <v>20</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -19899,7 +20008,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -19913,7 +20022,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="50" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19921,13 +20030,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="51" t="s">
         <v>60</v>
       </c>
     </row>
@@ -19935,13 +20044,19 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="39"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -19952,12 +20067,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20063,7 +20172,7 @@
       <c r="J3" s="1">
         <v>1732.22</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20099,7 +20208,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20134,7 +20243,7 @@
       <c r="J5" s="1">
         <v>1533.2</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -20171,8 +20280,8 @@
       <c r="J6" s="1">
         <v>1643.26</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="52"/>
+      <c r="N6" s="56" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20205,7 +20314,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -20238,7 +20347,7 @@
       <c r="J8" s="10">
         <v>1475.86</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="55" t="s">
         <v>89</v>
       </c>
       <c r="P8" s="14"/>
@@ -20247,10 +20356,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -20284,7 +20393,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -20321,7 +20430,7 @@
       <c r="J11" s="1">
         <v>1625.18</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P11" s="14"/>
@@ -20358,8 +20467,8 @@
       <c r="J12" s="1">
         <v>1578.96</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="P12" s="43" t="s">
+      <c r="L12" s="51"/>
+      <c r="P12" s="55" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20392,7 +20501,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -20423,7 +20532,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="56" t="s">
         <v>88</v>
       </c>
     </row>
@@ -20456,10 +20565,10 @@
       <c r="J15">
         <v>1504.64</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="42"/>
+      <c r="P15" s="56"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -20490,12 +20599,12 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="51" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="14"/>
@@ -20503,20 +20612,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="39"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="51"/>
+      <c r="N18" s="56" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="47"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="55" t="s">
         <v>88</v>
       </c>
     </row>
@@ -20530,10 +20639,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -20548,7 +20657,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -20562,7 +20671,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -20574,7 +20683,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -20589,7 +20698,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -20597,13 +20706,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -20611,18 +20720,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="38"/>
+      <c r="P29" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -20634,6 +20738,11 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TeamFriends_History.xlsx
+++ b/TeamFriends_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B6696C-6ABC-4C76-B4D8-FCC0B9B03E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E00547-6836-4E12-916B-3C76446DC85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" firstSheet="1" activeTab="19" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="677" firstSheet="1" activeTab="18" xr2:uid="{960D14EB-F112-4860-840A-1E6B67EAFFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="16" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="280">
   <si>
     <t>Team</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>2 Gurley's 1 Cup</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
   </si>
   <si>
     <t>7-3-0</t>
@@ -1206,6 +1203,14 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,22 +1223,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1242,14 +1247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1676,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1697,8 +1694,8 @@
       <c r="I2" s="1">
         <v>2368.5</v>
       </c>
-      <c r="K2" s="52" t="s">
-        <v>170</v>
+      <c r="K2" s="60" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1709,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -1730,9 +1727,9 @@
       <c r="I3" s="1">
         <v>2248.5</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51" t="s">
-        <v>167</v>
+      <c r="K3" s="60"/>
+      <c r="L3" s="59" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1743,10 +1740,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -1764,10 +1761,10 @@
       <c r="I4" s="1">
         <v>2325.5</v>
       </c>
-      <c r="K4" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="51"/>
+      <c r="K4" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1777,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -1798,17 +1795,17 @@
       <c r="I5" s="1">
         <v>2430.5</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1827,7 +1824,7 @@
         <v>2222.5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -1856,24 +1853,24 @@
       <c r="I7">
         <v>1856</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>165</v>
+      <c r="K7" s="58" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="50"/>
-      <c r="L8" s="50" t="s">
-        <v>169</v>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="50"/>
+      <c r="K9" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="51"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -1881,8 +1878,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="50" t="s">
-        <v>170</v>
+      <c r="L13" s="58" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1890,22 +1887,22 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>180</v>
       </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -1913,8 +1910,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="L15" s="51" t="s">
-        <v>165</v>
+      <c r="L15" s="59" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1922,27 +1919,27 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
-      </c>
-      <c r="L16" s="51"/>
+        <v>182</v>
+      </c>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
         <v>184</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>185</v>
-      </c>
-      <c r="D17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1958,10 +1955,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -1972,29 +1969,29 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -2013,20 +2010,20 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2034,10 +2031,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -2056,12 +2053,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2077,18 +2074,18 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
         <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2096,7 +2093,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2104,7 +2101,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2120,7 +2117,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2128,7 +2125,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2136,18 +2133,18 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
         <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2158,12 +2155,12 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>0.5</v>
@@ -2174,12 +2171,12 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -2219,7 +2216,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2359,7 +2356,7 @@
       <c r="J3" s="1">
         <v>1670.76</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2395,7 +2392,7 @@
       <c r="J4" s="1">
         <v>1595.7</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2427,7 @@
       <c r="J5" s="1">
         <v>1645.12</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -2467,8 +2464,8 @@
       <c r="J6" s="1">
         <v>1622.42</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="56" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="62" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2501,7 +2498,7 @@
       <c r="J7">
         <v>1329.76</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2534,7 +2531,7 @@
       <c r="J8" s="10">
         <v>1426.34</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="63" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="14"/>
@@ -2543,10 +2540,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="63"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2580,7 +2577,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -2617,7 +2614,7 @@
       <c r="J11" s="1">
         <v>1668.7</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="58" t="s">
         <v>88</v>
       </c>
       <c r="P11" s="14"/>
@@ -2654,8 +2651,8 @@
       <c r="J12" s="1">
         <v>1621.08</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="58"/>
+      <c r="P12" s="63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2688,7 +2685,7 @@
       <c r="J13">
         <v>1604.78</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -2719,7 +2716,7 @@
       <c r="J14">
         <v>1563.12</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="62" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2752,10 +2749,10 @@
       <c r="J15">
         <v>1437.26</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -2786,12 +2783,12 @@
       <c r="J16">
         <v>1463.6</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="58" t="s">
         <v>60</v>
       </c>
       <c r="N17" s="14"/>
@@ -2799,20 +2796,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="50"/>
-      <c r="N18" s="56" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="62" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="63" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2826,10 +2823,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2844,7 +2841,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -2858,7 +2855,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2872,7 +2869,7 @@
       <c r="F24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2887,7 +2884,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="58" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2895,13 +2892,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="58"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="59" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2909,13 +2906,18 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:J8">
     <sortCondition descending="1" ref="H3:H8"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -2927,11 +2929,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3037,7 +3034,7 @@
       <c r="J3" s="1">
         <v>1593.46</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3073,7 +3070,7 @@
       <c r="J4" s="1">
         <v>1541.96</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3105,7 @@
       <c r="J5" s="1">
         <v>1469.7</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3142,8 +3139,8 @@
       <c r="J6">
         <v>1471.44</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="55" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3176,7 +3173,7 @@
       <c r="J7">
         <v>1396.52</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3209,7 +3206,7 @@
       <c r="J8" s="10">
         <v>1071.8599999999999</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="62" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -3218,10 +3215,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="56"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3255,7 +3252,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3292,7 +3289,7 @@
       <c r="J11" s="1">
         <v>1662.04</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="59" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -3329,8 +3326,8 @@
       <c r="J12" s="1">
         <v>1508.68</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="59"/>
+      <c r="P12" s="63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3366,7 +3363,7 @@
       <c r="J13" s="1">
         <v>1559.22</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3397,7 +3394,7 @@
       <c r="J14">
         <v>1534.62</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3430,10 +3427,10 @@
       <c r="J15">
         <v>1411.74</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3464,12 +3461,12 @@
       <c r="J16">
         <v>1163.0999999999999</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="58" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="14"/>
@@ -3477,20 +3474,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="50"/>
-      <c r="N18" s="56" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="62" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="63" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3504,10 +3501,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3522,7 +3519,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -3536,7 +3533,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3550,7 +3547,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3577,7 +3574,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3585,13 +3582,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="58"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="59" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3599,13 +3596,18 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -3617,11 +3619,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3632,7 +3629,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,25 +3706,25 @@
         <v>58</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H8" si="0">((G3*0.5)+E3)/SUM(E3:G3)</f>
-        <v>0.53846153846153844</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="1">
         <v>1792.26</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3758,12 +3755,12 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
         <v>1746.74</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3790,12 +3787,12 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5">
         <v>1623.88</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -3824,13 +3821,13 @@
         <v>0.38461538461538464</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6">
         <v>1608.62</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="56" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="62" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3858,12 +3855,12 @@
         <v>0.38461538461538464</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7">
         <v>1608.1</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3891,12 +3888,12 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="10">
         <v>1419.32</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="63" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="14"/>
@@ -3905,10 +3902,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="63"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3942,7 +3939,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -3974,12 +3971,12 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" s="1">
         <v>1895.72</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="58" t="s">
         <v>124</v>
       </c>
       <c r="P11" s="14"/>
@@ -4011,13 +4008,13 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1">
         <v>1666.54</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="P12" s="56" t="s">
+      <c r="L12" s="58"/>
+      <c r="P12" s="62" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4048,12 +4045,12 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="1">
         <v>1770.32</v>
       </c>
-      <c r="P13" s="57"/>
+      <c r="P13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4082,12 +4079,12 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="1">
         <v>1642.38</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="63" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4115,15 +4112,15 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15">
         <v>1496.7</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="55"/>
+      <c r="P15" s="63"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4149,17 +4146,17 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16">
         <v>1310.1400000000001</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="59" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="14"/>
@@ -4167,20 +4164,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="55" t="s">
+      <c r="L18" s="59"/>
+      <c r="N18" s="63" t="s">
         <v>122</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="62" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4194,10 +4191,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4212,7 +4209,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4226,7 +4223,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4240,7 +4237,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4267,7 +4264,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4275,13 +4272,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="54"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4289,13 +4286,18 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="50"/>
+      <c r="P29" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -4307,11 +4309,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4417,8 +4414,8 @@
       <c r="J3" s="1">
         <v>1530.24</v>
       </c>
-      <c r="L3" s="51" t="s">
-        <v>138</v>
+      <c r="L3" s="59" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,7 +4450,7 @@
       <c r="J4" s="1">
         <v>1530.84</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
       <c r="J5">
         <v>1523.86</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -4495,7 +4492,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -4519,8 +4516,8 @@
       <c r="J6">
         <v>1541.3</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="56" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="62" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4553,7 +4550,7 @@
       <c r="J7">
         <v>1631.78</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4562,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>76</v>
@@ -4586,7 +4583,7 @@
       <c r="J8" s="10">
         <v>1453.8</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="63" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="14"/>
@@ -4595,10 +4592,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="55"/>
+      <c r="L9" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="63"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4632,7 +4629,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -4669,7 +4666,7 @@
       <c r="J11" s="1">
         <v>1851.34</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="59" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="14"/>
@@ -4682,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -4706,8 +4703,8 @@
       <c r="J12" s="1">
         <v>1742.32</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="59"/>
+      <c r="P12" s="63" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4719,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>77</v>
@@ -4743,7 +4740,7 @@
       <c r="J13" s="1">
         <v>1566.5</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4753,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -4777,7 +4774,7 @@
       <c r="J14" s="1">
         <v>1453.92</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="62" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4810,10 +4807,10 @@
       <c r="J15">
         <v>1573</v>
       </c>
-      <c r="L15" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="56"/>
+      <c r="L15" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4844,33 +4841,33 @@
       <c r="J16">
         <v>1656.98</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="50" t="s">
-        <v>136</v>
+      <c r="L17" s="58" t="s">
+        <v>135</v>
       </c>
       <c r="N17" s="14"/>
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="50"/>
-      <c r="N18" s="55" t="s">
-        <v>135</v>
+      <c r="L18" s="58"/>
+      <c r="N18" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="62" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4884,10 +4881,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4902,7 +4899,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -4916,7 +4913,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4930,7 +4927,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4957,7 +4954,7 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="58" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4965,13 +4962,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="58"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4979,11 +4976,11 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4991,6 +4988,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5002,11 +5004,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5088,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -5112,8 +5109,8 @@
       <c r="J3" s="1">
         <v>1744.88</v>
       </c>
-      <c r="L3" s="51" t="s">
-        <v>136</v>
+      <c r="L3" s="59" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5148,7 +5145,7 @@
       <c r="J4" s="1">
         <v>1652.44</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,7 +5180,7 @@
       <c r="J5" s="1">
         <v>1613.18</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -5193,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -5217,9 +5214,9 @@
       <c r="J6">
         <v>1612.58</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="55" t="s">
-        <v>136</v>
+      <c r="L6" s="60"/>
+      <c r="N6" s="63" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
       <c r="J7">
         <v>1567.06</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5260,7 +5257,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>8</v>
@@ -5284,8 +5281,8 @@
       <c r="J8" s="10">
         <v>1467.82</v>
       </c>
-      <c r="N8" s="56" t="s">
-        <v>142</v>
+      <c r="N8" s="62" t="s">
+        <v>141</v>
       </c>
       <c r="P8" s="14"/>
     </row>
@@ -5293,10 +5290,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="56"/>
+      <c r="L9" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="62"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5330,7 +5327,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -5346,7 +5343,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -5367,8 +5364,8 @@
       <c r="J11" s="1">
         <v>1764.64</v>
       </c>
-      <c r="L11" s="51" t="s">
-        <v>142</v>
+      <c r="L11" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="P11" s="14"/>
     </row>
@@ -5380,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -5404,9 +5401,9 @@
       <c r="J12" s="1">
         <v>1574.5</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="56" t="s">
-        <v>136</v>
+      <c r="L12" s="59"/>
+      <c r="P12" s="62" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -5417,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>76</v>
@@ -5441,7 +5438,7 @@
       <c r="J13" s="1">
         <v>1644.76</v>
       </c>
-      <c r="P13" s="57"/>
+      <c r="P13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5472,7 +5469,7 @@
       <c r="J14">
         <v>1397.72</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5481,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
@@ -5505,10 +5502,10 @@
       <c r="J15">
         <v>1368.44</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="P15" s="55"/>
+      <c r="P15" s="63"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -5539,12 +5536,12 @@
       <c r="J16">
         <v>1319.8</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="58" t="s">
         <v>96</v>
       </c>
       <c r="N17" s="14"/>
@@ -5552,20 +5549,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="50"/>
-      <c r="N18" s="55" t="s">
+      <c r="L18" s="58"/>
+      <c r="N18" s="63" t="s">
         <v>118</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5579,10 +5576,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="62"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5597,7 +5594,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -5612,7 +5609,7 @@
       <c r="F23" s="16">
         <v>40</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5627,7 +5624,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -5656,8 +5653,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="P26" s="50" t="s">
-        <v>142</v>
+      <c r="P26" s="58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -5665,14 +5662,14 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="P27" s="58"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5681,11 +5678,11 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="P29" s="51"/>
+      <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="5"/>
     </row>
@@ -5694,6 +5691,11 @@
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -5705,11 +5707,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5773,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -5815,7 +5812,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -5833,8 +5830,8 @@
       <c r="I3" s="1">
         <v>1830.48</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>147</v>
+      <c r="K3" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5866,7 +5863,7 @@
       <c r="I4" s="1">
         <v>1957.51</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5874,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -5898,7 +5895,7 @@
       <c r="I5" s="1">
         <v>2011.64</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -5911,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -5932,9 +5929,9 @@
       <c r="I6" s="1">
         <v>1810.54</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="M6" s="56" t="s">
-        <v>147</v>
+      <c r="K6" s="60"/>
+      <c r="M6" s="62" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,7 +5963,7 @@
       <c r="I7" s="1">
         <v>1739.8</v>
       </c>
-      <c r="M7" s="57"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5974,7 +5971,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -5995,7 +5992,7 @@
       <c r="I8">
         <v>1557.34</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="63" t="s">
         <v>115</v>
       </c>
       <c r="O8" s="14"/>
@@ -6026,10 +6023,10 @@
       <c r="I9">
         <v>1632.8</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="63"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6058,7 +6055,7 @@
       <c r="I10">
         <v>1479.68</v>
       </c>
-      <c r="K10" s="54"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6068,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -6089,8 +6086,8 @@
       <c r="I11">
         <v>1326.38</v>
       </c>
-      <c r="K11" s="50" t="s">
-        <v>136</v>
+      <c r="K11" s="58" t="s">
+        <v>135</v>
       </c>
       <c r="O11" s="14"/>
     </row>
@@ -6120,8 +6117,8 @@
       <c r="I12">
         <v>1491.86</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="O12" s="55" t="s">
+      <c r="K12" s="58"/>
+      <c r="O12" s="63" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6130,7 +6127,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -6151,29 +6148,29 @@
       <c r="I13">
         <v>1391.5</v>
       </c>
-      <c r="O13" s="59"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="56" t="s">
-        <v>145</v>
+      <c r="O14" s="62" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="56"/>
+      <c r="K15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="58" t="s">
         <v>99</v>
       </c>
       <c r="M17" s="14"/>
@@ -6181,21 +6178,21 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="55" t="s">
-        <v>145</v>
+      <c r="K18" s="58"/>
+      <c r="M18" s="63" t="s">
+        <v>144</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="59"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="60" t="s">
-        <v>154</v>
+      <c r="M20" s="68" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6208,10 +6205,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="56"/>
+      <c r="K21" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6226,7 +6223,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6241,7 +6238,7 @@
       <c r="F23" s="17">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6256,7 +6253,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6285,8 +6282,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="50" t="s">
-        <v>147</v>
+      <c r="O26" s="58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6294,15 +6291,15 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="58"/>
+      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="O28" s="51" t="s">
-        <v>154</v>
+      <c r="O28" s="59" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -6310,11 +6307,11 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="51"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5"/>
     </row>
@@ -6323,6 +6320,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6334,11 +6336,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6402,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -6441,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -6462,8 +6459,8 @@
       <c r="I3" s="1">
         <v>1668.12</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>152</v>
+      <c r="K3" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -6495,7 +6492,7 @@
       <c r="I4" s="1">
         <v>1799.34</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6506,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -6527,7 +6524,7 @@
       <c r="I5" s="1">
         <v>1912.76</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -6561,9 +6558,9 @@
       <c r="I6" s="1">
         <v>1688.86</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="M6" s="56" t="s">
-        <v>152</v>
+      <c r="K6" s="60"/>
+      <c r="M6" s="62" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6595,7 +6592,7 @@
       <c r="I7" s="1">
         <v>1626.76</v>
       </c>
-      <c r="M7" s="57"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6603,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -6624,8 +6621,8 @@
       <c r="I8">
         <v>1557.08</v>
       </c>
-      <c r="M8" s="55" t="s">
-        <v>146</v>
+      <c r="M8" s="63" t="s">
+        <v>145</v>
       </c>
       <c r="O8" s="14"/>
     </row>
@@ -6655,10 +6652,10 @@
       <c r="I9">
         <v>1554.84</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="55"/>
+      <c r="K9" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="63"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6666,7 +6663,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -6687,7 +6684,7 @@
       <c r="I10">
         <v>1463.02</v>
       </c>
-      <c r="K10" s="54"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -6700,7 +6697,7 @@
         <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -6718,7 +6715,7 @@
       <c r="I11">
         <v>1798.06</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="58" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="14"/>
@@ -6728,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -6749,9 +6746,9 @@
       <c r="I12">
         <v>1635.74</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="O12" s="55" t="s">
-        <v>154</v>
+      <c r="K12" s="58"/>
+      <c r="O12" s="63" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6759,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -6780,29 +6777,29 @@
       <c r="I13">
         <v>1620.5</v>
       </c>
-      <c r="O13" s="59"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="56" t="s">
-        <v>151</v>
+      <c r="O14" s="62" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="56"/>
+      <c r="K15" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="58"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="59" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="14"/>
@@ -6810,21 +6807,21 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="51"/>
-      <c r="M18" s="56" t="s">
+      <c r="K18" s="59"/>
+      <c r="M18" s="62" t="s">
         <v>60</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="57"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="61" t="s">
-        <v>151</v>
+      <c r="M20" s="69" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6837,10 +6834,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="55"/>
+      <c r="K21" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -6855,7 +6852,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -6870,7 +6867,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6885,7 +6882,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -6914,8 +6911,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="51" t="s">
-        <v>152</v>
+      <c r="O26" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6923,7 +6920,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="54"/>
+      <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6931,9 +6928,9 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6942,11 +6939,11 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="50"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5"/>
     </row>
@@ -6955,6 +6952,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -6966,11 +6968,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7034,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
@@ -7073,7 +7070,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>77</v>
@@ -7094,8 +7091,8 @@
       <c r="I3" s="1">
         <v>1879.82</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>155</v>
+      <c r="K3" s="59" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -7127,7 +7124,7 @@
       <c r="I4" s="1">
         <v>1689.34</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7138,10 +7135,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
@@ -7159,7 +7156,7 @@
       <c r="I5" s="1">
         <v>1702.92</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7172,7 +7169,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -7193,9 +7190,9 @@
       <c r="I6" s="1">
         <v>1695.94</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="M6" s="55" t="s">
-        <v>155</v>
+      <c r="K6" s="60"/>
+      <c r="M6" s="63" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7206,7 +7203,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>76</v>
@@ -7227,7 +7224,7 @@
       <c r="I7" s="1">
         <v>1633.82</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7235,7 +7232,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -7256,8 +7253,8 @@
       <c r="I8">
         <v>1591.5</v>
       </c>
-      <c r="M8" s="56" t="s">
-        <v>147</v>
+      <c r="M8" s="62" t="s">
+        <v>146</v>
       </c>
       <c r="O8" s="14"/>
     </row>
@@ -7266,7 +7263,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -7287,10 +7284,10 @@
       <c r="I9">
         <v>1566.6</v>
       </c>
-      <c r="K9" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="56"/>
+      <c r="K9" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="62"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7298,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -7319,7 +7316,7 @@
       <c r="I10">
         <v>1757.42</v>
       </c>
-      <c r="K10" s="58"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7329,7 +7326,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -7350,8 +7347,8 @@
       <c r="I11">
         <v>1740</v>
       </c>
-      <c r="K11" s="51" t="s">
-        <v>147</v>
+      <c r="K11" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="O11" s="14"/>
     </row>
@@ -7381,9 +7378,9 @@
       <c r="I12">
         <v>1435.98</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="O12" s="56" t="s">
-        <v>155</v>
+      <c r="K12" s="59"/>
+      <c r="O12" s="62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -7412,51 +7409,51 @@
       <c r="I13">
         <v>1443.12</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="67"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="55" t="s">
-        <v>137</v>
+      <c r="O14" s="63" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="55"/>
+      <c r="K15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="50" t="s">
-        <v>148</v>
+      <c r="K17" s="58" t="s">
+        <v>147</v>
       </c>
       <c r="M17" s="14"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="56" t="s">
-        <v>145</v>
+      <c r="K18" s="58"/>
+      <c r="M18" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="57"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="61" t="s">
-        <v>137</v>
+      <c r="M20" s="69" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -7469,10 +7466,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="55"/>
+      <c r="K21" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -7487,7 +7484,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -7502,7 +7499,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7517,7 +7514,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -7546,8 +7543,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="51" t="s">
-        <v>147</v>
+      <c r="O26" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -7555,7 +7552,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="54"/>
+      <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -7563,10 +7560,10 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -7574,11 +7571,11 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="50"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5"/>
     </row>
@@ -7587,6 +7584,11 @@
     <sortCondition descending="1" ref="H2:H13"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -7598,11 +7600,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7666,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -7705,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -7726,8 +7723,8 @@
       <c r="I3" s="1">
         <v>1810.84</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>147</v>
+      <c r="K3" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7738,7 +7735,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -7759,7 +7756,7 @@
       <c r="I4" s="1">
         <v>1781.88</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,10 +7767,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
@@ -7791,7 +7788,7 @@
       <c r="I5" s="1">
         <v>1758.24</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -7825,9 +7822,9 @@
       <c r="I6" s="1">
         <v>1712.9</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="M6" s="55" t="s">
-        <v>147</v>
+      <c r="K6" s="60"/>
+      <c r="M6" s="63" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7838,7 +7835,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>121</v>
@@ -7859,7 +7856,7 @@
       <c r="I7" s="1">
         <v>1821.42</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7867,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -7888,8 +7885,8 @@
       <c r="I8">
         <v>1771.9</v>
       </c>
-      <c r="M8" s="56" t="s">
-        <v>276</v>
+      <c r="M8" s="62" t="s">
+        <v>275</v>
       </c>
       <c r="O8" s="14"/>
     </row>
@@ -7898,7 +7895,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -7919,10 +7916,10 @@
       <c r="I9">
         <v>1582.7</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="M9" s="56"/>
+      <c r="K9" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="M9" s="62"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7930,7 +7927,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -7951,7 +7948,7 @@
       <c r="I10">
         <v>1709.36</v>
       </c>
-      <c r="K10" s="54"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -7982,7 +7979,7 @@
       <c r="I11">
         <v>1628.92</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="58" t="s">
         <v>60</v>
       </c>
       <c r="O11" s="14"/>
@@ -7992,7 +7989,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -8013,9 +8010,9 @@
       <c r="I12">
         <v>1418.44</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="O12" s="55" t="s">
-        <v>147</v>
+      <c r="K12" s="58"/>
+      <c r="O12" s="63" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8044,51 +8041,51 @@
       <c r="I13">
         <v>1315.52</v>
       </c>
-      <c r="O13" s="59"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="60" t="s">
-        <v>273</v>
+      <c r="O14" s="68" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="56"/>
+      <c r="K15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="50" t="s">
-        <v>155</v>
+      <c r="K17" s="58" t="s">
+        <v>154</v>
       </c>
       <c r="M17" s="14"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="56" t="s">
-        <v>145</v>
+      <c r="K18" s="58"/>
+      <c r="M18" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="57"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="61" t="s">
-        <v>273</v>
+      <c r="M20" s="69" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8101,10 +8098,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="M21" s="55"/>
+      <c r="K21" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8119,7 +8116,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8134,7 +8131,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8149,7 +8146,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -8178,8 +8175,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="51" t="s">
-        <v>145</v>
+      <c r="O26" s="59" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8187,7 +8184,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="54"/>
+      <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8195,10 +8192,10 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>276</v>
+        <v>152</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8206,16 +8203,21 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="50"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8227,11 +8229,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8242,8 +8239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD9AE1-9383-4B8B-8E5D-623A109610AD}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8296,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
@@ -8356,8 +8353,8 @@
       <c r="I3" s="1">
         <v>1852.66</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>155</v>
+      <c r="K3" s="59" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>76</v>
@@ -8389,7 +8386,7 @@
       <c r="I4" s="1">
         <v>1802.18</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -8421,7 +8418,7 @@
       <c r="I5" s="1">
         <v>1712.8</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="14"/>
@@ -8434,10 +8431,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
@@ -8455,9 +8452,9 @@
       <c r="I6" s="1">
         <v>1666.64</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="M6" s="55" t="s">
-        <v>155</v>
+      <c r="K6" s="60"/>
+      <c r="M6" s="63" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8468,7 +8465,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -8489,7 +8486,7 @@
       <c r="I7" s="1">
         <v>1628.1</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -8497,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8518,8 +8515,8 @@
       <c r="I8">
         <v>1590.92</v>
       </c>
-      <c r="M8" s="56" t="s">
-        <v>278</v>
+      <c r="M8" s="62" t="s">
+        <v>277</v>
       </c>
       <c r="O8" s="14"/>
     </row>
@@ -8549,10 +8546,10 @@
       <c r="I9">
         <v>1544.14</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="M9" s="56"/>
+      <c r="K9" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" s="62"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8560,7 +8557,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -8581,7 +8578,7 @@
       <c r="I10">
         <v>1697.52</v>
       </c>
-      <c r="K10" s="54"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -8591,7 +8588,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -8612,8 +8609,8 @@
       <c r="I11">
         <v>1643.86</v>
       </c>
-      <c r="K11" s="50" t="s">
-        <v>276</v>
+      <c r="K11" s="58" t="s">
+        <v>275</v>
       </c>
       <c r="O11" s="14"/>
     </row>
@@ -8622,7 +8619,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -8643,9 +8640,9 @@
       <c r="I12">
         <v>1604.52</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="O12" s="56" t="s">
-        <v>155</v>
+      <c r="K12" s="58"/>
+      <c r="O12" s="62" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8653,10 +8650,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -8674,50 +8671,50 @@
       <c r="I13">
         <v>1465.8</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="67"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
-      <c r="O14" s="61" t="s">
+      <c r="O14" s="69" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H15" s="4"/>
-      <c r="K15" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="55"/>
+      <c r="K15" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
-      <c r="K16" s="58"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="10"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="51" t="s">
-        <v>147</v>
+      <c r="K17" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="M17" s="14"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="K18" s="51"/>
-      <c r="M18" s="56" t="s">
-        <v>147</v>
+      <c r="K18" s="59"/>
+      <c r="M18" s="62" t="s">
+        <v>146</v>
       </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="M19" s="57"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="10"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="69" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8731,10 +8728,10 @@
       <c r="F21" s="16">
         <v>200</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -8749,7 +8746,7 @@
       <c r="F22" s="16">
         <v>100</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10"/>
       <c r="M22" s="14"/>
     </row>
@@ -8764,7 +8761,7 @@
       <c r="F23" s="16">
         <v>30</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8779,7 +8776,7 @@
       <c r="F24" s="16">
         <v>50</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -8808,8 +8805,8 @@
       <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="O26" s="50" t="s">
-        <v>278</v>
+      <c r="O26" s="58" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8817,7 +8814,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="O27" s="58"/>
+      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -8825,10 +8822,10 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="51" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="O28" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8836,16 +8833,21 @@
         <v>49</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="O29" s="51"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O28:O29"/>
@@ -8857,11 +8859,6 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8922,10 +8919,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
@@ -8943,8 +8940,8 @@
       <c r="I2" s="1">
         <v>1401</v>
       </c>
-      <c r="K2" s="53" t="s">
-        <v>217</v>
+      <c r="K2" s="61" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8955,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -8976,9 +8973,9 @@
       <c r="I3" s="1">
         <v>1597</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51" t="s">
-        <v>217</v>
+      <c r="K3" s="61"/>
+      <c r="L3" s="59" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8989,7 +8986,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -9010,10 +9007,10 @@
       <c r="I4" s="1">
         <v>1324</v>
       </c>
-      <c r="K4" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="51"/>
+      <c r="K4" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -9023,10 +9020,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -9044,17 +9041,17 @@
       <c r="I5" s="1">
         <v>1364</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -9073,7 +9070,7 @@
         <v>1383</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9081,10 +9078,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -9102,8 +9099,8 @@
       <c r="I7">
         <v>1311</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>218</v>
+      <c r="K7" s="58" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9111,10 +9108,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -9132,9 +9129,9 @@
       <c r="I8">
         <v>1200</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50" t="s">
-        <v>218</v>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9142,10 +9139,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9163,13 +9160,13 @@
       <c r="I9">
         <v>985</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="50"/>
+      <c r="K9" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="51"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -9177,31 +9174,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="50" t="s">
-        <v>220</v>
+      <c r="L13" s="58" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
         <v>179</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>219</v>
+      <c r="L15" s="59" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9209,22 +9206,22 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="51"/>
+        <v>185</v>
+      </c>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9232,7 +9229,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -9240,10 +9237,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -9254,31 +9251,31 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
         <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -9286,23 +9283,23 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -9310,7 +9307,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -9318,7 +9315,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -9326,7 +9323,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -9337,12 +9334,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -9350,18 +9347,18 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
         <v>180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -9369,7 +9366,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -9377,7 +9374,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -9385,7 +9382,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -9393,7 +9390,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9409,18 +9406,18 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
         <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -9428,7 +9425,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -9436,7 +9433,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -9444,7 +9441,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -9460,7 +9457,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -9468,10 +9465,10 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -9490,12 +9487,12 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -9503,7 +9500,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -9511,7 +9508,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -9522,12 +9519,12 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -9538,12 +9535,12 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9551,7 +9548,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56">
         <v>-1</v>
@@ -9559,7 +9556,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57">
         <v>-2</v>
@@ -9570,7 +9567,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9595,8 +9592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B52E80-2A72-48E8-8AE2-03BD1ED3BA86}">
   <dimension ref="A1:AW81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW25" sqref="AW25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9740,7 +9737,7 @@
         <v>2025</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS1" s="6">
         <v>1</v>
@@ -9752,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9934,7 +9931,7 @@
         <f>(AU2+(AT2*2)+(AS2*3))/COUNTIF(AC2:AQ2,"&lt;&gt;x")</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="AW2" s="62">
+      <c r="AW2" s="50">
         <f>COUNTIF(AC2:AQ2, "&gt;0")/COUNTIF(AC2:AQ2,"&lt;&gt;x")</f>
         <v>0.46666666666666667</v>
       </c>
@@ -10118,7 +10115,7 @@
         <f t="shared" ref="AV3:AV26" si="2">(AU3+(AT3*2)+(AS3*3))/COUNTIF(AC3:AQ3,"&lt;&gt;x")</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="63">
+      <c r="AW3" s="51">
         <f t="shared" ref="AW3:AW26" si="3">COUNTIF(AC3:AQ3, "&gt;0")/COUNTIF(AC3:AQ3,"&lt;&gt;x")</f>
         <v>1</v>
       </c>
@@ -10302,7 +10299,7 @@
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AW4" s="62">
+      <c r="AW4" s="50">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
@@ -10486,7 +10483,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AW5" s="63">
+      <c r="AW5" s="51">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -10670,7 +10667,7 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AW6" s="62">
+      <c r="AW6" s="50">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
@@ -10854,7 +10851,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW7" s="63">
+      <c r="AW7" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11038,7 +11035,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW8" s="63">
+      <c r="AW8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11222,7 +11219,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="AW9" s="62">
+      <c r="AW9" s="50">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
@@ -11406,7 +11403,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AW10" s="63">
+      <c r="AW10" s="51">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -11590,7 +11587,7 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="AW11" s="64">
+      <c r="AW11" s="52">
         <f t="shared" si="3"/>
         <v>0.6428571428571429</v>
       </c>
@@ -11777,7 +11774,7 @@
         <f t="shared" si="2"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="AW12" s="64">
+      <c r="AW12" s="52">
         <f t="shared" si="3"/>
         <v>0.38461538461538464</v>
       </c>
@@ -11961,7 +11958,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AW13" s="64">
+      <c r="AW13" s="52">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
@@ -12145,7 +12142,7 @@
         <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="AW14" s="65">
+      <c r="AW14" s="53">
         <f t="shared" si="3"/>
         <v>0.53846153846153844</v>
       </c>
@@ -12329,7 +12326,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="63">
+      <c r="AW15" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12513,7 +12510,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW16" s="63">
+      <c r="AW16" s="51">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -12697,7 +12694,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="63">
+      <c r="AW17" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12881,7 +12878,7 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="AW18" s="66">
+      <c r="AW18" s="54">
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
@@ -13065,7 +13062,7 @@
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AW19" s="66">
+      <c r="AW19" s="54">
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
@@ -13249,7 +13246,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="63">
+      <c r="AW20" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13433,7 +13430,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW21" s="63">
+      <c r="AW21" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13617,7 +13614,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AW22" s="63">
+      <c r="AW22" s="51">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -13801,14 +13798,14 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="AW23" s="67">
+      <c r="AW23" s="55">
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" t="str">
         <f>_xlfn.XLOOKUP($A24,'2005'!$D$2:$D$9,'2005'!$B$2:$B$9,"")</f>
@@ -13887,7 +13884,7 @@
         <v/>
       </c>
       <c r="X24" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y24" t="str">
         <f>_xlfn.XLOOKUP($A24,'2005'!$D$2:$D$7,'2005'!$A$2:$A$7,"x")</f>
@@ -13985,14 +13982,14 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AW24" s="63">
+      <c r="AW24" s="51">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="44">
         <f>_xlfn.XLOOKUP($A25,'2005'!$D$2:$D$9,'2005'!$B$2:$B$9,"")</f>
@@ -14074,7 +14071,7 @@
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
       <c r="X25" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y25">
         <f>_xlfn.XLOOKUP($A25,'2005'!$D$2:$D$7,'2005'!$A$2:$A$7,"x")</f>
@@ -14172,14 +14169,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW25" s="69">
+      <c r="AW25" s="57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="46" t="str">
         <f>_xlfn.XLOOKUP($A26,'2024'!$D$2:$D$13,'2024'!$B$2:$B$13,"")</f>
@@ -14261,61 +14258,61 @@
       <c r="V26" s="46"/>
       <c r="W26" s="46"/>
       <c r="X26" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AE26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AP26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AQ26">
         <f>_xlfn.XLOOKUP($A26,'2025'!$D$2:$D$13,'2025'!$A$2:$A$13,"x")</f>
@@ -14341,7 +14338,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW26" s="68">
+      <c r="AW26" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="28" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="6">
         <v>2005</v>
@@ -14467,15 +14464,15 @@
         <v>2025</v>
       </c>
       <c r="U28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W28" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="31">
         <f>_xlfn.XLOOKUP($A29,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14503,7 +14500,7 @@
     </row>
     <row r="30" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="31">
         <f>_xlfn.XLOOKUP($A30,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14531,7 +14528,7 @@
     </row>
     <row r="31" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="31">
         <f>_xlfn.XLOOKUP($A31,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14559,7 +14556,7 @@
     </row>
     <row r="32" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="31" t="str">
         <f>_xlfn.XLOOKUP($A32,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14587,7 +14584,7 @@
     </row>
     <row r="33" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="31" t="str">
         <f>_xlfn.XLOOKUP($A33,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14615,7 +14612,7 @@
     </row>
     <row r="34" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="31" t="str">
         <f>_xlfn.XLOOKUP($A34,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14643,7 +14640,7 @@
     </row>
     <row r="35" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="31" t="str">
         <f>_xlfn.XLOOKUP($A35,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14671,7 +14668,7 @@
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="31" t="str">
         <f>_xlfn.XLOOKUP($A36,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14699,7 +14696,7 @@
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="31" t="str">
         <f>_xlfn.XLOOKUP($A37,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14727,7 +14724,7 @@
     </row>
     <row r="38" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="31" t="str">
         <f>_xlfn.XLOOKUP($A38,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14755,7 +14752,7 @@
     </row>
     <row r="39" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="31" t="str">
         <f>_xlfn.XLOOKUP($A39,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14783,7 +14780,7 @@
     </row>
     <row r="40" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="31" t="str">
         <f>_xlfn.XLOOKUP($A40,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14811,7 +14808,7 @@
     </row>
     <row r="41" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" s="31" t="str">
         <f>_xlfn.XLOOKUP($A41,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14839,7 +14836,7 @@
     </row>
     <row r="42" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="31" t="str">
         <f>_xlfn.XLOOKUP($A42,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -14867,7 +14864,7 @@
     </row>
     <row r="43" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="31" t="str">
         <f>_xlfn.XLOOKUP($A43,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -16059,7 +16056,7 @@
       </c>
       <c r="M56" s="29">
         <f>_xlfn.XLOOKUP($A56,'2018'!$D$3:$D$16,'2018'!$E$3:$E$16,"")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N56" s="29">
         <f>_xlfn.XLOOKUP($A56,'2019'!$D$3:$D$16,'2019'!$E$3:$E$16,"")</f>
@@ -16091,7 +16088,7 @@
       </c>
       <c r="U56" s="29">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V56" s="29">
         <f t="shared" si="6"/>
@@ -16099,7 +16096,7 @@
       </c>
       <c r="W56" s="30">
         <f t="shared" si="7"/>
-        <v>0.48571428571428571</v>
+        <v>0.49714285714285716</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16917,7 +16914,7 @@
     </row>
     <row r="66" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="str">
         <f>_xlfn.XLOOKUP($A66,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -17008,7 +17005,7 @@
     </row>
     <row r="67" spans="1:46" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67">
         <f>_xlfn.XLOOKUP($A67,'2005'!$D$2:$D$7,'2005'!$E$2:$E$7,"")</f>
@@ -17097,7 +17094,7 @@
     </row>
     <row r="68" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T68" s="29">
         <f>_xlfn.XLOOKUP($A68,'2025'!$D$2:$D$13,'2025'!$E$2:$E$13,"")</f>
@@ -17342,10 +17339,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1">
         <v>11</v>
@@ -17363,8 +17360,8 @@
       <c r="I2" s="1">
         <v>1367</v>
       </c>
-      <c r="K2" s="53" t="s">
-        <v>245</v>
+      <c r="K2" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -17375,7 +17372,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -17396,9 +17393,9 @@
       <c r="I3" s="1">
         <v>1409</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51" t="s">
-        <v>245</v>
+      <c r="K3" s="61"/>
+      <c r="L3" s="59" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -17409,10 +17406,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -17430,10 +17427,10 @@
       <c r="I4" s="1">
         <v>1242</v>
       </c>
-      <c r="K4" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" s="51"/>
+      <c r="K4" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17443,7 +17440,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -17464,17 +17461,17 @@
       <c r="I5" s="1">
         <v>1280</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -17493,7 +17490,7 @@
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -17501,10 +17498,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -17522,8 +17519,8 @@
       <c r="I7">
         <v>1055</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>246</v>
+      <c r="K7" s="59" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -17531,7 +17528,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -17552,9 +17549,9 @@
       <c r="I8">
         <v>1167</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50" t="s">
-        <v>246</v>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -17562,10 +17559,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -17583,20 +17580,20 @@
       <c r="I9">
         <v>1162</v>
       </c>
-      <c r="K9" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="L9" s="50"/>
+      <c r="K9" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -17614,17 +17611,17 @@
       <c r="I10">
         <v>1086</v>
       </c>
-      <c r="K10" s="50"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -17649,29 +17646,29 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="51" t="s">
-        <v>247</v>
+      <c r="L13" s="59" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>248</v>
+        <v>173</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -17685,7 +17682,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -17786,7 +17783,7 @@
       <c r="I2" s="1">
         <v>1830.14</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17798,7 +17795,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -17819,9 +17816,9 @@
       <c r="I3" s="1">
         <v>1705.42</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
-        <v>260</v>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -17832,7 +17829,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -17853,10 +17850,10 @@
       <c r="I4" s="1">
         <v>1633.02</v>
       </c>
-      <c r="K4" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="50"/>
+      <c r="K4" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -17866,7 +17863,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -17887,17 +17884,17 @@
       <c r="I5" s="1">
         <v>1611.72</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -17916,7 +17913,7 @@
         <v>1454.38</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -17924,7 +17921,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -17945,8 +17942,8 @@
       <c r="I7">
         <v>1547.34</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>259</v>
+      <c r="K7" s="59" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -17954,10 +17951,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -17975,9 +17972,9 @@
       <c r="I8">
         <v>1316.64</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51" t="s">
-        <v>259</v>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -17985,10 +17982,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -18006,13 +18003,13 @@
       <c r="I9">
         <v>1320.34</v>
       </c>
-      <c r="K9" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="L9" s="51"/>
+      <c r="K9" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="50"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -18020,7 +18017,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="59" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18029,19 +18026,19 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="51"/>
+        <v>267</v>
+      </c>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -18049,16 +18046,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L16" s="50"/>
+        <v>269</v>
+      </c>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -18066,7 +18063,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -18076,7 +18073,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -18177,7 +18174,7 @@
       <c r="I2" s="1">
         <v>1636</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="61" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18210,8 +18207,8 @@
       <c r="I3" s="1">
         <v>1450</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18244,10 +18241,10 @@
       <c r="I4" s="1">
         <v>1333</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="53"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -18278,7 +18275,7 @@
       <c r="I5" s="1">
         <v>1558</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -18336,7 +18333,7 @@
       <c r="I7">
         <v>1141</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18366,8 +18363,8 @@
       <c r="I8">
         <v>1174</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18397,13 +18394,13 @@
       <c r="I9">
         <v>1344</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="51"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
@@ -18411,7 +18408,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -18422,7 +18419,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="58"/>
       <c r="M14" t="s">
         <v>11</v>
       </c>
@@ -18431,7 +18428,7 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18439,7 +18436,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -18559,7 +18556,7 @@
       <c r="I2" s="1">
         <v>1511</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="58" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18592,8 +18589,8 @@
       <c r="I3" s="1">
         <v>1402</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -18626,10 +18623,10 @@
       <c r="I4" s="1">
         <v>1297</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="51"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -18660,7 +18657,7 @@
       <c r="I5" s="1">
         <v>1398</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -18718,7 +18715,7 @@
       <c r="I7">
         <v>1269</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -18748,8 +18745,8 @@
       <c r="I8">
         <v>1254</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="58" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18779,10 +18776,10 @@
       <c r="I9">
         <v>1351</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -18810,7 +18807,7 @@
       <c r="I10">
         <v>1294</v>
       </c>
-      <c r="K10" s="50"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -18845,7 +18842,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="59" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18856,7 +18853,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="59"/>
       <c r="M14" t="s">
         <v>9</v>
       </c>
@@ -18874,7 +18871,7 @@
       <c r="F15" s="15">
         <v>120</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -18889,7 +18886,7 @@
       <c r="F16" s="15">
         <v>60</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -19017,7 +19014,7 @@
       <c r="I2" s="1">
         <v>1844.5</v>
       </c>
-      <c r="K2" s="50" t="str">
+      <c r="K2" s="58" t="str">
         <f>C2</f>
         <v>#Hashtags</v>
       </c>
@@ -19051,8 +19048,8 @@
       <c r="I3" s="1">
         <v>2096.08</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="59" t="s">
         <v>50</v>
       </c>
     </row>
@@ -19085,11 +19082,11 @@
       <c r="I4" s="1">
         <v>1811.46</v>
       </c>
-      <c r="K4" s="51" t="str">
+      <c r="K4" s="59" t="str">
         <f>C5</f>
         <v>Bologna Ponies</v>
       </c>
-      <c r="L4" s="51"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -19120,7 +19117,7 @@
       <c r="I5" s="1">
         <v>2048.5</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -19178,7 +19175,7 @@
       <c r="I7">
         <v>1774.8</v>
       </c>
-      <c r="K7" s="51" t="str">
+      <c r="K7" s="59" t="str">
         <f>C3</f>
         <v>The Timmies</v>
       </c>
@@ -19209,8 +19206,8 @@
       <c r="I8">
         <v>1793.28</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="58" t="s">
         <v>51</v>
       </c>
     </row>
@@ -19240,11 +19237,11 @@
       <c r="I9">
         <v>1922.56</v>
       </c>
-      <c r="K9" s="50" t="str">
+      <c r="K9" s="58" t="str">
         <f>C4</f>
         <v>The dago</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -19272,7 +19269,7 @@
       <c r="I10">
         <v>1882.62</v>
       </c>
-      <c r="K10" s="50"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -19307,7 +19304,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="59" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19318,7 +19315,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="59"/>
       <c r="M14" t="s">
         <v>7</v>
       </c>
@@ -19336,7 +19333,7 @@
       <c r="F15" s="16">
         <v>120</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19350,7 +19347,7 @@
       <c r="F16" s="16">
         <v>60</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -19501,7 +19498,7 @@
       <c r="J3" s="1">
         <v>1596.84</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19537,7 +19534,7 @@
       <c r="J4" s="1">
         <v>1481.24</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19572,7 +19569,7 @@
       <c r="J5" s="1">
         <v>1728.66</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -19609,8 +19606,8 @@
       <c r="J6" s="1">
         <v>1635.62</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="56" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="62" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19643,7 +19640,7 @@
       <c r="J7">
         <v>1508.98</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19676,7 +19673,7 @@
       <c r="J8" s="10">
         <v>1388.18</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="14"/>
@@ -19685,10 +19682,10 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="63"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -19722,7 +19719,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -19759,7 +19756,7 @@
       <c r="J11" s="1">
         <v>1673.14</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="58" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="14"/>
@@ -19796,8 +19793,8 @@
       <c r="J12" s="1">
         <v>1615.32</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="58"/>
+      <c r="P12" s="63" t="s">
         <v>51</v>
       </c>
     </row>
@@ -19830,7 +19827,7 @@
       <c r="J13">
         <v>1539.26</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -19861,7 +19858,7 @@
       <c r="J14">
         <v>1336.24</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="62" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19894,10 +19891,10 @@
       <c r="J15">
         <v>1368.88</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -19928,12 +19925,12 @@
       <c r="J16">
         <v>1513.46</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="59" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="14"/>
@@ -19941,20 +19938,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="56" t="s">
+      <c r="L18" s="59"/>
+      <c r="N18" s="62" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="63" t="s">
         <v>60</v>
       </c>
     </row>
@@ -19968,10 +19965,10 @@
       <c r="F21" s="16">
         <v>120</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -19986,7 +19983,7 @@
       <c r="F22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -20000,7 +19997,7 @@
       <c r="F23" s="16">
         <v>20</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -20008,7 +20005,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -20022,7 +20019,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="58" t="s">
         <v>79</v>
       </c>
     </row>
@@ -20030,13 +20027,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="58"/>
+      <c r="P27" s="65"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="59" t="s">
         <v>60</v>
       </c>
     </row>
@@ -20044,19 +20041,13 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L21:L22"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N8:N9"/>
@@ -20067,6 +20058,12 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20172,7 +20169,7 @@
       <c r="J3" s="1">
         <v>1732.22</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20208,7 +20205,7 @@
       <c r="J4" s="1">
         <v>1639.06</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20243,7 +20240,7 @@
       <c r="J5" s="1">
         <v>1533.2</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="60" t="s">
         <v>80</v>
       </c>
       <c r="N5" s="14"/>
@@ -20280,8 +20277,8 @@
       <c r="J6" s="1">
         <v>1643.26</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="N6" s="56" t="s">
+      <c r="L6" s="60"/>
+      <c r="N6" s="62" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20314,7 +20311,7 @@
       <c r="J7">
         <v>1588.24</v>
       </c>
-      <c r="N7" s="57"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -20347,7 +20344,7 @@
       <c r="J8" s="10">
         <v>1475.86</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="63" t="s">
         <v>89</v>
       </c>
       <c r="P8" s="14"/>
@@ -20356,10 +20353,10 @@
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="63"/>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -20393,7 +20390,7 @@
       <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="65"/>
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
       <c r="P10" s="14"/>
@@ -20430,7 +20427,7 @@
       <c r="J11" s="1">
         <v>1625.18</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="59" t="s">
         <v>89</v>
       </c>
       <c r="P11" s="14"/>
@@ -20467,8 +20464,8 @@
       <c r="J12" s="1">
         <v>1578.96</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="59"/>
+      <c r="P12" s="63" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20501,7 +20498,7 @@
       <c r="J13">
         <v>1497.04</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -20532,7 +20529,7 @@
       <c r="J14">
         <v>1303.76</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -20565,10 +20562,10 @@
       <c r="J15">
         <v>1504.64</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -20599,12 +20596,12 @@
       <c r="J16">
         <v>1382.22</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="10"/>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="59" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="14"/>
@@ -20612,20 +20609,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="56" t="s">
+      <c r="L18" s="59"/>
+      <c r="N18" s="62" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H19" s="4"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="10"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -20639,10 +20636,10 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -20657,7 +20654,7 @@
       <c r="F22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
@@ -20671,7 +20668,7 @@
       <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -20683,7 +20680,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="L24" s="50"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -20698,7 +20695,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="59" t="s">
         <v>89</v>
       </c>
     </row>
@@ -20706,13 +20703,13 @@
       <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="54"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="58" t="s">
         <v>72</v>
       </c>
     </row>
@@ -20720,13 +20717,18 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="50"/>
+      <c r="P29" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:J16">
     <sortCondition descending="1" ref="H11:H16"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P28:P29"/>
@@ -20738,11 +20740,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
